--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(screen)_(Subfunction_ID)_(Subfunction_Name).xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(screen)_(Subfunction_ID)_(Subfunction_Name).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1BEACD-1000-4B82-93D7-2B0CD0B50217}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6188B22-AD46-4444-8F66-2DE6CD77D956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="2730" windowWidth="27495" windowHeight="10710" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="20" state="hidden" r:id="rId2"/>
-    <sheet name="取引単体①" sheetId="13" r:id="rId3"/>
-    <sheet name="取引単体②" sheetId="22" r:id="rId4"/>
+    <sheet name="Subfunction unit 1" sheetId="13" r:id="rId3"/>
+    <sheet name="Subfunction unit 2" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">取引単体①!$A$10:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">取引単体②!$A$10:$R$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">取引単体①!$A$1:$R$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">取引単体②!$A$1:$R$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Subfunction unit 1'!$A$10:$R$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Subfunction unit 2'!$A$10:$R$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Subfunction unit 1'!$A$1:$R$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Subfunction unit 2'!$A$1:$R$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">取引単体①!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">取引単体②!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Subfunction unit 1'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Subfunction unit 2'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -104,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="362">
   <si>
     <t>対象外</t>
   </si>
@@ -1238,6 +1240,10 @@
 processing details, item definition
 (Check one or more patterns that result in validation errors. 
 To verify that the scrutiny process is called)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subfunction unit test specification</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3292,6 +3298,84 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -3398,84 +3482,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3606,8 +3612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -4929,55 +4935,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="277" t="s">
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="286" t="s">
+      <c r="P1" s="304"/>
+      <c r="Q1" s="304"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="288"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="313"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313"/>
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="313"/>
+      <c r="Z1" s="314"/>
+      <c r="AA1" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="295" t="str">
+      <c r="AB1" s="296"/>
+      <c r="AC1" s="321" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="297"/>
-      <c r="AG1" s="262" t="str">
+      <c r="AD1" s="322"/>
+      <c r="AE1" s="322"/>
+      <c r="AF1" s="323"/>
+      <c r="AG1" s="288" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="289"/>
+      <c r="AI1" s="290"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -4985,51 +4991,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="281"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="290"/>
-      <c r="W2" s="290"/>
-      <c r="X2" s="290"/>
-      <c r="Y2" s="290"/>
-      <c r="Z2" s="291"/>
-      <c r="AA2" s="268" t="s">
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="307"/>
+      <c r="Q2" s="307"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="317"/>
+      <c r="AA2" s="294" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="274" t="str">
+      <c r="AB2" s="296"/>
+      <c r="AC2" s="300" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="276"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="302"/>
+      <c r="AG2" s="288" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="289"/>
+      <c r="AI2" s="290"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5037,43 +5043,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="294" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
-      <c r="Z3" s="294"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="297"/>
-      <c r="AG3" s="262"/>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="310"/>
+      <c r="R3" s="311"/>
+      <c r="S3" s="318"/>
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="319"/>
+      <c r="W3" s="319"/>
+      <c r="X3" s="319"/>
+      <c r="Y3" s="319"/>
+      <c r="Z3" s="320"/>
+      <c r="AA3" s="294"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="321"/>
+      <c r="AD3" s="322"/>
+      <c r="AE3" s="322"/>
+      <c r="AF3" s="323"/>
+      <c r="AG3" s="288"/>
+      <c r="AH3" s="289"/>
+      <c r="AI3" s="290"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5110,1176 +5116,1020 @@
       <c r="A7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="265" t="s">
+      <c r="B7" s="291" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="265" t="s">
+      <c r="C7" s="292"/>
+      <c r="D7" s="291" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="267"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="265" t="s">
+      <c r="E7" s="293"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="291" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="267"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="265" t="s">
+      <c r="H7" s="293"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="291" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="265" t="s">
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="293"/>
+      <c r="O7" s="293"/>
+      <c r="P7" s="292"/>
+      <c r="Q7" s="291" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="267"/>
-      <c r="U7" s="267"/>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
-      <c r="AA7" s="267"/>
-      <c r="AB7" s="267"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="267"/>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="265" t="s">
+      <c r="R7" s="293"/>
+      <c r="S7" s="293"/>
+      <c r="T7" s="293"/>
+      <c r="U7" s="293"/>
+      <c r="V7" s="293"/>
+      <c r="W7" s="293"/>
+      <c r="X7" s="293"/>
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="293"/>
+      <c r="AA7" s="293"/>
+      <c r="AB7" s="293"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="293"/>
+      <c r="AE7" s="292"/>
+      <c r="AF7" s="291" t="s">
         <v>119</v>
       </c>
-      <c r="AG7" s="267"/>
-      <c r="AH7" s="267"/>
-      <c r="AI7" s="266"/>
+      <c r="AG7" s="293"/>
+      <c r="AH7" s="293"/>
+      <c r="AI7" s="292"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="310"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="312"/>
-      <c r="E8" s="313"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="315"/>
-      <c r="H8" s="316"/>
-      <c r="I8" s="311"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="318"/>
-      <c r="L8" s="318"/>
-      <c r="M8" s="318"/>
-      <c r="N8" s="318"/>
-      <c r="O8" s="318"/>
-      <c r="P8" s="319"/>
-      <c r="Q8" s="320"/>
-      <c r="R8" s="321"/>
-      <c r="S8" s="321"/>
-      <c r="T8" s="321"/>
-      <c r="U8" s="321"/>
-      <c r="V8" s="321"/>
-      <c r="W8" s="321"/>
-      <c r="X8" s="321"/>
-      <c r="Y8" s="321"/>
-      <c r="Z8" s="321"/>
-      <c r="AA8" s="321"/>
-      <c r="AB8" s="321"/>
-      <c r="AC8" s="321"/>
-      <c r="AD8" s="321"/>
-      <c r="AE8" s="322"/>
-      <c r="AF8" s="317"/>
-      <c r="AG8" s="318"/>
-      <c r="AH8" s="318"/>
-      <c r="AI8" s="319"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="281"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="282"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="285"/>
+      <c r="R8" s="286"/>
+      <c r="S8" s="286"/>
+      <c r="T8" s="286"/>
+      <c r="U8" s="286"/>
+      <c r="V8" s="286"/>
+      <c r="W8" s="286"/>
+      <c r="X8" s="286"/>
+      <c r="Y8" s="286"/>
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="286"/>
+      <c r="AB8" s="286"/>
+      <c r="AC8" s="286"/>
+      <c r="AD8" s="286"/>
+      <c r="AE8" s="287"/>
+      <c r="AF8" s="282"/>
+      <c r="AG8" s="283"/>
+      <c r="AH8" s="283"/>
+      <c r="AI8" s="284"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="298"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="305"/>
-      <c r="L9" s="305"/>
-      <c r="M9" s="305"/>
-      <c r="N9" s="305"/>
-      <c r="O9" s="305"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="307"/>
-      <c r="R9" s="308"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="308"/>
-      <c r="V9" s="308"/>
-      <c r="W9" s="308"/>
-      <c r="X9" s="308"/>
-      <c r="Y9" s="308"/>
-      <c r="Z9" s="308"/>
-      <c r="AA9" s="308"/>
-      <c r="AB9" s="308"/>
-      <c r="AC9" s="308"/>
-      <c r="AD9" s="308"/>
-      <c r="AE9" s="309"/>
-      <c r="AF9" s="304"/>
-      <c r="AG9" s="305"/>
-      <c r="AH9" s="305"/>
-      <c r="AI9" s="306"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="268"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="269"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="271"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="272"/>
+      <c r="T9" s="272"/>
+      <c r="U9" s="272"/>
+      <c r="V9" s="272"/>
+      <c r="W9" s="272"/>
+      <c r="X9" s="272"/>
+      <c r="Y9" s="272"/>
+      <c r="Z9" s="272"/>
+      <c r="AA9" s="272"/>
+      <c r="AB9" s="272"/>
+      <c r="AC9" s="272"/>
+      <c r="AD9" s="272"/>
+      <c r="AE9" s="273"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="269"/>
+      <c r="AH9" s="269"/>
+      <c r="AI9" s="270"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="298"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="304"/>
-      <c r="K10" s="305"/>
-      <c r="L10" s="305"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="305"/>
-      <c r="O10" s="305"/>
-      <c r="P10" s="306"/>
-      <c r="Q10" s="307"/>
-      <c r="R10" s="308"/>
-      <c r="S10" s="308"/>
-      <c r="T10" s="308"/>
-      <c r="U10" s="308"/>
-      <c r="V10" s="308"/>
-      <c r="W10" s="308"/>
-      <c r="X10" s="308"/>
-      <c r="Y10" s="308"/>
-      <c r="Z10" s="308"/>
-      <c r="AA10" s="308"/>
-      <c r="AB10" s="308"/>
-      <c r="AC10" s="308"/>
-      <c r="AD10" s="308"/>
-      <c r="AE10" s="309"/>
-      <c r="AF10" s="304"/>
-      <c r="AG10" s="305"/>
-      <c r="AH10" s="305"/>
-      <c r="AI10" s="306"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="268"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="269"/>
+      <c r="O10" s="269"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="271"/>
+      <c r="R10" s="272"/>
+      <c r="S10" s="272"/>
+      <c r="T10" s="272"/>
+      <c r="U10" s="272"/>
+      <c r="V10" s="272"/>
+      <c r="W10" s="272"/>
+      <c r="X10" s="272"/>
+      <c r="Y10" s="272"/>
+      <c r="Z10" s="272"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="272"/>
+      <c r="AC10" s="272"/>
+      <c r="AD10" s="272"/>
+      <c r="AE10" s="273"/>
+      <c r="AF10" s="268"/>
+      <c r="AG10" s="269"/>
+      <c r="AH10" s="269"/>
+      <c r="AI10" s="270"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="298"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="303"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="304"/>
-      <c r="K11" s="305"/>
-      <c r="L11" s="305"/>
-      <c r="M11" s="305"/>
-      <c r="N11" s="305"/>
-      <c r="O11" s="305"/>
-      <c r="P11" s="306"/>
-      <c r="Q11" s="307"/>
-      <c r="R11" s="308"/>
-      <c r="S11" s="308"/>
-      <c r="T11" s="308"/>
-      <c r="U11" s="308"/>
-      <c r="V11" s="308"/>
-      <c r="W11" s="308"/>
-      <c r="X11" s="308"/>
-      <c r="Y11" s="308"/>
-      <c r="Z11" s="308"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="308"/>
-      <c r="AC11" s="308"/>
-      <c r="AD11" s="308"/>
-      <c r="AE11" s="309"/>
-      <c r="AF11" s="304"/>
-      <c r="AG11" s="305"/>
-      <c r="AH11" s="305"/>
-      <c r="AI11" s="306"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="269"/>
+      <c r="N11" s="269"/>
+      <c r="O11" s="269"/>
+      <c r="P11" s="270"/>
+      <c r="Q11" s="271"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="272"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="272"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="272"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="273"/>
+      <c r="AF11" s="268"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="270"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="298"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="304"/>
-      <c r="K12" s="305"/>
-      <c r="L12" s="305"/>
-      <c r="M12" s="305"/>
-      <c r="N12" s="305"/>
-      <c r="O12" s="305"/>
-      <c r="P12" s="306"/>
-      <c r="Q12" s="307"/>
-      <c r="R12" s="308"/>
-      <c r="S12" s="308"/>
-      <c r="T12" s="308"/>
-      <c r="U12" s="308"/>
-      <c r="V12" s="308"/>
-      <c r="W12" s="308"/>
-      <c r="X12" s="308"/>
-      <c r="Y12" s="308"/>
-      <c r="Z12" s="308"/>
-      <c r="AA12" s="308"/>
-      <c r="AB12" s="308"/>
-      <c r="AC12" s="308"/>
-      <c r="AD12" s="308"/>
-      <c r="AE12" s="309"/>
-      <c r="AF12" s="304"/>
-      <c r="AG12" s="305"/>
-      <c r="AH12" s="305"/>
-      <c r="AI12" s="306"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="268"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="269"/>
+      <c r="M12" s="269"/>
+      <c r="N12" s="269"/>
+      <c r="O12" s="269"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="271"/>
+      <c r="R12" s="272"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="272"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="272"/>
+      <c r="Y12" s="272"/>
+      <c r="Z12" s="272"/>
+      <c r="AA12" s="272"/>
+      <c r="AB12" s="272"/>
+      <c r="AC12" s="272"/>
+      <c r="AD12" s="272"/>
+      <c r="AE12" s="273"/>
+      <c r="AF12" s="268"/>
+      <c r="AG12" s="269"/>
+      <c r="AH12" s="269"/>
+      <c r="AI12" s="270"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="298"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="305"/>
-      <c r="L13" s="305"/>
-      <c r="M13" s="305"/>
-      <c r="N13" s="305"/>
-      <c r="O13" s="305"/>
-      <c r="P13" s="306"/>
-      <c r="Q13" s="307"/>
-      <c r="R13" s="308"/>
-      <c r="S13" s="308"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="308"/>
-      <c r="V13" s="308"/>
-      <c r="W13" s="308"/>
-      <c r="X13" s="308"/>
-      <c r="Y13" s="308"/>
-      <c r="Z13" s="308"/>
-      <c r="AA13" s="308"/>
-      <c r="AB13" s="308"/>
-      <c r="AC13" s="308"/>
-      <c r="AD13" s="308"/>
-      <c r="AE13" s="309"/>
-      <c r="AF13" s="304"/>
-      <c r="AG13" s="305"/>
-      <c r="AH13" s="305"/>
-      <c r="AI13" s="306"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="268"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="269"/>
+      <c r="M13" s="269"/>
+      <c r="N13" s="269"/>
+      <c r="O13" s="269"/>
+      <c r="P13" s="270"/>
+      <c r="Q13" s="271"/>
+      <c r="R13" s="272"/>
+      <c r="S13" s="272"/>
+      <c r="T13" s="272"/>
+      <c r="U13" s="272"/>
+      <c r="V13" s="272"/>
+      <c r="W13" s="272"/>
+      <c r="X13" s="272"/>
+      <c r="Y13" s="272"/>
+      <c r="Z13" s="272"/>
+      <c r="AA13" s="272"/>
+      <c r="AB13" s="272"/>
+      <c r="AC13" s="272"/>
+      <c r="AD13" s="272"/>
+      <c r="AE13" s="273"/>
+      <c r="AF13" s="268"/>
+      <c r="AG13" s="269"/>
+      <c r="AH13" s="269"/>
+      <c r="AI13" s="270"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="298"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="301"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="303"/>
-      <c r="I14" s="299"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="305"/>
-      <c r="L14" s="305"/>
-      <c r="M14" s="305"/>
-      <c r="N14" s="305"/>
-      <c r="O14" s="305"/>
-      <c r="P14" s="306"/>
-      <c r="Q14" s="307"/>
-      <c r="R14" s="308"/>
-      <c r="S14" s="308"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="308"/>
-      <c r="V14" s="308"/>
-      <c r="W14" s="308"/>
-      <c r="X14" s="308"/>
-      <c r="Y14" s="308"/>
-      <c r="Z14" s="308"/>
-      <c r="AA14" s="308"/>
-      <c r="AB14" s="308"/>
-      <c r="AC14" s="308"/>
-      <c r="AD14" s="308"/>
-      <c r="AE14" s="309"/>
-      <c r="AF14" s="304"/>
-      <c r="AG14" s="305"/>
-      <c r="AH14" s="305"/>
-      <c r="AI14" s="306"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="269"/>
+      <c r="N14" s="269"/>
+      <c r="O14" s="269"/>
+      <c r="P14" s="270"/>
+      <c r="Q14" s="271"/>
+      <c r="R14" s="272"/>
+      <c r="S14" s="272"/>
+      <c r="T14" s="272"/>
+      <c r="U14" s="272"/>
+      <c r="V14" s="272"/>
+      <c r="W14" s="272"/>
+      <c r="X14" s="272"/>
+      <c r="Y14" s="272"/>
+      <c r="Z14" s="272"/>
+      <c r="AA14" s="272"/>
+      <c r="AB14" s="272"/>
+      <c r="AC14" s="272"/>
+      <c r="AD14" s="272"/>
+      <c r="AE14" s="273"/>
+      <c r="AF14" s="268"/>
+      <c r="AG14" s="269"/>
+      <c r="AH14" s="269"/>
+      <c r="AI14" s="270"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="298"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="303"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="304"/>
-      <c r="K15" s="305"/>
-      <c r="L15" s="305"/>
-      <c r="M15" s="305"/>
-      <c r="N15" s="305"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="306"/>
-      <c r="Q15" s="307"/>
-      <c r="R15" s="308"/>
-      <c r="S15" s="308"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="308"/>
-      <c r="V15" s="308"/>
-      <c r="W15" s="308"/>
-      <c r="X15" s="308"/>
-      <c r="Y15" s="308"/>
-      <c r="Z15" s="308"/>
-      <c r="AA15" s="308"/>
-      <c r="AB15" s="308"/>
-      <c r="AC15" s="308"/>
-      <c r="AD15" s="308"/>
-      <c r="AE15" s="309"/>
-      <c r="AF15" s="304"/>
-      <c r="AG15" s="305"/>
-      <c r="AH15" s="305"/>
-      <c r="AI15" s="306"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="263"/>
+      <c r="J15" s="268"/>
+      <c r="K15" s="269"/>
+      <c r="L15" s="269"/>
+      <c r="M15" s="269"/>
+      <c r="N15" s="269"/>
+      <c r="O15" s="269"/>
+      <c r="P15" s="270"/>
+      <c r="Q15" s="271"/>
+      <c r="R15" s="272"/>
+      <c r="S15" s="272"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="272"/>
+      <c r="V15" s="272"/>
+      <c r="W15" s="272"/>
+      <c r="X15" s="272"/>
+      <c r="Y15" s="272"/>
+      <c r="Z15" s="272"/>
+      <c r="AA15" s="272"/>
+      <c r="AB15" s="272"/>
+      <c r="AC15" s="272"/>
+      <c r="AD15" s="272"/>
+      <c r="AE15" s="273"/>
+      <c r="AF15" s="268"/>
+      <c r="AG15" s="269"/>
+      <c r="AH15" s="269"/>
+      <c r="AI15" s="270"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="298"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="301"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="304"/>
-      <c r="K16" s="305"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="305"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="306"/>
-      <c r="Q16" s="307"/>
-      <c r="R16" s="308"/>
-      <c r="S16" s="308"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="308"/>
-      <c r="V16" s="308"/>
-      <c r="W16" s="308"/>
-      <c r="X16" s="308"/>
-      <c r="Y16" s="308"/>
-      <c r="Z16" s="308"/>
-      <c r="AA16" s="308"/>
-      <c r="AB16" s="308"/>
-      <c r="AC16" s="308"/>
-      <c r="AD16" s="308"/>
-      <c r="AE16" s="309"/>
-      <c r="AF16" s="304"/>
-      <c r="AG16" s="305"/>
-      <c r="AH16" s="305"/>
-      <c r="AI16" s="306"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="263"/>
+      <c r="J16" s="268"/>
+      <c r="K16" s="269"/>
+      <c r="L16" s="269"/>
+      <c r="M16" s="269"/>
+      <c r="N16" s="269"/>
+      <c r="O16" s="269"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="271"/>
+      <c r="R16" s="272"/>
+      <c r="S16" s="272"/>
+      <c r="T16" s="272"/>
+      <c r="U16" s="272"/>
+      <c r="V16" s="272"/>
+      <c r="W16" s="272"/>
+      <c r="X16" s="272"/>
+      <c r="Y16" s="272"/>
+      <c r="Z16" s="272"/>
+      <c r="AA16" s="272"/>
+      <c r="AB16" s="272"/>
+      <c r="AC16" s="272"/>
+      <c r="AD16" s="272"/>
+      <c r="AE16" s="273"/>
+      <c r="AF16" s="268"/>
+      <c r="AG16" s="269"/>
+      <c r="AH16" s="269"/>
+      <c r="AI16" s="270"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="298"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="301"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="298"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="305"/>
-      <c r="L17" s="305"/>
-      <c r="M17" s="305"/>
-      <c r="N17" s="305"/>
-      <c r="O17" s="305"/>
-      <c r="P17" s="306"/>
-      <c r="Q17" s="307"/>
-      <c r="R17" s="308"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="308"/>
-      <c r="U17" s="308"/>
-      <c r="V17" s="308"/>
-      <c r="W17" s="308"/>
-      <c r="X17" s="308"/>
-      <c r="Y17" s="308"/>
-      <c r="Z17" s="308"/>
-      <c r="AA17" s="308"/>
-      <c r="AB17" s="308"/>
-      <c r="AC17" s="308"/>
-      <c r="AD17" s="308"/>
-      <c r="AE17" s="309"/>
-      <c r="AF17" s="304"/>
-      <c r="AG17" s="305"/>
-      <c r="AH17" s="305"/>
-      <c r="AI17" s="306"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="267"/>
+      <c r="I17" s="263"/>
+      <c r="J17" s="268"/>
+      <c r="K17" s="269"/>
+      <c r="L17" s="269"/>
+      <c r="M17" s="269"/>
+      <c r="N17" s="269"/>
+      <c r="O17" s="269"/>
+      <c r="P17" s="270"/>
+      <c r="Q17" s="271"/>
+      <c r="R17" s="272"/>
+      <c r="S17" s="272"/>
+      <c r="T17" s="272"/>
+      <c r="U17" s="272"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="272"/>
+      <c r="X17" s="272"/>
+      <c r="Y17" s="272"/>
+      <c r="Z17" s="272"/>
+      <c r="AA17" s="272"/>
+      <c r="AB17" s="272"/>
+      <c r="AC17" s="272"/>
+      <c r="AD17" s="272"/>
+      <c r="AE17" s="273"/>
+      <c r="AF17" s="268"/>
+      <c r="AG17" s="269"/>
+      <c r="AH17" s="269"/>
+      <c r="AI17" s="270"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="298"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="301"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="304"/>
-      <c r="K18" s="305"/>
-      <c r="L18" s="305"/>
-      <c r="M18" s="305"/>
-      <c r="N18" s="305"/>
-      <c r="O18" s="305"/>
-      <c r="P18" s="306"/>
-      <c r="Q18" s="307"/>
-      <c r="R18" s="308"/>
-      <c r="S18" s="308"/>
-      <c r="T18" s="308"/>
-      <c r="U18" s="308"/>
-      <c r="V18" s="308"/>
-      <c r="W18" s="308"/>
-      <c r="X18" s="308"/>
-      <c r="Y18" s="308"/>
-      <c r="Z18" s="308"/>
-      <c r="AA18" s="308"/>
-      <c r="AB18" s="308"/>
-      <c r="AC18" s="308"/>
-      <c r="AD18" s="308"/>
-      <c r="AE18" s="309"/>
-      <c r="AF18" s="304"/>
-      <c r="AG18" s="305"/>
-      <c r="AH18" s="305"/>
-      <c r="AI18" s="306"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="269"/>
+      <c r="L18" s="269"/>
+      <c r="M18" s="269"/>
+      <c r="N18" s="269"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="271"/>
+      <c r="R18" s="272"/>
+      <c r="S18" s="272"/>
+      <c r="T18" s="272"/>
+      <c r="U18" s="272"/>
+      <c r="V18" s="272"/>
+      <c r="W18" s="272"/>
+      <c r="X18" s="272"/>
+      <c r="Y18" s="272"/>
+      <c r="Z18" s="272"/>
+      <c r="AA18" s="272"/>
+      <c r="AB18" s="272"/>
+      <c r="AC18" s="272"/>
+      <c r="AD18" s="272"/>
+      <c r="AE18" s="273"/>
+      <c r="AF18" s="268"/>
+      <c r="AG18" s="269"/>
+      <c r="AH18" s="269"/>
+      <c r="AI18" s="270"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="298"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="301"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="305"/>
-      <c r="L19" s="305"/>
-      <c r="M19" s="305"/>
-      <c r="N19" s="305"/>
-      <c r="O19" s="305"/>
-      <c r="P19" s="306"/>
-      <c r="Q19" s="307"/>
-      <c r="R19" s="308"/>
-      <c r="S19" s="308"/>
-      <c r="T19" s="308"/>
-      <c r="U19" s="308"/>
-      <c r="V19" s="308"/>
-      <c r="W19" s="308"/>
-      <c r="X19" s="308"/>
-      <c r="Y19" s="308"/>
-      <c r="Z19" s="308"/>
-      <c r="AA19" s="308"/>
-      <c r="AB19" s="308"/>
-      <c r="AC19" s="308"/>
-      <c r="AD19" s="308"/>
-      <c r="AE19" s="309"/>
-      <c r="AF19" s="304"/>
-      <c r="AG19" s="305"/>
-      <c r="AH19" s="305"/>
-      <c r="AI19" s="306"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="263"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="269"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="269"/>
+      <c r="N19" s="269"/>
+      <c r="O19" s="269"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="271"/>
+      <c r="R19" s="272"/>
+      <c r="S19" s="272"/>
+      <c r="T19" s="272"/>
+      <c r="U19" s="272"/>
+      <c r="V19" s="272"/>
+      <c r="W19" s="272"/>
+      <c r="X19" s="272"/>
+      <c r="Y19" s="272"/>
+      <c r="Z19" s="272"/>
+      <c r="AA19" s="272"/>
+      <c r="AB19" s="272"/>
+      <c r="AC19" s="272"/>
+      <c r="AD19" s="272"/>
+      <c r="AE19" s="273"/>
+      <c r="AF19" s="268"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="269"/>
+      <c r="AI19" s="270"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="298"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="304"/>
-      <c r="K20" s="305"/>
-      <c r="L20" s="305"/>
-      <c r="M20" s="305"/>
-      <c r="N20" s="305"/>
-      <c r="O20" s="305"/>
-      <c r="P20" s="306"/>
-      <c r="Q20" s="307"/>
-      <c r="R20" s="308"/>
-      <c r="S20" s="308"/>
-      <c r="T20" s="308"/>
-      <c r="U20" s="308"/>
-      <c r="V20" s="308"/>
-      <c r="W20" s="308"/>
-      <c r="X20" s="308"/>
-      <c r="Y20" s="308"/>
-      <c r="Z20" s="308"/>
-      <c r="AA20" s="308"/>
-      <c r="AB20" s="308"/>
-      <c r="AC20" s="308"/>
-      <c r="AD20" s="308"/>
-      <c r="AE20" s="309"/>
-      <c r="AF20" s="304"/>
-      <c r="AG20" s="305"/>
-      <c r="AH20" s="305"/>
-      <c r="AI20" s="306"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="262"/>
+      <c r="H20" s="267"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="269"/>
+      <c r="L20" s="269"/>
+      <c r="M20" s="269"/>
+      <c r="N20" s="269"/>
+      <c r="O20" s="269"/>
+      <c r="P20" s="270"/>
+      <c r="Q20" s="271"/>
+      <c r="R20" s="272"/>
+      <c r="S20" s="272"/>
+      <c r="T20" s="272"/>
+      <c r="U20" s="272"/>
+      <c r="V20" s="272"/>
+      <c r="W20" s="272"/>
+      <c r="X20" s="272"/>
+      <c r="Y20" s="272"/>
+      <c r="Z20" s="272"/>
+      <c r="AA20" s="272"/>
+      <c r="AB20" s="272"/>
+      <c r="AC20" s="272"/>
+      <c r="AD20" s="272"/>
+      <c r="AE20" s="273"/>
+      <c r="AF20" s="268"/>
+      <c r="AG20" s="269"/>
+      <c r="AH20" s="269"/>
+      <c r="AI20" s="270"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="298"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="302"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="303"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="304"/>
-      <c r="K21" s="305"/>
-      <c r="L21" s="305"/>
-      <c r="M21" s="305"/>
-      <c r="N21" s="305"/>
-      <c r="O21" s="305"/>
-      <c r="P21" s="306"/>
-      <c r="Q21" s="307"/>
-      <c r="R21" s="308"/>
-      <c r="S21" s="308"/>
-      <c r="T21" s="308"/>
-      <c r="U21" s="308"/>
-      <c r="V21" s="308"/>
-      <c r="W21" s="308"/>
-      <c r="X21" s="308"/>
-      <c r="Y21" s="308"/>
-      <c r="Z21" s="308"/>
-      <c r="AA21" s="308"/>
-      <c r="AB21" s="308"/>
-      <c r="AC21" s="308"/>
-      <c r="AD21" s="308"/>
-      <c r="AE21" s="309"/>
-      <c r="AF21" s="304"/>
-      <c r="AG21" s="305"/>
-      <c r="AH21" s="305"/>
-      <c r="AI21" s="306"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="268"/>
+      <c r="K21" s="269"/>
+      <c r="L21" s="269"/>
+      <c r="M21" s="269"/>
+      <c r="N21" s="269"/>
+      <c r="O21" s="269"/>
+      <c r="P21" s="270"/>
+      <c r="Q21" s="271"/>
+      <c r="R21" s="272"/>
+      <c r="S21" s="272"/>
+      <c r="T21" s="272"/>
+      <c r="U21" s="272"/>
+      <c r="V21" s="272"/>
+      <c r="W21" s="272"/>
+      <c r="X21" s="272"/>
+      <c r="Y21" s="272"/>
+      <c r="Z21" s="272"/>
+      <c r="AA21" s="272"/>
+      <c r="AB21" s="272"/>
+      <c r="AC21" s="272"/>
+      <c r="AD21" s="272"/>
+      <c r="AE21" s="273"/>
+      <c r="AF21" s="268"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="269"/>
+      <c r="AI21" s="270"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="298"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="305"/>
-      <c r="L22" s="305"/>
-      <c r="M22" s="305"/>
-      <c r="N22" s="305"/>
-      <c r="O22" s="305"/>
-      <c r="P22" s="306"/>
-      <c r="Q22" s="307"/>
-      <c r="R22" s="308"/>
-      <c r="S22" s="308"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="308"/>
-      <c r="V22" s="308"/>
-      <c r="W22" s="308"/>
-      <c r="X22" s="308"/>
-      <c r="Y22" s="308"/>
-      <c r="Z22" s="308"/>
-      <c r="AA22" s="308"/>
-      <c r="AB22" s="308"/>
-      <c r="AC22" s="308"/>
-      <c r="AD22" s="308"/>
-      <c r="AE22" s="309"/>
-      <c r="AF22" s="304"/>
-      <c r="AG22" s="305"/>
-      <c r="AH22" s="305"/>
-      <c r="AI22" s="306"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="262"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="268"/>
+      <c r="K22" s="269"/>
+      <c r="L22" s="269"/>
+      <c r="M22" s="269"/>
+      <c r="N22" s="269"/>
+      <c r="O22" s="269"/>
+      <c r="P22" s="270"/>
+      <c r="Q22" s="271"/>
+      <c r="R22" s="272"/>
+      <c r="S22" s="272"/>
+      <c r="T22" s="272"/>
+      <c r="U22" s="272"/>
+      <c r="V22" s="272"/>
+      <c r="W22" s="272"/>
+      <c r="X22" s="272"/>
+      <c r="Y22" s="272"/>
+      <c r="Z22" s="272"/>
+      <c r="AA22" s="272"/>
+      <c r="AB22" s="272"/>
+      <c r="AC22" s="272"/>
+      <c r="AD22" s="272"/>
+      <c r="AE22" s="273"/>
+      <c r="AF22" s="268"/>
+      <c r="AG22" s="269"/>
+      <c r="AH22" s="269"/>
+      <c r="AI22" s="270"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="298"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="302"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="304"/>
-      <c r="K23" s="305"/>
-      <c r="L23" s="305"/>
-      <c r="M23" s="305"/>
-      <c r="N23" s="305"/>
-      <c r="O23" s="305"/>
-      <c r="P23" s="306"/>
-      <c r="Q23" s="307"/>
-      <c r="R23" s="308"/>
-      <c r="S23" s="308"/>
-      <c r="T23" s="308"/>
-      <c r="U23" s="308"/>
-      <c r="V23" s="308"/>
-      <c r="W23" s="308"/>
-      <c r="X23" s="308"/>
-      <c r="Y23" s="308"/>
-      <c r="Z23" s="308"/>
-      <c r="AA23" s="308"/>
-      <c r="AB23" s="308"/>
-      <c r="AC23" s="308"/>
-      <c r="AD23" s="308"/>
-      <c r="AE23" s="309"/>
-      <c r="AF23" s="304"/>
-      <c r="AG23" s="305"/>
-      <c r="AH23" s="305"/>
-      <c r="AI23" s="306"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="262"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="268"/>
+      <c r="K23" s="269"/>
+      <c r="L23" s="269"/>
+      <c r="M23" s="269"/>
+      <c r="N23" s="269"/>
+      <c r="O23" s="269"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="271"/>
+      <c r="R23" s="272"/>
+      <c r="S23" s="272"/>
+      <c r="T23" s="272"/>
+      <c r="U23" s="272"/>
+      <c r="V23" s="272"/>
+      <c r="W23" s="272"/>
+      <c r="X23" s="272"/>
+      <c r="Y23" s="272"/>
+      <c r="Z23" s="272"/>
+      <c r="AA23" s="272"/>
+      <c r="AB23" s="272"/>
+      <c r="AC23" s="272"/>
+      <c r="AD23" s="272"/>
+      <c r="AE23" s="273"/>
+      <c r="AF23" s="268"/>
+      <c r="AG23" s="269"/>
+      <c r="AH23" s="269"/>
+      <c r="AI23" s="270"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="298"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="302"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="303"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="304"/>
-      <c r="K24" s="305"/>
-      <c r="L24" s="305"/>
-      <c r="M24" s="305"/>
-      <c r="N24" s="305"/>
-      <c r="O24" s="305"/>
-      <c r="P24" s="306"/>
-      <c r="Q24" s="307"/>
-      <c r="R24" s="308"/>
-      <c r="S24" s="308"/>
-      <c r="T24" s="308"/>
-      <c r="U24" s="308"/>
-      <c r="V24" s="308"/>
-      <c r="W24" s="308"/>
-      <c r="X24" s="308"/>
-      <c r="Y24" s="308"/>
-      <c r="Z24" s="308"/>
-      <c r="AA24" s="308"/>
-      <c r="AB24" s="308"/>
-      <c r="AC24" s="308"/>
-      <c r="AD24" s="308"/>
-      <c r="AE24" s="309"/>
-      <c r="AF24" s="304"/>
-      <c r="AG24" s="305"/>
-      <c r="AH24" s="305"/>
-      <c r="AI24" s="306"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="268"/>
+      <c r="K24" s="269"/>
+      <c r="L24" s="269"/>
+      <c r="M24" s="269"/>
+      <c r="N24" s="269"/>
+      <c r="O24" s="269"/>
+      <c r="P24" s="270"/>
+      <c r="Q24" s="271"/>
+      <c r="R24" s="272"/>
+      <c r="S24" s="272"/>
+      <c r="T24" s="272"/>
+      <c r="U24" s="272"/>
+      <c r="V24" s="272"/>
+      <c r="W24" s="272"/>
+      <c r="X24" s="272"/>
+      <c r="Y24" s="272"/>
+      <c r="Z24" s="272"/>
+      <c r="AA24" s="272"/>
+      <c r="AB24" s="272"/>
+      <c r="AC24" s="272"/>
+      <c r="AD24" s="272"/>
+      <c r="AE24" s="273"/>
+      <c r="AF24" s="268"/>
+      <c r="AG24" s="269"/>
+      <c r="AH24" s="269"/>
+      <c r="AI24" s="270"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="298"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="302"/>
-      <c r="G25" s="298"/>
-      <c r="H25" s="303"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="304"/>
-      <c r="K25" s="305"/>
-      <c r="L25" s="305"/>
-      <c r="M25" s="305"/>
-      <c r="N25" s="305"/>
-      <c r="O25" s="305"/>
-      <c r="P25" s="306"/>
-      <c r="Q25" s="307"/>
-      <c r="R25" s="308"/>
-      <c r="S25" s="308"/>
-      <c r="T25" s="308"/>
-      <c r="U25" s="308"/>
-      <c r="V25" s="308"/>
-      <c r="W25" s="308"/>
-      <c r="X25" s="308"/>
-      <c r="Y25" s="308"/>
-      <c r="Z25" s="308"/>
-      <c r="AA25" s="308"/>
-      <c r="AB25" s="308"/>
-      <c r="AC25" s="308"/>
-      <c r="AD25" s="308"/>
-      <c r="AE25" s="309"/>
-      <c r="AF25" s="304"/>
-      <c r="AG25" s="305"/>
-      <c r="AH25" s="305"/>
-      <c r="AI25" s="306"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="262"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="263"/>
+      <c r="J25" s="268"/>
+      <c r="K25" s="269"/>
+      <c r="L25" s="269"/>
+      <c r="M25" s="269"/>
+      <c r="N25" s="269"/>
+      <c r="O25" s="269"/>
+      <c r="P25" s="270"/>
+      <c r="Q25" s="271"/>
+      <c r="R25" s="272"/>
+      <c r="S25" s="272"/>
+      <c r="T25" s="272"/>
+      <c r="U25" s="272"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="272"/>
+      <c r="X25" s="272"/>
+      <c r="Y25" s="272"/>
+      <c r="Z25" s="272"/>
+      <c r="AA25" s="272"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="272"/>
+      <c r="AD25" s="272"/>
+      <c r="AE25" s="273"/>
+      <c r="AF25" s="268"/>
+      <c r="AG25" s="269"/>
+      <c r="AH25" s="269"/>
+      <c r="AI25" s="270"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="298"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="303"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="304"/>
-      <c r="K26" s="305"/>
-      <c r="L26" s="305"/>
-      <c r="M26" s="305"/>
-      <c r="N26" s="305"/>
-      <c r="O26" s="305"/>
-      <c r="P26" s="306"/>
-      <c r="Q26" s="307"/>
-      <c r="R26" s="308"/>
-      <c r="S26" s="308"/>
-      <c r="T26" s="308"/>
-      <c r="U26" s="308"/>
-      <c r="V26" s="308"/>
-      <c r="W26" s="308"/>
-      <c r="X26" s="308"/>
-      <c r="Y26" s="308"/>
-      <c r="Z26" s="308"/>
-      <c r="AA26" s="308"/>
-      <c r="AB26" s="308"/>
-      <c r="AC26" s="308"/>
-      <c r="AD26" s="308"/>
-      <c r="AE26" s="309"/>
-      <c r="AF26" s="304"/>
-      <c r="AG26" s="305"/>
-      <c r="AH26" s="305"/>
-      <c r="AI26" s="306"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="265"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="269"/>
+      <c r="L26" s="269"/>
+      <c r="M26" s="269"/>
+      <c r="N26" s="269"/>
+      <c r="O26" s="269"/>
+      <c r="P26" s="270"/>
+      <c r="Q26" s="271"/>
+      <c r="R26" s="272"/>
+      <c r="S26" s="272"/>
+      <c r="T26" s="272"/>
+      <c r="U26" s="272"/>
+      <c r="V26" s="272"/>
+      <c r="W26" s="272"/>
+      <c r="X26" s="272"/>
+      <c r="Y26" s="272"/>
+      <c r="Z26" s="272"/>
+      <c r="AA26" s="272"/>
+      <c r="AB26" s="272"/>
+      <c r="AC26" s="272"/>
+      <c r="AD26" s="272"/>
+      <c r="AE26" s="273"/>
+      <c r="AF26" s="268"/>
+      <c r="AG26" s="269"/>
+      <c r="AH26" s="269"/>
+      <c r="AI26" s="270"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="298"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="302"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="303"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="304"/>
-      <c r="K27" s="305"/>
-      <c r="L27" s="305"/>
-      <c r="M27" s="305"/>
-      <c r="N27" s="305"/>
-      <c r="O27" s="305"/>
-      <c r="P27" s="306"/>
-      <c r="Q27" s="307"/>
-      <c r="R27" s="308"/>
-      <c r="S27" s="308"/>
-      <c r="T27" s="308"/>
-      <c r="U27" s="308"/>
-      <c r="V27" s="308"/>
-      <c r="W27" s="308"/>
-      <c r="X27" s="308"/>
-      <c r="Y27" s="308"/>
-      <c r="Z27" s="308"/>
-      <c r="AA27" s="308"/>
-      <c r="AB27" s="308"/>
-      <c r="AC27" s="308"/>
-      <c r="AD27" s="308"/>
-      <c r="AE27" s="309"/>
-      <c r="AF27" s="304"/>
-      <c r="AG27" s="305"/>
-      <c r="AH27" s="305"/>
-      <c r="AI27" s="306"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="262"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="268"/>
+      <c r="K27" s="269"/>
+      <c r="L27" s="269"/>
+      <c r="M27" s="269"/>
+      <c r="N27" s="269"/>
+      <c r="O27" s="269"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="271"/>
+      <c r="R27" s="272"/>
+      <c r="S27" s="272"/>
+      <c r="T27" s="272"/>
+      <c r="U27" s="272"/>
+      <c r="V27" s="272"/>
+      <c r="W27" s="272"/>
+      <c r="X27" s="272"/>
+      <c r="Y27" s="272"/>
+      <c r="Z27" s="272"/>
+      <c r="AA27" s="272"/>
+      <c r="AB27" s="272"/>
+      <c r="AC27" s="272"/>
+      <c r="AD27" s="272"/>
+      <c r="AE27" s="273"/>
+      <c r="AF27" s="268"/>
+      <c r="AG27" s="269"/>
+      <c r="AH27" s="269"/>
+      <c r="AI27" s="270"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="298"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
-      <c r="F28" s="302"/>
-      <c r="G28" s="298"/>
-      <c r="H28" s="303"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="304"/>
-      <c r="K28" s="305"/>
-      <c r="L28" s="305"/>
-      <c r="M28" s="305"/>
-      <c r="N28" s="305"/>
-      <c r="O28" s="305"/>
-      <c r="P28" s="306"/>
-      <c r="Q28" s="307"/>
-      <c r="R28" s="308"/>
-      <c r="S28" s="308"/>
-      <c r="T28" s="308"/>
-      <c r="U28" s="308"/>
-      <c r="V28" s="308"/>
-      <c r="W28" s="308"/>
-      <c r="X28" s="308"/>
-      <c r="Y28" s="308"/>
-      <c r="Z28" s="308"/>
-      <c r="AA28" s="308"/>
-      <c r="AB28" s="308"/>
-      <c r="AC28" s="308"/>
-      <c r="AD28" s="308"/>
-      <c r="AE28" s="309"/>
-      <c r="AF28" s="304"/>
-      <c r="AG28" s="305"/>
-      <c r="AH28" s="305"/>
-      <c r="AI28" s="306"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="262"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="263"/>
+      <c r="J28" s="268"/>
+      <c r="K28" s="269"/>
+      <c r="L28" s="269"/>
+      <c r="M28" s="269"/>
+      <c r="N28" s="269"/>
+      <c r="O28" s="269"/>
+      <c r="P28" s="270"/>
+      <c r="Q28" s="271"/>
+      <c r="R28" s="272"/>
+      <c r="S28" s="272"/>
+      <c r="T28" s="272"/>
+      <c r="U28" s="272"/>
+      <c r="V28" s="272"/>
+      <c r="W28" s="272"/>
+      <c r="X28" s="272"/>
+      <c r="Y28" s="272"/>
+      <c r="Z28" s="272"/>
+      <c r="AA28" s="272"/>
+      <c r="AB28" s="272"/>
+      <c r="AC28" s="272"/>
+      <c r="AD28" s="272"/>
+      <c r="AE28" s="273"/>
+      <c r="AF28" s="268"/>
+      <c r="AG28" s="269"/>
+      <c r="AH28" s="269"/>
+      <c r="AI28" s="270"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="298"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="301"/>
-      <c r="F29" s="302"/>
-      <c r="G29" s="298"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="304"/>
-      <c r="K29" s="305"/>
-      <c r="L29" s="305"/>
-      <c r="M29" s="305"/>
-      <c r="N29" s="305"/>
-      <c r="O29" s="305"/>
-      <c r="P29" s="306"/>
-      <c r="Q29" s="307"/>
-      <c r="R29" s="308"/>
-      <c r="S29" s="308"/>
-      <c r="T29" s="308"/>
-      <c r="U29" s="308"/>
-      <c r="V29" s="308"/>
-      <c r="W29" s="308"/>
-      <c r="X29" s="308"/>
-      <c r="Y29" s="308"/>
-      <c r="Z29" s="308"/>
-      <c r="AA29" s="308"/>
-      <c r="AB29" s="308"/>
-      <c r="AC29" s="308"/>
-      <c r="AD29" s="308"/>
-      <c r="AE29" s="309"/>
-      <c r="AF29" s="304"/>
-      <c r="AG29" s="305"/>
-      <c r="AH29" s="305"/>
-      <c r="AI29" s="306"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="265"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="262"/>
+      <c r="H29" s="267"/>
+      <c r="I29" s="263"/>
+      <c r="J29" s="268"/>
+      <c r="K29" s="269"/>
+      <c r="L29" s="269"/>
+      <c r="M29" s="269"/>
+      <c r="N29" s="269"/>
+      <c r="O29" s="269"/>
+      <c r="P29" s="270"/>
+      <c r="Q29" s="271"/>
+      <c r="R29" s="272"/>
+      <c r="S29" s="272"/>
+      <c r="T29" s="272"/>
+      <c r="U29" s="272"/>
+      <c r="V29" s="272"/>
+      <c r="W29" s="272"/>
+      <c r="X29" s="272"/>
+      <c r="Y29" s="272"/>
+      <c r="Z29" s="272"/>
+      <c r="AA29" s="272"/>
+      <c r="AB29" s="272"/>
+      <c r="AC29" s="272"/>
+      <c r="AD29" s="272"/>
+      <c r="AE29" s="273"/>
+      <c r="AF29" s="268"/>
+      <c r="AG29" s="269"/>
+      <c r="AH29" s="269"/>
+      <c r="AI29" s="270"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="298"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="300"/>
-      <c r="E30" s="301"/>
-      <c r="F30" s="302"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="303"/>
-      <c r="I30" s="299"/>
-      <c r="J30" s="304"/>
-      <c r="K30" s="305"/>
-      <c r="L30" s="305"/>
-      <c r="M30" s="305"/>
-      <c r="N30" s="305"/>
-      <c r="O30" s="305"/>
-      <c r="P30" s="306"/>
-      <c r="Q30" s="307"/>
-      <c r="R30" s="308"/>
-      <c r="S30" s="308"/>
-      <c r="T30" s="308"/>
-      <c r="U30" s="308"/>
-      <c r="V30" s="308"/>
-      <c r="W30" s="308"/>
-      <c r="X30" s="308"/>
-      <c r="Y30" s="308"/>
-      <c r="Z30" s="308"/>
-      <c r="AA30" s="308"/>
-      <c r="AB30" s="308"/>
-      <c r="AC30" s="308"/>
-      <c r="AD30" s="308"/>
-      <c r="AE30" s="309"/>
-      <c r="AF30" s="304"/>
-      <c r="AG30" s="305"/>
-      <c r="AH30" s="305"/>
-      <c r="AI30" s="306"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="265"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="262"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="263"/>
+      <c r="J30" s="268"/>
+      <c r="K30" s="269"/>
+      <c r="L30" s="269"/>
+      <c r="M30" s="269"/>
+      <c r="N30" s="269"/>
+      <c r="O30" s="269"/>
+      <c r="P30" s="270"/>
+      <c r="Q30" s="271"/>
+      <c r="R30" s="272"/>
+      <c r="S30" s="272"/>
+      <c r="T30" s="272"/>
+      <c r="U30" s="272"/>
+      <c r="V30" s="272"/>
+      <c r="W30" s="272"/>
+      <c r="X30" s="272"/>
+      <c r="Y30" s="272"/>
+      <c r="Z30" s="272"/>
+      <c r="AA30" s="272"/>
+      <c r="AB30" s="272"/>
+      <c r="AC30" s="272"/>
+      <c r="AD30" s="272"/>
+      <c r="AE30" s="273"/>
+      <c r="AF30" s="268"/>
+      <c r="AG30" s="269"/>
+      <c r="AH30" s="269"/>
+      <c r="AI30" s="270"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="298"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="301"/>
-      <c r="F31" s="302"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="303"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="304"/>
-      <c r="K31" s="305"/>
-      <c r="L31" s="305"/>
-      <c r="M31" s="305"/>
-      <c r="N31" s="305"/>
-      <c r="O31" s="305"/>
-      <c r="P31" s="306"/>
-      <c r="Q31" s="307"/>
-      <c r="R31" s="308"/>
-      <c r="S31" s="308"/>
-      <c r="T31" s="308"/>
-      <c r="U31" s="308"/>
-      <c r="V31" s="308"/>
-      <c r="W31" s="308"/>
-      <c r="X31" s="308"/>
-      <c r="Y31" s="308"/>
-      <c r="Z31" s="308"/>
-      <c r="AA31" s="308"/>
-      <c r="AB31" s="308"/>
-      <c r="AC31" s="308"/>
-      <c r="AD31" s="308"/>
-      <c r="AE31" s="309"/>
-      <c r="AF31" s="304"/>
-      <c r="AG31" s="305"/>
-      <c r="AH31" s="305"/>
-      <c r="AI31" s="306"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="265"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="262"/>
+      <c r="H31" s="267"/>
+      <c r="I31" s="263"/>
+      <c r="J31" s="268"/>
+      <c r="K31" s="269"/>
+      <c r="L31" s="269"/>
+      <c r="M31" s="269"/>
+      <c r="N31" s="269"/>
+      <c r="O31" s="269"/>
+      <c r="P31" s="270"/>
+      <c r="Q31" s="271"/>
+      <c r="R31" s="272"/>
+      <c r="S31" s="272"/>
+      <c r="T31" s="272"/>
+      <c r="U31" s="272"/>
+      <c r="V31" s="272"/>
+      <c r="W31" s="272"/>
+      <c r="X31" s="272"/>
+      <c r="Y31" s="272"/>
+      <c r="Z31" s="272"/>
+      <c r="AA31" s="272"/>
+      <c r="AB31" s="272"/>
+      <c r="AC31" s="272"/>
+      <c r="AD31" s="272"/>
+      <c r="AE31" s="273"/>
+      <c r="AF31" s="268"/>
+      <c r="AG31" s="269"/>
+      <c r="AH31" s="269"/>
+      <c r="AI31" s="270"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="298"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="300"/>
-      <c r="E32" s="301"/>
-      <c r="F32" s="302"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="303"/>
-      <c r="I32" s="299"/>
-      <c r="J32" s="304"/>
-      <c r="K32" s="323"/>
-      <c r="L32" s="305"/>
-      <c r="M32" s="305"/>
-      <c r="N32" s="305"/>
-      <c r="O32" s="305"/>
-      <c r="P32" s="306"/>
-      <c r="Q32" s="307"/>
-      <c r="R32" s="308"/>
-      <c r="S32" s="308"/>
-      <c r="T32" s="308"/>
-      <c r="U32" s="308"/>
-      <c r="V32" s="308"/>
-      <c r="W32" s="308"/>
-      <c r="X32" s="308"/>
-      <c r="Y32" s="308"/>
-      <c r="Z32" s="308"/>
-      <c r="AA32" s="308"/>
-      <c r="AB32" s="308"/>
-      <c r="AC32" s="308"/>
-      <c r="AD32" s="308"/>
-      <c r="AE32" s="309"/>
-      <c r="AF32" s="304"/>
-      <c r="AG32" s="305"/>
-      <c r="AH32" s="305"/>
-      <c r="AI32" s="306"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="267"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="268"/>
+      <c r="K32" s="274"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="269"/>
+      <c r="N32" s="269"/>
+      <c r="O32" s="269"/>
+      <c r="P32" s="270"/>
+      <c r="Q32" s="271"/>
+      <c r="R32" s="272"/>
+      <c r="S32" s="272"/>
+      <c r="T32" s="272"/>
+      <c r="U32" s="272"/>
+      <c r="V32" s="272"/>
+      <c r="W32" s="272"/>
+      <c r="X32" s="272"/>
+      <c r="Y32" s="272"/>
+      <c r="Z32" s="272"/>
+      <c r="AA32" s="272"/>
+      <c r="AB32" s="272"/>
+      <c r="AC32" s="272"/>
+      <c r="AD32" s="272"/>
+      <c r="AE32" s="273"/>
+      <c r="AF32" s="268"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="269"/>
+      <c r="AI32" s="270"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="298"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="300"/>
-      <c r="E33" s="301"/>
-      <c r="F33" s="302"/>
-      <c r="G33" s="298"/>
-      <c r="H33" s="303"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="304"/>
-      <c r="K33" s="305"/>
-      <c r="L33" s="305"/>
-      <c r="M33" s="305"/>
-      <c r="N33" s="305"/>
-      <c r="O33" s="305"/>
-      <c r="P33" s="306"/>
-      <c r="Q33" s="307"/>
-      <c r="R33" s="308"/>
-      <c r="S33" s="308"/>
-      <c r="T33" s="308"/>
-      <c r="U33" s="308"/>
-      <c r="V33" s="308"/>
-      <c r="W33" s="308"/>
-      <c r="X33" s="308"/>
-      <c r="Y33" s="308"/>
-      <c r="Z33" s="308"/>
-      <c r="AA33" s="308"/>
-      <c r="AB33" s="308"/>
-      <c r="AC33" s="308"/>
-      <c r="AD33" s="308"/>
-      <c r="AE33" s="309"/>
-      <c r="AF33" s="304"/>
-      <c r="AG33" s="305"/>
-      <c r="AH33" s="305"/>
-      <c r="AI33" s="306"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="265"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="262"/>
+      <c r="H33" s="267"/>
+      <c r="I33" s="263"/>
+      <c r="J33" s="268"/>
+      <c r="K33" s="269"/>
+      <c r="L33" s="269"/>
+      <c r="M33" s="269"/>
+      <c r="N33" s="269"/>
+      <c r="O33" s="269"/>
+      <c r="P33" s="270"/>
+      <c r="Q33" s="271"/>
+      <c r="R33" s="272"/>
+      <c r="S33" s="272"/>
+      <c r="T33" s="272"/>
+      <c r="U33" s="272"/>
+      <c r="V33" s="272"/>
+      <c r="W33" s="272"/>
+      <c r="X33" s="272"/>
+      <c r="Y33" s="272"/>
+      <c r="Z33" s="272"/>
+      <c r="AA33" s="272"/>
+      <c r="AB33" s="272"/>
+      <c r="AC33" s="272"/>
+      <c r="AD33" s="272"/>
+      <c r="AE33" s="273"/>
+      <c r="AF33" s="268"/>
+      <c r="AG33" s="269"/>
+      <c r="AH33" s="269"/>
+      <c r="AI33" s="270"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -6303,6 +6153,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6344,7 +6350,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="111" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:18">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(screen)_(Subfunction_ID)_(Subfunction_Name).xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(screen)_(Subfunction_ID)_(Subfunction_Name).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6188B22-AD46-4444-8F66-2DE6CD77D956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FFC16-5C9A-4159-8FD4-E5657E887B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2730" windowWidth="27495" windowHeight="10710" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8505" windowWidth="38400" windowHeight="10575" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -14,24 +14,22 @@
     <sheet name="Subfunction unit 2" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Subfunction unit 1'!$A$10:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Subfunction unit 2'!$A$10:$R$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Subfunction unit 1'!$A$1:$R$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Subfunction unit 2'!$A$1:$R$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Subfunction unit 1'!$A$10:$Q$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Subfunction unit 2'!$A$10:$Q$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Subfunction unit 1'!$A$1:$Q$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Subfunction unit 2'!$A$1:$Q$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Subfunction unit 1'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Subfunction unit 2'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -106,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="361">
   <si>
     <t>対象外</t>
   </si>
@@ -587,12 +585,6 @@
   </si>
   <si>
     <t>Assumed result</t>
-  </si>
-  <si>
-    <t>Test data sheet name</t>
-  </si>
-  <si>
-    <t>Data no</t>
   </si>
   <si>
     <t>Implemented by</t>
@@ -1244,6 +1236,10 @@
   </si>
   <si>
     <t>Subfunction unit test specification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenario ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2551,7 +2547,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -2615,9 +2611,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2688,9 +2681,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2737,9 +2727,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2919,9 +2906,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2938,9 +2922,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2964,9 +2945,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2985,9 +2963,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3006,9 +2981,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3124,9 +3096,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3197,9 +3166,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3298,6 +3264,114 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3334,9 +3408,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3376,112 +3447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4371,12 +4337,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="261" t="str">
+      <c r="I25" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="261"/>
-      <c r="K25" s="261"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="251"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -4935,55 +4901,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="303" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="267" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="304"/>
-      <c r="Q1" s="304"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="312" t="s">
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="313"/>
-      <c r="U1" s="313"/>
-      <c r="V1" s="313"/>
-      <c r="W1" s="313"/>
-      <c r="X1" s="313"/>
-      <c r="Y1" s="313"/>
-      <c r="Z1" s="314"/>
-      <c r="AA1" s="294" t="s">
+      <c r="T1" s="277"/>
+      <c r="U1" s="277"/>
+      <c r="V1" s="277"/>
+      <c r="W1" s="277"/>
+      <c r="X1" s="277"/>
+      <c r="Y1" s="277"/>
+      <c r="Z1" s="278"/>
+      <c r="AA1" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="321" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="285" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="322"/>
-      <c r="AE1" s="322"/>
-      <c r="AF1" s="323"/>
-      <c r="AG1" s="288" t="str">
+      <c r="AD1" s="286"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="287"/>
+      <c r="AG1" s="252" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="289"/>
-      <c r="AI1" s="290"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -4991,51 +4957,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="306"/>
-      <c r="P2" s="307"/>
-      <c r="Q2" s="307"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="317"/>
-      <c r="AA2" s="294" t="s">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="279"/>
+      <c r="T2" s="280"/>
+      <c r="U2" s="280"/>
+      <c r="V2" s="280"/>
+      <c r="W2" s="280"/>
+      <c r="X2" s="280"/>
+      <c r="Y2" s="280"/>
+      <c r="Z2" s="281"/>
+      <c r="AA2" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="264" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="288" t="str">
+      <c r="AD2" s="265"/>
+      <c r="AE2" s="265"/>
+      <c r="AF2" s="266"/>
+      <c r="AG2" s="252" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="289"/>
-      <c r="AI2" s="290"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5043,43 +5009,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="258" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="310"/>
-      <c r="Q3" s="310"/>
-      <c r="R3" s="311"/>
-      <c r="S3" s="318"/>
-      <c r="T3" s="319"/>
-      <c r="U3" s="319"/>
-      <c r="V3" s="319"/>
-      <c r="W3" s="319"/>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="319"/>
-      <c r="Z3" s="320"/>
-      <c r="AA3" s="294"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="321"/>
-      <c r="AD3" s="322"/>
-      <c r="AE3" s="322"/>
-      <c r="AF3" s="323"/>
-      <c r="AG3" s="288"/>
-      <c r="AH3" s="289"/>
-      <c r="AI3" s="290"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="274"/>
+      <c r="R3" s="275"/>
+      <c r="S3" s="282"/>
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
+      <c r="Y3" s="283"/>
+      <c r="Z3" s="284"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="285"/>
+      <c r="AD3" s="286"/>
+      <c r="AE3" s="286"/>
+      <c r="AF3" s="287"/>
+      <c r="AG3" s="252"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5116,1020 +5082,1176 @@
       <c r="A7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="255" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="292"/>
-      <c r="D7" s="291" t="s">
+      <c r="C7" s="256"/>
+      <c r="D7" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="293"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="291" t="s">
+      <c r="E7" s="257"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="293"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="291" t="s">
+      <c r="H7" s="257"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="255" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="293"/>
-      <c r="P7" s="292"/>
-      <c r="Q7" s="291" t="s">
+      <c r="K7" s="257"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="256"/>
+      <c r="Q7" s="255" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="293"/>
-      <c r="S7" s="293"/>
-      <c r="T7" s="293"/>
-      <c r="U7" s="293"/>
-      <c r="V7" s="293"/>
-      <c r="W7" s="293"/>
-      <c r="X7" s="293"/>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="293"/>
-      <c r="AA7" s="293"/>
-      <c r="AB7" s="293"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="293"/>
-      <c r="AE7" s="292"/>
-      <c r="AF7" s="291" t="s">
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="257"/>
+      <c r="U7" s="257"/>
+      <c r="V7" s="257"/>
+      <c r="W7" s="257"/>
+      <c r="X7" s="257"/>
+      <c r="Y7" s="257"/>
+      <c r="Z7" s="257"/>
+      <c r="AA7" s="257"/>
+      <c r="AB7" s="257"/>
+      <c r="AC7" s="257"/>
+      <c r="AD7" s="257"/>
+      <c r="AE7" s="256"/>
+      <c r="AF7" s="255" t="s">
         <v>119</v>
       </c>
-      <c r="AG7" s="293"/>
-      <c r="AH7" s="293"/>
-      <c r="AI7" s="292"/>
+      <c r="AG7" s="257"/>
+      <c r="AH7" s="257"/>
+      <c r="AI7" s="256"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="280"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="276"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="283"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="285"/>
-      <c r="R8" s="286"/>
-      <c r="S8" s="286"/>
-      <c r="T8" s="286"/>
-      <c r="U8" s="286"/>
-      <c r="V8" s="286"/>
-      <c r="W8" s="286"/>
-      <c r="X8" s="286"/>
-      <c r="Y8" s="286"/>
-      <c r="Z8" s="286"/>
-      <c r="AA8" s="286"/>
-      <c r="AB8" s="286"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="286"/>
-      <c r="AE8" s="287"/>
-      <c r="AF8" s="282"/>
-      <c r="AG8" s="283"/>
-      <c r="AH8" s="283"/>
-      <c r="AI8" s="284"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="304"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="308"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="308"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="308"/>
+      <c r="P8" s="309"/>
+      <c r="Q8" s="310"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="311"/>
+      <c r="U8" s="311"/>
+      <c r="V8" s="311"/>
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="311"/>
+      <c r="AC8" s="311"/>
+      <c r="AD8" s="311"/>
+      <c r="AE8" s="312"/>
+      <c r="AF8" s="307"/>
+      <c r="AG8" s="308"/>
+      <c r="AH8" s="308"/>
+      <c r="AI8" s="309"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="262"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="263"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="271"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="272"/>
-      <c r="T9" s="272"/>
-      <c r="U9" s="272"/>
-      <c r="V9" s="272"/>
-      <c r="W9" s="272"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="272"/>
-      <c r="Z9" s="272"/>
-      <c r="AA9" s="272"/>
-      <c r="AB9" s="272"/>
-      <c r="AC9" s="272"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
-      <c r="AI9" s="270"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="289"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="296"/>
+      <c r="Q9" s="297"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="298"/>
+      <c r="V9" s="298"/>
+      <c r="W9" s="298"/>
+      <c r="X9" s="298"/>
+      <c r="Y9" s="298"/>
+      <c r="Z9" s="298"/>
+      <c r="AA9" s="298"/>
+      <c r="AB9" s="298"/>
+      <c r="AC9" s="298"/>
+      <c r="AD9" s="298"/>
+      <c r="AE9" s="299"/>
+      <c r="AF9" s="294"/>
+      <c r="AG9" s="295"/>
+      <c r="AH9" s="295"/>
+      <c r="AI9" s="296"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="262"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="267"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="269"/>
-      <c r="O10" s="269"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="271"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="272"/>
-      <c r="V10" s="272"/>
-      <c r="W10" s="272"/>
-      <c r="X10" s="272"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="272"/>
-      <c r="AA10" s="272"/>
-      <c r="AB10" s="272"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="272"/>
-      <c r="AE10" s="273"/>
-      <c r="AF10" s="268"/>
-      <c r="AG10" s="269"/>
-      <c r="AH10" s="269"/>
-      <c r="AI10" s="270"/>
+      <c r="B10" s="288"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="289"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="295"/>
+      <c r="L10" s="295"/>
+      <c r="M10" s="295"/>
+      <c r="N10" s="295"/>
+      <c r="O10" s="295"/>
+      <c r="P10" s="296"/>
+      <c r="Q10" s="297"/>
+      <c r="R10" s="298"/>
+      <c r="S10" s="298"/>
+      <c r="T10" s="298"/>
+      <c r="U10" s="298"/>
+      <c r="V10" s="298"/>
+      <c r="W10" s="298"/>
+      <c r="X10" s="298"/>
+      <c r="Y10" s="298"/>
+      <c r="Z10" s="298"/>
+      <c r="AA10" s="298"/>
+      <c r="AB10" s="298"/>
+      <c r="AC10" s="298"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="299"/>
+      <c r="AF10" s="294"/>
+      <c r="AG10" s="295"/>
+      <c r="AH10" s="295"/>
+      <c r="AI10" s="296"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="262"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="269"/>
-      <c r="N11" s="269"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="271"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="272"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="272"/>
-      <c r="V11" s="272"/>
-      <c r="W11" s="272"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="272"/>
-      <c r="Z11" s="272"/>
-      <c r="AA11" s="272"/>
-      <c r="AB11" s="272"/>
-      <c r="AC11" s="272"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="273"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="270"/>
+      <c r="B11" s="288"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="291"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="289"/>
+      <c r="J11" s="294"/>
+      <c r="K11" s="295"/>
+      <c r="L11" s="295"/>
+      <c r="M11" s="295"/>
+      <c r="N11" s="295"/>
+      <c r="O11" s="295"/>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="297"/>
+      <c r="R11" s="298"/>
+      <c r="S11" s="298"/>
+      <c r="T11" s="298"/>
+      <c r="U11" s="298"/>
+      <c r="V11" s="298"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="298"/>
+      <c r="Y11" s="298"/>
+      <c r="Z11" s="298"/>
+      <c r="AA11" s="298"/>
+      <c r="AB11" s="298"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="298"/>
+      <c r="AE11" s="299"/>
+      <c r="AF11" s="294"/>
+      <c r="AG11" s="295"/>
+      <c r="AH11" s="295"/>
+      <c r="AI11" s="296"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="267"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="269"/>
-      <c r="N12" s="269"/>
-      <c r="O12" s="269"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="271"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="272"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="272"/>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="272"/>
-      <c r="AA12" s="272"/>
-      <c r="AB12" s="272"/>
-      <c r="AC12" s="272"/>
-      <c r="AD12" s="272"/>
-      <c r="AE12" s="273"/>
-      <c r="AF12" s="268"/>
-      <c r="AG12" s="269"/>
-      <c r="AH12" s="269"/>
-      <c r="AI12" s="270"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="293"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="295"/>
+      <c r="L12" s="295"/>
+      <c r="M12" s="295"/>
+      <c r="N12" s="295"/>
+      <c r="O12" s="295"/>
+      <c r="P12" s="296"/>
+      <c r="Q12" s="297"/>
+      <c r="R12" s="298"/>
+      <c r="S12" s="298"/>
+      <c r="T12" s="298"/>
+      <c r="U12" s="298"/>
+      <c r="V12" s="298"/>
+      <c r="W12" s="298"/>
+      <c r="X12" s="298"/>
+      <c r="Y12" s="298"/>
+      <c r="Z12" s="298"/>
+      <c r="AA12" s="298"/>
+      <c r="AB12" s="298"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="298"/>
+      <c r="AE12" s="299"/>
+      <c r="AF12" s="294"/>
+      <c r="AG12" s="295"/>
+      <c r="AH12" s="295"/>
+      <c r="AI12" s="296"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="267"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="268"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="269"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="270"/>
-      <c r="Q13" s="271"/>
-      <c r="R13" s="272"/>
-      <c r="S13" s="272"/>
-      <c r="T13" s="272"/>
-      <c r="U13" s="272"/>
-      <c r="V13" s="272"/>
-      <c r="W13" s="272"/>
-      <c r="X13" s="272"/>
-      <c r="Y13" s="272"/>
-      <c r="Z13" s="272"/>
-      <c r="AA13" s="272"/>
-      <c r="AB13" s="272"/>
-      <c r="AC13" s="272"/>
-      <c r="AD13" s="272"/>
-      <c r="AE13" s="273"/>
-      <c r="AF13" s="268"/>
-      <c r="AG13" s="269"/>
-      <c r="AH13" s="269"/>
-      <c r="AI13" s="270"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="291"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="295"/>
+      <c r="L13" s="295"/>
+      <c r="M13" s="295"/>
+      <c r="N13" s="295"/>
+      <c r="O13" s="295"/>
+      <c r="P13" s="296"/>
+      <c r="Q13" s="297"/>
+      <c r="R13" s="298"/>
+      <c r="S13" s="298"/>
+      <c r="T13" s="298"/>
+      <c r="U13" s="298"/>
+      <c r="V13" s="298"/>
+      <c r="W13" s="298"/>
+      <c r="X13" s="298"/>
+      <c r="Y13" s="298"/>
+      <c r="Z13" s="298"/>
+      <c r="AA13" s="298"/>
+      <c r="AB13" s="298"/>
+      <c r="AC13" s="298"/>
+      <c r="AD13" s="298"/>
+      <c r="AE13" s="299"/>
+      <c r="AF13" s="294"/>
+      <c r="AG13" s="295"/>
+      <c r="AH13" s="295"/>
+      <c r="AI13" s="296"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="262"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="267"/>
-      <c r="I14" s="263"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="269"/>
-      <c r="N14" s="269"/>
-      <c r="O14" s="269"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="271"/>
-      <c r="R14" s="272"/>
-      <c r="S14" s="272"/>
-      <c r="T14" s="272"/>
-      <c r="U14" s="272"/>
-      <c r="V14" s="272"/>
-      <c r="W14" s="272"/>
-      <c r="X14" s="272"/>
-      <c r="Y14" s="272"/>
-      <c r="Z14" s="272"/>
-      <c r="AA14" s="272"/>
-      <c r="AB14" s="272"/>
-      <c r="AC14" s="272"/>
-      <c r="AD14" s="272"/>
-      <c r="AE14" s="273"/>
-      <c r="AF14" s="268"/>
-      <c r="AG14" s="269"/>
-      <c r="AH14" s="269"/>
-      <c r="AI14" s="270"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="289"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="291"/>
+      <c r="F14" s="292"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="293"/>
+      <c r="I14" s="289"/>
+      <c r="J14" s="294"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="295"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="295"/>
+      <c r="P14" s="296"/>
+      <c r="Q14" s="297"/>
+      <c r="R14" s="298"/>
+      <c r="S14" s="298"/>
+      <c r="T14" s="298"/>
+      <c r="U14" s="298"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="298"/>
+      <c r="X14" s="298"/>
+      <c r="Y14" s="298"/>
+      <c r="Z14" s="298"/>
+      <c r="AA14" s="298"/>
+      <c r="AB14" s="298"/>
+      <c r="AC14" s="298"/>
+      <c r="AD14" s="298"/>
+      <c r="AE14" s="299"/>
+      <c r="AF14" s="294"/>
+      <c r="AG14" s="295"/>
+      <c r="AH14" s="295"/>
+      <c r="AI14" s="296"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="263"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="267"/>
-      <c r="I15" s="263"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="269"/>
-      <c r="N15" s="269"/>
-      <c r="O15" s="269"/>
-      <c r="P15" s="270"/>
-      <c r="Q15" s="271"/>
-      <c r="R15" s="272"/>
-      <c r="S15" s="272"/>
-      <c r="T15" s="272"/>
-      <c r="U15" s="272"/>
-      <c r="V15" s="272"/>
-      <c r="W15" s="272"/>
-      <c r="X15" s="272"/>
-      <c r="Y15" s="272"/>
-      <c r="Z15" s="272"/>
-      <c r="AA15" s="272"/>
-      <c r="AB15" s="272"/>
-      <c r="AC15" s="272"/>
-      <c r="AD15" s="272"/>
-      <c r="AE15" s="273"/>
-      <c r="AF15" s="268"/>
-      <c r="AG15" s="269"/>
-      <c r="AH15" s="269"/>
-      <c r="AI15" s="270"/>
+      <c r="B15" s="288"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="291"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="288"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="289"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="295"/>
+      <c r="L15" s="295"/>
+      <c r="M15" s="295"/>
+      <c r="N15" s="295"/>
+      <c r="O15" s="295"/>
+      <c r="P15" s="296"/>
+      <c r="Q15" s="297"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="298"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="298"/>
+      <c r="X15" s="298"/>
+      <c r="Y15" s="298"/>
+      <c r="Z15" s="298"/>
+      <c r="AA15" s="298"/>
+      <c r="AB15" s="298"/>
+      <c r="AC15" s="298"/>
+      <c r="AD15" s="298"/>
+      <c r="AE15" s="299"/>
+      <c r="AF15" s="294"/>
+      <c r="AG15" s="295"/>
+      <c r="AH15" s="295"/>
+      <c r="AI15" s="296"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="262"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="267"/>
-      <c r="I16" s="263"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="269"/>
-      <c r="N16" s="269"/>
-      <c r="O16" s="269"/>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="271"/>
-      <c r="R16" s="272"/>
-      <c r="S16" s="272"/>
-      <c r="T16" s="272"/>
-      <c r="U16" s="272"/>
-      <c r="V16" s="272"/>
-      <c r="W16" s="272"/>
-      <c r="X16" s="272"/>
-      <c r="Y16" s="272"/>
-      <c r="Z16" s="272"/>
-      <c r="AA16" s="272"/>
-      <c r="AB16" s="272"/>
-      <c r="AC16" s="272"/>
-      <c r="AD16" s="272"/>
-      <c r="AE16" s="273"/>
-      <c r="AF16" s="268"/>
-      <c r="AG16" s="269"/>
-      <c r="AH16" s="269"/>
-      <c r="AI16" s="270"/>
+      <c r="B16" s="288"/>
+      <c r="C16" s="289"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="293"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="295"/>
+      <c r="L16" s="295"/>
+      <c r="M16" s="295"/>
+      <c r="N16" s="295"/>
+      <c r="O16" s="295"/>
+      <c r="P16" s="296"/>
+      <c r="Q16" s="297"/>
+      <c r="R16" s="298"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="298"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="298"/>
+      <c r="X16" s="298"/>
+      <c r="Y16" s="298"/>
+      <c r="Z16" s="298"/>
+      <c r="AA16" s="298"/>
+      <c r="AB16" s="298"/>
+      <c r="AC16" s="298"/>
+      <c r="AD16" s="298"/>
+      <c r="AE16" s="299"/>
+      <c r="AF16" s="294"/>
+      <c r="AG16" s="295"/>
+      <c r="AH16" s="295"/>
+      <c r="AI16" s="296"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="262"/>
-      <c r="C17" s="263"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="267"/>
-      <c r="I17" s="263"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269"/>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="271"/>
-      <c r="R17" s="272"/>
-      <c r="S17" s="272"/>
-      <c r="T17" s="272"/>
-      <c r="U17" s="272"/>
-      <c r="V17" s="272"/>
-      <c r="W17" s="272"/>
-      <c r="X17" s="272"/>
-      <c r="Y17" s="272"/>
-      <c r="Z17" s="272"/>
-      <c r="AA17" s="272"/>
-      <c r="AB17" s="272"/>
-      <c r="AC17" s="272"/>
-      <c r="AD17" s="272"/>
-      <c r="AE17" s="273"/>
-      <c r="AF17" s="268"/>
-      <c r="AG17" s="269"/>
-      <c r="AH17" s="269"/>
-      <c r="AI17" s="270"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="289"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="289"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="295"/>
+      <c r="L17" s="295"/>
+      <c r="M17" s="295"/>
+      <c r="N17" s="295"/>
+      <c r="O17" s="295"/>
+      <c r="P17" s="296"/>
+      <c r="Q17" s="297"/>
+      <c r="R17" s="298"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="298"/>
+      <c r="V17" s="298"/>
+      <c r="W17" s="298"/>
+      <c r="X17" s="298"/>
+      <c r="Y17" s="298"/>
+      <c r="Z17" s="298"/>
+      <c r="AA17" s="298"/>
+      <c r="AB17" s="298"/>
+      <c r="AC17" s="298"/>
+      <c r="AD17" s="298"/>
+      <c r="AE17" s="299"/>
+      <c r="AF17" s="294"/>
+      <c r="AG17" s="295"/>
+      <c r="AH17" s="295"/>
+      <c r="AI17" s="296"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="267"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="269"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="269"/>
-      <c r="N18" s="269"/>
-      <c r="O18" s="269"/>
-      <c r="P18" s="270"/>
-      <c r="Q18" s="271"/>
-      <c r="R18" s="272"/>
-      <c r="S18" s="272"/>
-      <c r="T18" s="272"/>
-      <c r="U18" s="272"/>
-      <c r="V18" s="272"/>
-      <c r="W18" s="272"/>
-      <c r="X18" s="272"/>
-      <c r="Y18" s="272"/>
-      <c r="Z18" s="272"/>
-      <c r="AA18" s="272"/>
-      <c r="AB18" s="272"/>
-      <c r="AC18" s="272"/>
-      <c r="AD18" s="272"/>
-      <c r="AE18" s="273"/>
-      <c r="AF18" s="268"/>
-      <c r="AG18" s="269"/>
-      <c r="AH18" s="269"/>
-      <c r="AI18" s="270"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="293"/>
+      <c r="I18" s="289"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="295"/>
+      <c r="L18" s="295"/>
+      <c r="M18" s="295"/>
+      <c r="N18" s="295"/>
+      <c r="O18" s="295"/>
+      <c r="P18" s="296"/>
+      <c r="Q18" s="297"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="298"/>
+      <c r="V18" s="298"/>
+      <c r="W18" s="298"/>
+      <c r="X18" s="298"/>
+      <c r="Y18" s="298"/>
+      <c r="Z18" s="298"/>
+      <c r="AA18" s="298"/>
+      <c r="AB18" s="298"/>
+      <c r="AC18" s="298"/>
+      <c r="AD18" s="298"/>
+      <c r="AE18" s="299"/>
+      <c r="AF18" s="294"/>
+      <c r="AG18" s="295"/>
+      <c r="AH18" s="295"/>
+      <c r="AI18" s="296"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="262"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="267"/>
-      <c r="I19" s="263"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="269"/>
-      <c r="L19" s="269"/>
-      <c r="M19" s="269"/>
-      <c r="N19" s="269"/>
-      <c r="O19" s="269"/>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="272"/>
-      <c r="S19" s="272"/>
-      <c r="T19" s="272"/>
-      <c r="U19" s="272"/>
-      <c r="V19" s="272"/>
-      <c r="W19" s="272"/>
-      <c r="X19" s="272"/>
-      <c r="Y19" s="272"/>
-      <c r="Z19" s="272"/>
-      <c r="AA19" s="272"/>
-      <c r="AB19" s="272"/>
-      <c r="AC19" s="272"/>
-      <c r="AD19" s="272"/>
-      <c r="AE19" s="273"/>
-      <c r="AF19" s="268"/>
-      <c r="AG19" s="269"/>
-      <c r="AH19" s="269"/>
-      <c r="AI19" s="270"/>
+      <c r="B19" s="288"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="291"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="289"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="295"/>
+      <c r="L19" s="295"/>
+      <c r="M19" s="295"/>
+      <c r="N19" s="295"/>
+      <c r="O19" s="295"/>
+      <c r="P19" s="296"/>
+      <c r="Q19" s="297"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="298"/>
+      <c r="W19" s="298"/>
+      <c r="X19" s="298"/>
+      <c r="Y19" s="298"/>
+      <c r="Z19" s="298"/>
+      <c r="AA19" s="298"/>
+      <c r="AB19" s="298"/>
+      <c r="AC19" s="298"/>
+      <c r="AD19" s="298"/>
+      <c r="AE19" s="299"/>
+      <c r="AF19" s="294"/>
+      <c r="AG19" s="295"/>
+      <c r="AH19" s="295"/>
+      <c r="AI19" s="296"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="262"/>
-      <c r="C20" s="263"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="266"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="267"/>
-      <c r="I20" s="263"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="269"/>
-      <c r="L20" s="269"/>
-      <c r="M20" s="269"/>
-      <c r="N20" s="269"/>
-      <c r="O20" s="269"/>
-      <c r="P20" s="270"/>
-      <c r="Q20" s="271"/>
-      <c r="R20" s="272"/>
-      <c r="S20" s="272"/>
-      <c r="T20" s="272"/>
-      <c r="U20" s="272"/>
-      <c r="V20" s="272"/>
-      <c r="W20" s="272"/>
-      <c r="X20" s="272"/>
-      <c r="Y20" s="272"/>
-      <c r="Z20" s="272"/>
-      <c r="AA20" s="272"/>
-      <c r="AB20" s="272"/>
-      <c r="AC20" s="272"/>
-      <c r="AD20" s="272"/>
-      <c r="AE20" s="273"/>
-      <c r="AF20" s="268"/>
-      <c r="AG20" s="269"/>
-      <c r="AH20" s="269"/>
-      <c r="AI20" s="270"/>
+      <c r="B20" s="288"/>
+      <c r="C20" s="289"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="292"/>
+      <c r="G20" s="288"/>
+      <c r="H20" s="293"/>
+      <c r="I20" s="289"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="295"/>
+      <c r="L20" s="295"/>
+      <c r="M20" s="295"/>
+      <c r="N20" s="295"/>
+      <c r="O20" s="295"/>
+      <c r="P20" s="296"/>
+      <c r="Q20" s="297"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="298"/>
+      <c r="V20" s="298"/>
+      <c r="W20" s="298"/>
+      <c r="X20" s="298"/>
+      <c r="Y20" s="298"/>
+      <c r="Z20" s="298"/>
+      <c r="AA20" s="298"/>
+      <c r="AB20" s="298"/>
+      <c r="AC20" s="298"/>
+      <c r="AD20" s="298"/>
+      <c r="AE20" s="299"/>
+      <c r="AF20" s="294"/>
+      <c r="AG20" s="295"/>
+      <c r="AH20" s="295"/>
+      <c r="AI20" s="296"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="262"/>
-      <c r="C21" s="263"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="265"/>
-      <c r="F21" s="266"/>
-      <c r="G21" s="262"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="263"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="269"/>
-      <c r="N21" s="269"/>
-      <c r="O21" s="269"/>
-      <c r="P21" s="270"/>
-      <c r="Q21" s="271"/>
-      <c r="R21" s="272"/>
-      <c r="S21" s="272"/>
-      <c r="T21" s="272"/>
-      <c r="U21" s="272"/>
-      <c r="V21" s="272"/>
-      <c r="W21" s="272"/>
-      <c r="X21" s="272"/>
-      <c r="Y21" s="272"/>
-      <c r="Z21" s="272"/>
-      <c r="AA21" s="272"/>
-      <c r="AB21" s="272"/>
-      <c r="AC21" s="272"/>
-      <c r="AD21" s="272"/>
-      <c r="AE21" s="273"/>
-      <c r="AF21" s="268"/>
-      <c r="AG21" s="269"/>
-      <c r="AH21" s="269"/>
-      <c r="AI21" s="270"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="289"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="289"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="295"/>
+      <c r="L21" s="295"/>
+      <c r="M21" s="295"/>
+      <c r="N21" s="295"/>
+      <c r="O21" s="295"/>
+      <c r="P21" s="296"/>
+      <c r="Q21" s="297"/>
+      <c r="R21" s="298"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="298"/>
+      <c r="V21" s="298"/>
+      <c r="W21" s="298"/>
+      <c r="X21" s="298"/>
+      <c r="Y21" s="298"/>
+      <c r="Z21" s="298"/>
+      <c r="AA21" s="298"/>
+      <c r="AB21" s="298"/>
+      <c r="AC21" s="298"/>
+      <c r="AD21" s="298"/>
+      <c r="AE21" s="299"/>
+      <c r="AF21" s="294"/>
+      <c r="AG21" s="295"/>
+      <c r="AH21" s="295"/>
+      <c r="AI21" s="296"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="262"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="266"/>
-      <c r="G22" s="262"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="263"/>
-      <c r="J22" s="268"/>
-      <c r="K22" s="269"/>
-      <c r="L22" s="269"/>
-      <c r="M22" s="269"/>
-      <c r="N22" s="269"/>
-      <c r="O22" s="269"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="271"/>
-      <c r="R22" s="272"/>
-      <c r="S22" s="272"/>
-      <c r="T22" s="272"/>
-      <c r="U22" s="272"/>
-      <c r="V22" s="272"/>
-      <c r="W22" s="272"/>
-      <c r="X22" s="272"/>
-      <c r="Y22" s="272"/>
-      <c r="Z22" s="272"/>
-      <c r="AA22" s="272"/>
-      <c r="AB22" s="272"/>
-      <c r="AC22" s="272"/>
-      <c r="AD22" s="272"/>
-      <c r="AE22" s="273"/>
-      <c r="AF22" s="268"/>
-      <c r="AG22" s="269"/>
-      <c r="AH22" s="269"/>
-      <c r="AI22" s="270"/>
+      <c r="B22" s="288"/>
+      <c r="C22" s="289"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="288"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="289"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="295"/>
+      <c r="L22" s="295"/>
+      <c r="M22" s="295"/>
+      <c r="N22" s="295"/>
+      <c r="O22" s="295"/>
+      <c r="P22" s="296"/>
+      <c r="Q22" s="297"/>
+      <c r="R22" s="298"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+      <c r="U22" s="298"/>
+      <c r="V22" s="298"/>
+      <c r="W22" s="298"/>
+      <c r="X22" s="298"/>
+      <c r="Y22" s="298"/>
+      <c r="Z22" s="298"/>
+      <c r="AA22" s="298"/>
+      <c r="AB22" s="298"/>
+      <c r="AC22" s="298"/>
+      <c r="AD22" s="298"/>
+      <c r="AE22" s="299"/>
+      <c r="AF22" s="294"/>
+      <c r="AG22" s="295"/>
+      <c r="AH22" s="295"/>
+      <c r="AI22" s="296"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="262"/>
-      <c r="C23" s="263"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="262"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="263"/>
-      <c r="J23" s="268"/>
-      <c r="K23" s="269"/>
-      <c r="L23" s="269"/>
-      <c r="M23" s="269"/>
-      <c r="N23" s="269"/>
-      <c r="O23" s="269"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="271"/>
-      <c r="R23" s="272"/>
-      <c r="S23" s="272"/>
-      <c r="T23" s="272"/>
-      <c r="U23" s="272"/>
-      <c r="V23" s="272"/>
-      <c r="W23" s="272"/>
-      <c r="X23" s="272"/>
-      <c r="Y23" s="272"/>
-      <c r="Z23" s="272"/>
-      <c r="AA23" s="272"/>
-      <c r="AB23" s="272"/>
-      <c r="AC23" s="272"/>
-      <c r="AD23" s="272"/>
-      <c r="AE23" s="273"/>
-      <c r="AF23" s="268"/>
-      <c r="AG23" s="269"/>
-      <c r="AH23" s="269"/>
-      <c r="AI23" s="270"/>
+      <c r="B23" s="288"/>
+      <c r="C23" s="289"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="288"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="295"/>
+      <c r="L23" s="295"/>
+      <c r="M23" s="295"/>
+      <c r="N23" s="295"/>
+      <c r="O23" s="295"/>
+      <c r="P23" s="296"/>
+      <c r="Q23" s="297"/>
+      <c r="R23" s="298"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+      <c r="U23" s="298"/>
+      <c r="V23" s="298"/>
+      <c r="W23" s="298"/>
+      <c r="X23" s="298"/>
+      <c r="Y23" s="298"/>
+      <c r="Z23" s="298"/>
+      <c r="AA23" s="298"/>
+      <c r="AB23" s="298"/>
+      <c r="AC23" s="298"/>
+      <c r="AD23" s="298"/>
+      <c r="AE23" s="299"/>
+      <c r="AF23" s="294"/>
+      <c r="AG23" s="295"/>
+      <c r="AH23" s="295"/>
+      <c r="AI23" s="296"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="262"/>
-      <c r="C24" s="263"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="262"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="263"/>
-      <c r="J24" s="268"/>
-      <c r="K24" s="269"/>
-      <c r="L24" s="269"/>
-      <c r="M24" s="269"/>
-      <c r="N24" s="269"/>
-      <c r="O24" s="269"/>
-      <c r="P24" s="270"/>
-      <c r="Q24" s="271"/>
-      <c r="R24" s="272"/>
-      <c r="S24" s="272"/>
-      <c r="T24" s="272"/>
-      <c r="U24" s="272"/>
-      <c r="V24" s="272"/>
-      <c r="W24" s="272"/>
-      <c r="X24" s="272"/>
-      <c r="Y24" s="272"/>
-      <c r="Z24" s="272"/>
-      <c r="AA24" s="272"/>
-      <c r="AB24" s="272"/>
-      <c r="AC24" s="272"/>
-      <c r="AD24" s="272"/>
-      <c r="AE24" s="273"/>
-      <c r="AF24" s="268"/>
-      <c r="AG24" s="269"/>
-      <c r="AH24" s="269"/>
-      <c r="AI24" s="270"/>
+      <c r="B24" s="288"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="292"/>
+      <c r="G24" s="288"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="289"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="295"/>
+      <c r="L24" s="295"/>
+      <c r="M24" s="295"/>
+      <c r="N24" s="295"/>
+      <c r="O24" s="295"/>
+      <c r="P24" s="296"/>
+      <c r="Q24" s="297"/>
+      <c r="R24" s="298"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="298"/>
+      <c r="V24" s="298"/>
+      <c r="W24" s="298"/>
+      <c r="X24" s="298"/>
+      <c r="Y24" s="298"/>
+      <c r="Z24" s="298"/>
+      <c r="AA24" s="298"/>
+      <c r="AB24" s="298"/>
+      <c r="AC24" s="298"/>
+      <c r="AD24" s="298"/>
+      <c r="AE24" s="299"/>
+      <c r="AF24" s="294"/>
+      <c r="AG24" s="295"/>
+      <c r="AH24" s="295"/>
+      <c r="AI24" s="296"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="262"/>
-      <c r="C25" s="263"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="265"/>
-      <c r="F25" s="266"/>
-      <c r="G25" s="262"/>
-      <c r="H25" s="267"/>
-      <c r="I25" s="263"/>
-      <c r="J25" s="268"/>
-      <c r="K25" s="269"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="269"/>
-      <c r="N25" s="269"/>
-      <c r="O25" s="269"/>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="271"/>
-      <c r="R25" s="272"/>
-      <c r="S25" s="272"/>
-      <c r="T25" s="272"/>
-      <c r="U25" s="272"/>
-      <c r="V25" s="272"/>
-      <c r="W25" s="272"/>
-      <c r="X25" s="272"/>
-      <c r="Y25" s="272"/>
-      <c r="Z25" s="272"/>
-      <c r="AA25" s="272"/>
-      <c r="AB25" s="272"/>
-      <c r="AC25" s="272"/>
-      <c r="AD25" s="272"/>
-      <c r="AE25" s="273"/>
-      <c r="AF25" s="268"/>
-      <c r="AG25" s="269"/>
-      <c r="AH25" s="269"/>
-      <c r="AI25" s="270"/>
+      <c r="B25" s="288"/>
+      <c r="C25" s="289"/>
+      <c r="D25" s="290"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="292"/>
+      <c r="G25" s="288"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="289"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="295"/>
+      <c r="L25" s="295"/>
+      <c r="M25" s="295"/>
+      <c r="N25" s="295"/>
+      <c r="O25" s="295"/>
+      <c r="P25" s="296"/>
+      <c r="Q25" s="297"/>
+      <c r="R25" s="298"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="298"/>
+      <c r="V25" s="298"/>
+      <c r="W25" s="298"/>
+      <c r="X25" s="298"/>
+      <c r="Y25" s="298"/>
+      <c r="Z25" s="298"/>
+      <c r="AA25" s="298"/>
+      <c r="AB25" s="298"/>
+      <c r="AC25" s="298"/>
+      <c r="AD25" s="298"/>
+      <c r="AE25" s="299"/>
+      <c r="AF25" s="294"/>
+      <c r="AG25" s="295"/>
+      <c r="AH25" s="295"/>
+      <c r="AI25" s="296"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="262"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="265"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="262"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="263"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="269"/>
-      <c r="L26" s="269"/>
-      <c r="M26" s="269"/>
-      <c r="N26" s="269"/>
-      <c r="O26" s="269"/>
-      <c r="P26" s="270"/>
-      <c r="Q26" s="271"/>
-      <c r="R26" s="272"/>
-      <c r="S26" s="272"/>
-      <c r="T26" s="272"/>
-      <c r="U26" s="272"/>
-      <c r="V26" s="272"/>
-      <c r="W26" s="272"/>
-      <c r="X26" s="272"/>
-      <c r="Y26" s="272"/>
-      <c r="Z26" s="272"/>
-      <c r="AA26" s="272"/>
-      <c r="AB26" s="272"/>
-      <c r="AC26" s="272"/>
-      <c r="AD26" s="272"/>
-      <c r="AE26" s="273"/>
-      <c r="AF26" s="268"/>
-      <c r="AG26" s="269"/>
-      <c r="AH26" s="269"/>
-      <c r="AI26" s="270"/>
+      <c r="B26" s="288"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="290"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="288"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="289"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="295"/>
+      <c r="L26" s="295"/>
+      <c r="M26" s="295"/>
+      <c r="N26" s="295"/>
+      <c r="O26" s="295"/>
+      <c r="P26" s="296"/>
+      <c r="Q26" s="297"/>
+      <c r="R26" s="298"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+      <c r="U26" s="298"/>
+      <c r="V26" s="298"/>
+      <c r="W26" s="298"/>
+      <c r="X26" s="298"/>
+      <c r="Y26" s="298"/>
+      <c r="Z26" s="298"/>
+      <c r="AA26" s="298"/>
+      <c r="AB26" s="298"/>
+      <c r="AC26" s="298"/>
+      <c r="AD26" s="298"/>
+      <c r="AE26" s="299"/>
+      <c r="AF26" s="294"/>
+      <c r="AG26" s="295"/>
+      <c r="AH26" s="295"/>
+      <c r="AI26" s="296"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="262"/>
-      <c r="C27" s="263"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="262"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="268"/>
-      <c r="K27" s="269"/>
-      <c r="L27" s="269"/>
-      <c r="M27" s="269"/>
-      <c r="N27" s="269"/>
-      <c r="O27" s="269"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="271"/>
-      <c r="R27" s="272"/>
-      <c r="S27" s="272"/>
-      <c r="T27" s="272"/>
-      <c r="U27" s="272"/>
-      <c r="V27" s="272"/>
-      <c r="W27" s="272"/>
-      <c r="X27" s="272"/>
-      <c r="Y27" s="272"/>
-      <c r="Z27" s="272"/>
-      <c r="AA27" s="272"/>
-      <c r="AB27" s="272"/>
-      <c r="AC27" s="272"/>
-      <c r="AD27" s="272"/>
-      <c r="AE27" s="273"/>
-      <c r="AF27" s="268"/>
-      <c r="AG27" s="269"/>
-      <c r="AH27" s="269"/>
-      <c r="AI27" s="270"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="288"/>
+      <c r="H27" s="293"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="295"/>
+      <c r="L27" s="295"/>
+      <c r="M27" s="295"/>
+      <c r="N27" s="295"/>
+      <c r="O27" s="295"/>
+      <c r="P27" s="296"/>
+      <c r="Q27" s="297"/>
+      <c r="R27" s="298"/>
+      <c r="S27" s="298"/>
+      <c r="T27" s="298"/>
+      <c r="U27" s="298"/>
+      <c r="V27" s="298"/>
+      <c r="W27" s="298"/>
+      <c r="X27" s="298"/>
+      <c r="Y27" s="298"/>
+      <c r="Z27" s="298"/>
+      <c r="AA27" s="298"/>
+      <c r="AB27" s="298"/>
+      <c r="AC27" s="298"/>
+      <c r="AD27" s="298"/>
+      <c r="AE27" s="299"/>
+      <c r="AF27" s="294"/>
+      <c r="AG27" s="295"/>
+      <c r="AH27" s="295"/>
+      <c r="AI27" s="296"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="265"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="267"/>
-      <c r="I28" s="263"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="269"/>
-      <c r="L28" s="269"/>
-      <c r="M28" s="269"/>
-      <c r="N28" s="269"/>
-      <c r="O28" s="269"/>
-      <c r="P28" s="270"/>
-      <c r="Q28" s="271"/>
-      <c r="R28" s="272"/>
-      <c r="S28" s="272"/>
-      <c r="T28" s="272"/>
-      <c r="U28" s="272"/>
-      <c r="V28" s="272"/>
-      <c r="W28" s="272"/>
-      <c r="X28" s="272"/>
-      <c r="Y28" s="272"/>
-      <c r="Z28" s="272"/>
-      <c r="AA28" s="272"/>
-      <c r="AB28" s="272"/>
-      <c r="AC28" s="272"/>
-      <c r="AD28" s="272"/>
-      <c r="AE28" s="273"/>
-      <c r="AF28" s="268"/>
-      <c r="AG28" s="269"/>
-      <c r="AH28" s="269"/>
-      <c r="AI28" s="270"/>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="291"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="288"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="289"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="295"/>
+      <c r="N28" s="295"/>
+      <c r="O28" s="295"/>
+      <c r="P28" s="296"/>
+      <c r="Q28" s="297"/>
+      <c r="R28" s="298"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="298"/>
+      <c r="V28" s="298"/>
+      <c r="W28" s="298"/>
+      <c r="X28" s="298"/>
+      <c r="Y28" s="298"/>
+      <c r="Z28" s="298"/>
+      <c r="AA28" s="298"/>
+      <c r="AB28" s="298"/>
+      <c r="AC28" s="298"/>
+      <c r="AD28" s="298"/>
+      <c r="AE28" s="299"/>
+      <c r="AF28" s="294"/>
+      <c r="AG28" s="295"/>
+      <c r="AH28" s="295"/>
+      <c r="AI28" s="296"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="262"/>
-      <c r="C29" s="263"/>
-      <c r="D29" s="264"/>
-      <c r="E29" s="265"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="262"/>
-      <c r="H29" s="267"/>
-      <c r="I29" s="263"/>
-      <c r="J29" s="268"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="269"/>
-      <c r="M29" s="269"/>
-      <c r="N29" s="269"/>
-      <c r="O29" s="269"/>
-      <c r="P29" s="270"/>
-      <c r="Q29" s="271"/>
-      <c r="R29" s="272"/>
-      <c r="S29" s="272"/>
-      <c r="T29" s="272"/>
-      <c r="U29" s="272"/>
-      <c r="V29" s="272"/>
-      <c r="W29" s="272"/>
-      <c r="X29" s="272"/>
-      <c r="Y29" s="272"/>
-      <c r="Z29" s="272"/>
-      <c r="AA29" s="272"/>
-      <c r="AB29" s="272"/>
-      <c r="AC29" s="272"/>
-      <c r="AD29" s="272"/>
-      <c r="AE29" s="273"/>
-      <c r="AF29" s="268"/>
-      <c r="AG29" s="269"/>
-      <c r="AH29" s="269"/>
-      <c r="AI29" s="270"/>
+      <c r="B29" s="288"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="291"/>
+      <c r="F29" s="292"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="289"/>
+      <c r="J29" s="294"/>
+      <c r="K29" s="295"/>
+      <c r="L29" s="295"/>
+      <c r="M29" s="295"/>
+      <c r="N29" s="295"/>
+      <c r="O29" s="295"/>
+      <c r="P29" s="296"/>
+      <c r="Q29" s="297"/>
+      <c r="R29" s="298"/>
+      <c r="S29" s="298"/>
+      <c r="T29" s="298"/>
+      <c r="U29" s="298"/>
+      <c r="V29" s="298"/>
+      <c r="W29" s="298"/>
+      <c r="X29" s="298"/>
+      <c r="Y29" s="298"/>
+      <c r="Z29" s="298"/>
+      <c r="AA29" s="298"/>
+      <c r="AB29" s="298"/>
+      <c r="AC29" s="298"/>
+      <c r="AD29" s="298"/>
+      <c r="AE29" s="299"/>
+      <c r="AF29" s="294"/>
+      <c r="AG29" s="295"/>
+      <c r="AH29" s="295"/>
+      <c r="AI29" s="296"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="262"/>
-      <c r="C30" s="263"/>
-      <c r="D30" s="264"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="262"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="263"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="269"/>
-      <c r="M30" s="269"/>
-      <c r="N30" s="269"/>
-      <c r="O30" s="269"/>
-      <c r="P30" s="270"/>
-      <c r="Q30" s="271"/>
-      <c r="R30" s="272"/>
-      <c r="S30" s="272"/>
-      <c r="T30" s="272"/>
-      <c r="U30" s="272"/>
-      <c r="V30" s="272"/>
-      <c r="W30" s="272"/>
-      <c r="X30" s="272"/>
-      <c r="Y30" s="272"/>
-      <c r="Z30" s="272"/>
-      <c r="AA30" s="272"/>
-      <c r="AB30" s="272"/>
-      <c r="AC30" s="272"/>
-      <c r="AD30" s="272"/>
-      <c r="AE30" s="273"/>
-      <c r="AF30" s="268"/>
-      <c r="AG30" s="269"/>
-      <c r="AH30" s="269"/>
-      <c r="AI30" s="270"/>
+      <c r="B30" s="288"/>
+      <c r="C30" s="289"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="292"/>
+      <c r="G30" s="288"/>
+      <c r="H30" s="293"/>
+      <c r="I30" s="289"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="295"/>
+      <c r="L30" s="295"/>
+      <c r="M30" s="295"/>
+      <c r="N30" s="295"/>
+      <c r="O30" s="295"/>
+      <c r="P30" s="296"/>
+      <c r="Q30" s="297"/>
+      <c r="R30" s="298"/>
+      <c r="S30" s="298"/>
+      <c r="T30" s="298"/>
+      <c r="U30" s="298"/>
+      <c r="V30" s="298"/>
+      <c r="W30" s="298"/>
+      <c r="X30" s="298"/>
+      <c r="Y30" s="298"/>
+      <c r="Z30" s="298"/>
+      <c r="AA30" s="298"/>
+      <c r="AB30" s="298"/>
+      <c r="AC30" s="298"/>
+      <c r="AD30" s="298"/>
+      <c r="AE30" s="299"/>
+      <c r="AF30" s="294"/>
+      <c r="AG30" s="295"/>
+      <c r="AH30" s="295"/>
+      <c r="AI30" s="296"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="262"/>
-      <c r="C31" s="263"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="265"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="262"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="263"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="269"/>
-      <c r="L31" s="269"/>
-      <c r="M31" s="269"/>
-      <c r="N31" s="269"/>
-      <c r="O31" s="269"/>
-      <c r="P31" s="270"/>
-      <c r="Q31" s="271"/>
-      <c r="R31" s="272"/>
-      <c r="S31" s="272"/>
-      <c r="T31" s="272"/>
-      <c r="U31" s="272"/>
-      <c r="V31" s="272"/>
-      <c r="W31" s="272"/>
-      <c r="X31" s="272"/>
-      <c r="Y31" s="272"/>
-      <c r="Z31" s="272"/>
-      <c r="AA31" s="272"/>
-      <c r="AB31" s="272"/>
-      <c r="AC31" s="272"/>
-      <c r="AD31" s="272"/>
-      <c r="AE31" s="273"/>
-      <c r="AF31" s="268"/>
-      <c r="AG31" s="269"/>
-      <c r="AH31" s="269"/>
-      <c r="AI31" s="270"/>
+      <c r="B31" s="288"/>
+      <c r="C31" s="289"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="289"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="295"/>
+      <c r="L31" s="295"/>
+      <c r="M31" s="295"/>
+      <c r="N31" s="295"/>
+      <c r="O31" s="295"/>
+      <c r="P31" s="296"/>
+      <c r="Q31" s="297"/>
+      <c r="R31" s="298"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="298"/>
+      <c r="V31" s="298"/>
+      <c r="W31" s="298"/>
+      <c r="X31" s="298"/>
+      <c r="Y31" s="298"/>
+      <c r="Z31" s="298"/>
+      <c r="AA31" s="298"/>
+      <c r="AB31" s="298"/>
+      <c r="AC31" s="298"/>
+      <c r="AD31" s="298"/>
+      <c r="AE31" s="299"/>
+      <c r="AF31" s="294"/>
+      <c r="AG31" s="295"/>
+      <c r="AH31" s="295"/>
+      <c r="AI31" s="296"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="264"/>
-      <c r="E32" s="265"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="267"/>
-      <c r="I32" s="263"/>
-      <c r="J32" s="268"/>
-      <c r="K32" s="274"/>
-      <c r="L32" s="269"/>
-      <c r="M32" s="269"/>
-      <c r="N32" s="269"/>
-      <c r="O32" s="269"/>
-      <c r="P32" s="270"/>
-      <c r="Q32" s="271"/>
-      <c r="R32" s="272"/>
-      <c r="S32" s="272"/>
-      <c r="T32" s="272"/>
-      <c r="U32" s="272"/>
-      <c r="V32" s="272"/>
-      <c r="W32" s="272"/>
-      <c r="X32" s="272"/>
-      <c r="Y32" s="272"/>
-      <c r="Z32" s="272"/>
-      <c r="AA32" s="272"/>
-      <c r="AB32" s="272"/>
-      <c r="AC32" s="272"/>
-      <c r="AD32" s="272"/>
-      <c r="AE32" s="273"/>
-      <c r="AF32" s="268"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="270"/>
+      <c r="B32" s="288"/>
+      <c r="C32" s="289"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="292"/>
+      <c r="G32" s="288"/>
+      <c r="H32" s="293"/>
+      <c r="I32" s="289"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="313"/>
+      <c r="L32" s="295"/>
+      <c r="M32" s="295"/>
+      <c r="N32" s="295"/>
+      <c r="O32" s="295"/>
+      <c r="P32" s="296"/>
+      <c r="Q32" s="297"/>
+      <c r="R32" s="298"/>
+      <c r="S32" s="298"/>
+      <c r="T32" s="298"/>
+      <c r="U32" s="298"/>
+      <c r="V32" s="298"/>
+      <c r="W32" s="298"/>
+      <c r="X32" s="298"/>
+      <c r="Y32" s="298"/>
+      <c r="Z32" s="298"/>
+      <c r="AA32" s="298"/>
+      <c r="AB32" s="298"/>
+      <c r="AC32" s="298"/>
+      <c r="AD32" s="298"/>
+      <c r="AE32" s="299"/>
+      <c r="AF32" s="294"/>
+      <c r="AG32" s="295"/>
+      <c r="AH32" s="295"/>
+      <c r="AI32" s="296"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="262"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="265"/>
-      <c r="F33" s="266"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="267"/>
-      <c r="I33" s="263"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="269"/>
-      <c r="L33" s="269"/>
-      <c r="M33" s="269"/>
-      <c r="N33" s="269"/>
-      <c r="O33" s="269"/>
-      <c r="P33" s="270"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="272"/>
-      <c r="S33" s="272"/>
-      <c r="T33" s="272"/>
-      <c r="U33" s="272"/>
-      <c r="V33" s="272"/>
-      <c r="W33" s="272"/>
-      <c r="X33" s="272"/>
-      <c r="Y33" s="272"/>
-      <c r="Z33" s="272"/>
-      <c r="AA33" s="272"/>
-      <c r="AB33" s="272"/>
-      <c r="AC33" s="272"/>
-      <c r="AD33" s="272"/>
-      <c r="AE33" s="273"/>
-      <c r="AF33" s="268"/>
-      <c r="AG33" s="269"/>
-      <c r="AH33" s="269"/>
-      <c r="AI33" s="270"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="288"/>
+      <c r="H33" s="293"/>
+      <c r="I33" s="289"/>
+      <c r="J33" s="294"/>
+      <c r="K33" s="295"/>
+      <c r="L33" s="295"/>
+      <c r="M33" s="295"/>
+      <c r="N33" s="295"/>
+      <c r="O33" s="295"/>
+      <c r="P33" s="296"/>
+      <c r="Q33" s="297"/>
+      <c r="R33" s="298"/>
+      <c r="S33" s="298"/>
+      <c r="T33" s="298"/>
+      <c r="U33" s="298"/>
+      <c r="V33" s="298"/>
+      <c r="W33" s="298"/>
+      <c r="X33" s="298"/>
+      <c r="Y33" s="298"/>
+      <c r="Z33" s="298"/>
+      <c r="AA33" s="298"/>
+      <c r="AB33" s="298"/>
+      <c r="AC33" s="298"/>
+      <c r="AD33" s="298"/>
+      <c r="AE33" s="299"/>
+      <c r="AF33" s="294"/>
+      <c r="AG33" s="295"/>
+      <c r="AH33" s="295"/>
+      <c r="AI33" s="296"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -6153,162 +6275,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6322,2993 +6288,2896 @@
   <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="111" customWidth="1"/>
-    <col min="2" max="2" width="9" style="111" bestFit="1"/>
-    <col min="3" max="3" width="14.25" style="111" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="112" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="111" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="61" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.625" style="62" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="23.375" style="111" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="30.625" style="111" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="111" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="111" customWidth="1"/>
-    <col min="13" max="15" width="8.625" style="111" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="111"/>
+    <col min="1" max="1" width="8.625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="9" style="108" bestFit="1"/>
+    <col min="3" max="3" width="14.25" style="108" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="108" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="59" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="60" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.375" style="108" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="30.625" style="108" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="108" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="108" customWidth="1"/>
+    <col min="13" max="14" width="8.625" style="108" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="111" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="111" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="108" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="108" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="111" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="108" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="111" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="108" t="s">
+        <v>338</v>
+      </c>
+      <c r="I6" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12.75" thickBot="1">
+      <c r="A8" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+    </row>
+    <row r="9" spans="1:17" ht="12.75" thickTop="1">
+      <c r="F9" s="25"/>
+      <c r="G9" s="81"/>
+    </row>
+    <row r="10" spans="1:17" s="133" customFormat="1">
+      <c r="A10" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="131" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="131" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="23.1" customHeight="1">
+      <c r="A11" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="134" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="140"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="140"/>
+    </row>
+    <row r="13" spans="1:17" s="133" customFormat="1" ht="36">
+      <c r="A13" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="148"/>
+    </row>
+    <row r="14" spans="1:17" s="133" customFormat="1">
+      <c r="A14" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="143" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="148"/>
+    </row>
+    <row r="15" spans="1:17" s="133" customFormat="1" ht="48">
+      <c r="A15" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="155" t="s">
+        <v>357</v>
+      </c>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="148"/>
+    </row>
+    <row r="16" spans="1:17" s="133" customFormat="1" ht="60">
+      <c r="A16" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="155" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="148"/>
+    </row>
+    <row r="17" spans="1:17" s="133" customFormat="1">
+      <c r="A17" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="116"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="119"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="140"/>
+    </row>
+    <row r="18" spans="1:17" s="133" customFormat="1" ht="36">
+      <c r="A18" s="127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="129"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="140"/>
+    </row>
+    <row r="19" spans="1:17" s="29" customFormat="1" ht="22.5" hidden="1">
+      <c r="A19" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="34"/>
+    </row>
+    <row r="20" spans="1:17" s="29" customFormat="1" ht="11.25" hidden="1">
+      <c r="A20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="34"/>
+    </row>
+    <row r="21" spans="1:17" s="29" customFormat="1" ht="11.25" hidden="1">
+      <c r="A21" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="34"/>
+    </row>
+    <row r="22" spans="1:17" s="29" customFormat="1" ht="11.25" hidden="1">
+      <c r="A22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="116"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="140"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="116"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="163" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="140"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="116"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="140"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="116"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="140"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="116"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="140"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="161" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="116"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="141" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="140"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="161" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="140"/>
+    </row>
+    <row r="30" spans="1:17" ht="24">
+      <c r="A30" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="116"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="140"/>
+    </row>
+    <row r="31" spans="1:17" s="133" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A31" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="120"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="167" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="181" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="148"/>
+    </row>
+    <row r="32" spans="1:17" s="133" customFormat="1" ht="57" customHeight="1">
+      <c r="A32" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="120"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="167" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="148"/>
+    </row>
+    <row r="33" spans="1:17" s="133" customFormat="1" ht="60">
+      <c r="A33" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="120"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="167" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="148"/>
+    </row>
+    <row r="34" spans="1:17" s="133" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A34" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="120"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="167" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I34" s="181" t="s">
+        <v>355</v>
+      </c>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="148"/>
+    </row>
+    <row r="35" spans="1:17" ht="50.25" customHeight="1">
+      <c r="A35" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="120"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="167" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" s="181" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="183"/>
+    </row>
+    <row r="36" spans="1:17" ht="50.25" customHeight="1">
+      <c r="A36" s="127" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="120"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="77"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="181" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" s="181"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="182"/>
+      <c r="P36" s="182"/>
+      <c r="Q36" s="183"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="127" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="120"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="167" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="181" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="182"/>
+      <c r="P37" s="182"/>
+      <c r="Q37" s="183"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="120"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="181" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="182"/>
+      <c r="M38" s="182"/>
+      <c r="N38" s="183"/>
+      <c r="O38" s="182"/>
+      <c r="P38" s="182"/>
+      <c r="Q38" s="183"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="120"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="181" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="182"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="182"/>
+      <c r="P39" s="182"/>
+      <c r="Q39" s="183"/>
+    </row>
+    <row r="40" spans="1:17" ht="59.25" customHeight="1">
+      <c r="A40" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="120"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="171" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="167" t="s">
+        <v>353</v>
+      </c>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" s="181"/>
+      <c r="K40" s="181"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="183"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="183"/>
+    </row>
+    <row r="41" spans="1:17" ht="60">
+      <c r="A41" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="120"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="181"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="183"/>
+    </row>
+    <row r="42" spans="1:17" ht="54.75" customHeight="1">
+      <c r="A42" s="170" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="120"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="167" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" s="181" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" s="181"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="182"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="182"/>
+      <c r="P42" s="182"/>
+      <c r="Q42" s="183"/>
+    </row>
+    <row r="43" spans="1:17" ht="54.75" customHeight="1">
+      <c r="A43" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="120"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="181" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="182"/>
+      <c r="P43" s="182"/>
+      <c r="Q43" s="183"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="170" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="120"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="172" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" s="185"/>
+      <c r="K44" s="185"/>
+      <c r="L44" s="186"/>
+      <c r="M44" s="186"/>
+      <c r="N44" s="187"/>
+      <c r="O44" s="186"/>
+      <c r="P44" s="186"/>
+      <c r="Q44" s="183"/>
+    </row>
+    <row r="45" spans="1:17" ht="24">
+      <c r="A45" s="170" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="173"/>
+      <c r="C45" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="171"/>
+      <c r="E45" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="188" t="s">
+        <v>261</v>
+      </c>
+      <c r="I45" s="189" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" s="189"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="190"/>
+      <c r="M45" s="190"/>
+      <c r="N45" s="191"/>
+      <c r="O45" s="190"/>
+      <c r="P45" s="190"/>
+      <c r="Q45" s="140"/>
+    </row>
+    <row r="46" spans="1:17" ht="24">
+      <c r="A46" s="170" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="173"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="188" t="s">
+        <v>261</v>
+      </c>
+      <c r="I46" s="189" t="s">
+        <v>262</v>
+      </c>
+      <c r="J46" s="189"/>
+      <c r="K46" s="189"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="190"/>
+      <c r="N46" s="191"/>
+      <c r="O46" s="190"/>
+      <c r="P46" s="190"/>
+      <c r="Q46" s="140"/>
+    </row>
+    <row r="47" spans="1:17" ht="24">
+      <c r="A47" s="170" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="173"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190"/>
+      <c r="N47" s="191"/>
+      <c r="O47" s="190"/>
+      <c r="P47" s="190"/>
+      <c r="Q47" s="140"/>
+    </row>
+    <row r="48" spans="1:17" ht="24">
+      <c r="A48" s="170" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="173"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" s="189"/>
+      <c r="K48" s="189"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="191"/>
+      <c r="O48" s="190"/>
+      <c r="P48" s="190"/>
+      <c r="Q48" s="140"/>
+    </row>
+    <row r="49" spans="1:17" ht="36">
+      <c r="A49" s="170" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="173"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="174" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="190"/>
+      <c r="M49" s="190"/>
+      <c r="N49" s="191"/>
+      <c r="O49" s="190"/>
+      <c r="P49" s="190"/>
+      <c r="Q49" s="140"/>
+    </row>
+    <row r="50" spans="1:17" ht="24">
+      <c r="A50" s="170" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="173"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="189"/>
+      <c r="K50" s="189"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="191"/>
+      <c r="O50" s="190"/>
+      <c r="P50" s="190"/>
+      <c r="Q50" s="140"/>
+    </row>
+    <row r="51" spans="1:17" ht="24">
+      <c r="A51" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="173"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="174" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" s="189"/>
+      <c r="K51" s="189"/>
+      <c r="L51" s="190"/>
+      <c r="M51" s="190"/>
+      <c r="N51" s="191"/>
+      <c r="O51" s="190"/>
+      <c r="P51" s="190"/>
+      <c r="Q51" s="140"/>
+    </row>
+    <row r="52" spans="1:17" ht="24">
+      <c r="A52" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="173"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="174" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="189"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="190"/>
+      <c r="M52" s="190"/>
+      <c r="N52" s="191"/>
+      <c r="O52" s="190"/>
+      <c r="P52" s="190"/>
+      <c r="Q52" s="140"/>
+    </row>
+    <row r="53" spans="1:17" ht="24">
+      <c r="A53" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="175"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="174" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="189"/>
+      <c r="K53" s="189"/>
+      <c r="L53" s="190"/>
+      <c r="M53" s="190"/>
+      <c r="N53" s="191"/>
+      <c r="O53" s="190"/>
+      <c r="P53" s="190"/>
+      <c r="Q53" s="140"/>
+    </row>
+    <row r="54" spans="1:17" s="133" customFormat="1" ht="36">
+      <c r="A54" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="122" t="s">
         <v>340</v>
       </c>
-      <c r="I6" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="12.75" thickBot="1">
-      <c r="A8" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-    </row>
-    <row r="9" spans="1:18" ht="12.75" thickTop="1">
-      <c r="F9" s="25"/>
-      <c r="G9" s="84"/>
-    </row>
-    <row r="10" spans="1:18" s="137" customFormat="1">
-      <c r="A10" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="133" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" s="134" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="134" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="134" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10" s="134" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="134" t="s">
-        <v>158</v>
-      </c>
-      <c r="P10" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="134" t="s">
+      <c r="E54" s="177" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I54" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" s="193"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="194"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="196"/>
+      <c r="O54" s="197"/>
+      <c r="P54" s="195"/>
+      <c r="Q54" s="140"/>
+    </row>
+    <row r="55" spans="1:17" s="133" customFormat="1" ht="24">
+      <c r="A55" s="170" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="177" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I55" s="198" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" s="160"/>
+      <c r="K55" s="160"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="138"/>
+      <c r="O55" s="139"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="140"/>
+    </row>
+    <row r="56" spans="1:17" s="133" customFormat="1" ht="24">
+      <c r="A56" s="170" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="177" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56" s="198" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="139"/>
+      <c r="P56" s="137"/>
+      <c r="Q56" s="140"/>
+    </row>
+    <row r="57" spans="1:17" s="200" customFormat="1">
+      <c r="A57" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="177" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="79"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57" s="198" t="s">
+        <v>340</v>
+      </c>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="138"/>
+      <c r="O57" s="139"/>
+      <c r="P57" s="137"/>
+      <c r="Q57" s="199"/>
+    </row>
+    <row r="58" spans="1:17" s="200" customFormat="1" ht="24">
+      <c r="A58" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="177" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" s="198" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" s="160"/>
+      <c r="K58" s="160"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="139"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="199"/>
+    </row>
+    <row r="59" spans="1:17" s="133" customFormat="1" ht="24">
+      <c r="A59" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="178" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="77"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="198" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" s="160"/>
+      <c r="K59" s="160"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="138"/>
+      <c r="O59" s="139"/>
+      <c r="P59" s="137"/>
+      <c r="Q59" s="140"/>
+    </row>
+    <row r="60" spans="1:17" s="133" customFormat="1" ht="24">
+      <c r="A60" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="160" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="77"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I60" s="198" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" s="160"/>
+      <c r="K60" s="160"/>
+      <c r="L60" s="136"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="138"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="137"/>
+      <c r="Q60" s="140"/>
+    </row>
+    <row r="61" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A61" s="170" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="160" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" s="77"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I61" s="198" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" s="160"/>
+      <c r="K61" s="160"/>
+      <c r="L61" s="136"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="138"/>
+      <c r="O61" s="139"/>
+      <c r="P61" s="137"/>
+      <c r="Q61" s="140"/>
+    </row>
+    <row r="62" spans="1:17" s="133" customFormat="1">
+      <c r="A62" s="170" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="160" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="77"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I62" s="198" t="s">
+        <v>340</v>
+      </c>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
+      <c r="L62" s="136"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="139"/>
+      <c r="P62" s="137"/>
+      <c r="Q62" s="140"/>
+    </row>
+    <row r="63" spans="1:17" s="133" customFormat="1">
+      <c r="A63" s="170" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="160" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="I63" s="198" t="s">
+        <v>340</v>
+      </c>
+      <c r="J63" s="160"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="137"/>
+      <c r="N63" s="138"/>
+      <c r="O63" s="139"/>
+      <c r="P63" s="137"/>
+      <c r="Q63" s="140"/>
+    </row>
+    <row r="64" spans="1:17" s="133" customFormat="1" ht="36">
+      <c r="A64" s="170" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="160" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="R10" s="136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="23.1" customHeight="1">
-      <c r="A11" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="138" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="145"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="146" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="145"/>
-    </row>
-    <row r="13" spans="1:18" s="137" customFormat="1" ht="36">
-      <c r="A13" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" s="125" t="s">
-        <v>358</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="147" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="148" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-    </row>
-    <row r="14" spans="1:18" s="137" customFormat="1">
-      <c r="A14" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="147" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="154"/>
-    </row>
-    <row r="15" spans="1:18" s="137" customFormat="1" ht="48">
-      <c r="A15" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="162" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="154"/>
-    </row>
-    <row r="16" spans="1:18" s="137" customFormat="1" ht="60">
-      <c r="A16" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="162" t="s">
-        <v>360</v>
-      </c>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="154"/>
-    </row>
-    <row r="17" spans="1:18" s="137" customFormat="1">
-      <c r="A17" s="130" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="145"/>
-    </row>
-    <row r="18" spans="1:18" s="137" customFormat="1" ht="36">
-      <c r="A18" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="145"/>
-    </row>
-    <row r="19" spans="1:18" s="29" customFormat="1" ht="22.5" hidden="1">
-      <c r="A19" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="35"/>
-    </row>
-    <row r="20" spans="1:18" s="29" customFormat="1" ht="11.25" hidden="1">
-      <c r="A20" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="35"/>
-    </row>
-    <row r="21" spans="1:18" s="29" customFormat="1" ht="11.25" hidden="1">
-      <c r="A21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="35"/>
-    </row>
-    <row r="22" spans="1:18" s="29" customFormat="1" ht="11.25" hidden="1">
-      <c r="A22" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="35"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="170" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="145"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="169" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="171" t="s">
-        <v>354</v>
-      </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="145"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="145"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="171" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="142"/>
-      <c r="R26" s="145"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="169" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="171" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="145"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="169" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="146" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="145"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="169" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="145"/>
-    </row>
-    <row r="30" spans="1:18" ht="24">
-      <c r="A30" s="130" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="173" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="I30" s="187" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="145"/>
-    </row>
-    <row r="31" spans="1:18" s="137" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A31" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="175" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I31" s="189" t="s">
-        <v>259</v>
-      </c>
-      <c r="J31" s="189"/>
-      <c r="K31" s="189"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="154"/>
-    </row>
-    <row r="32" spans="1:18" s="137" customFormat="1" ht="57" customHeight="1">
-      <c r="A32" s="130" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="175" t="s">
-        <v>341</v>
-      </c>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" s="189" t="s">
-        <v>356</v>
-      </c>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="154"/>
-    </row>
-    <row r="33" spans="1:18" s="137" customFormat="1" ht="60">
-      <c r="A33" s="130" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="175" t="s">
+      <c r="I64" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J64" s="160"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="138"/>
+      <c r="O64" s="139"/>
+      <c r="P64" s="137"/>
+      <c r="Q64" s="140"/>
+    </row>
+    <row r="65" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A65" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="160" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I65" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J65" s="160"/>
+      <c r="K65" s="160"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="138"/>
+      <c r="O65" s="139"/>
+      <c r="P65" s="137"/>
+      <c r="Q65" s="140"/>
+    </row>
+    <row r="66" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A66" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="160" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I66" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J66" s="160"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="138"/>
+      <c r="O66" s="139"/>
+      <c r="P66" s="137"/>
+      <c r="Q66" s="140"/>
+    </row>
+    <row r="67" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A67" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="34"/>
+    </row>
+    <row r="68" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A68" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I68" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J68" s="160"/>
+      <c r="K68" s="160"/>
+      <c r="L68" s="136"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="138"/>
+      <c r="O68" s="139"/>
+      <c r="P68" s="137"/>
+      <c r="Q68" s="140"/>
+    </row>
+    <row r="69" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A69" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="160" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I69" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J69" s="160"/>
+      <c r="K69" s="160"/>
+      <c r="L69" s="136"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="138"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="137"/>
+      <c r="Q69" s="140"/>
+    </row>
+    <row r="70" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A70" s="170" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="77"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I70" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" s="160"/>
+      <c r="K70" s="160"/>
+      <c r="L70" s="136"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="138"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="137"/>
+      <c r="Q70" s="140"/>
+    </row>
+    <row r="71" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A71" s="170" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="160" t="s">
+        <v>272</v>
+      </c>
+      <c r="F71" s="77"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I71" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="J71" s="160"/>
+      <c r="K71" s="160"/>
+      <c r="L71" s="136"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="138"/>
+      <c r="O71" s="139"/>
+      <c r="P71" s="137"/>
+      <c r="Q71" s="140"/>
+    </row>
+    <row r="72" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A72" s="170" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" s="189" t="s">
-        <v>356</v>
-      </c>
-      <c r="J33" s="189"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="154"/>
-    </row>
-    <row r="34" spans="1:18" s="137" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A34" s="130" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="175" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" s="189" t="s">
-        <v>357</v>
-      </c>
-      <c r="J34" s="189"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="166"/>
-      <c r="R34" s="154"/>
-    </row>
-    <row r="35" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A35" s="130" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="175" t="s">
+      <c r="F72" s="77"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72" s="203" t="s">
+        <v>288</v>
+      </c>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="136"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="138"/>
+      <c r="O72" s="139"/>
+      <c r="P72" s="137"/>
+      <c r="Q72" s="140"/>
+    </row>
+    <row r="73" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A73" s="170" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" s="160" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" s="77"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I73" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J73" s="160"/>
+      <c r="K73" s="160"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="138"/>
+      <c r="O73" s="139"/>
+      <c r="P73" s="137"/>
+      <c r="Q73" s="140"/>
+    </row>
+    <row r="74" spans="1:17" s="133" customFormat="1">
+      <c r="A74" s="170" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="125"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="77"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I74" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J74" s="160"/>
+      <c r="K74" s="160"/>
+      <c r="L74" s="136"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="138"/>
+      <c r="O74" s="139"/>
+      <c r="P74" s="137"/>
+      <c r="Q74" s="140"/>
+    </row>
+    <row r="75" spans="1:17" s="133" customFormat="1">
+      <c r="A75" s="170" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="160" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="77"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I75" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J75" s="160"/>
+      <c r="K75" s="160"/>
+      <c r="L75" s="136"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="138"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="137"/>
+      <c r="Q75" s="140"/>
+    </row>
+    <row r="76" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A76" s="170" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="125"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="160" t="s">
+        <v>277</v>
+      </c>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I76" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
+      <c r="L76" s="136"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="138"/>
+      <c r="O76" s="139"/>
+      <c r="P76" s="137"/>
+      <c r="Q76" s="140"/>
+    </row>
+    <row r="77" spans="1:17" s="133" customFormat="1">
+      <c r="A77" s="170" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I77" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
+      <c r="L77" s="136"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="138"/>
+      <c r="O77" s="139"/>
+      <c r="P77" s="137"/>
+      <c r="Q77" s="140"/>
+    </row>
+    <row r="78" spans="1:17" s="133" customFormat="1">
+      <c r="A78" s="170" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="201" t="s">
+        <v>281</v>
+      </c>
+      <c r="F78" s="77"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I78" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J78" s="160"/>
+      <c r="K78" s="160"/>
+      <c r="L78" s="136"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="138"/>
+      <c r="O78" s="139"/>
+      <c r="P78" s="137"/>
+      <c r="Q78" s="140"/>
+    </row>
+    <row r="79" spans="1:17" s="133" customFormat="1" ht="24">
+      <c r="A79" s="170" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="E79" s="202"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="I79" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="136"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="138"/>
+      <c r="O79" s="139"/>
+      <c r="P79" s="137"/>
+      <c r="Q79" s="140"/>
+    </row>
+    <row r="80" spans="1:17" s="29" customFormat="1" ht="22.5" hidden="1">
+      <c r="A80" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="40"/>
+      <c r="F80" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="34"/>
+    </row>
+    <row r="81" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A81" s="170" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" s="125"/>
+      <c r="C81" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" s="204" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" s="205"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I81" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J81" s="160"/>
+      <c r="K81" s="160"/>
+      <c r="L81" s="136"/>
+      <c r="M81" s="137"/>
+      <c r="N81" s="138"/>
+      <c r="O81" s="139"/>
+      <c r="P81" s="137"/>
+      <c r="Q81" s="140"/>
+    </row>
+    <row r="82" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A82" s="170" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" s="125"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="206" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="207" t="s">
+        <v>295</v>
+      </c>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I82" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J82" s="160"/>
+      <c r="K82" s="160"/>
+      <c r="L82" s="136"/>
+      <c r="M82" s="137"/>
+      <c r="N82" s="138"/>
+      <c r="O82" s="139"/>
+      <c r="P82" s="137"/>
+      <c r="Q82" s="140"/>
+    </row>
+    <row r="83" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A83" s="170" t="s">
+        <v>296</v>
+      </c>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="206"/>
+      <c r="E83" s="207" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="77"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I83" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J83" s="160"/>
+      <c r="K83" s="160"/>
+      <c r="L83" s="136"/>
+      <c r="M83" s="137"/>
+      <c r="N83" s="138"/>
+      <c r="O83" s="139"/>
+      <c r="P83" s="137"/>
+      <c r="Q83" s="140"/>
+    </row>
+    <row r="84" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A84" s="170" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="206" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="208"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
+      <c r="L84" s="136"/>
+      <c r="M84" s="137"/>
+      <c r="N84" s="138"/>
+      <c r="O84" s="139"/>
+      <c r="P84" s="137"/>
+      <c r="Q84" s="140"/>
+    </row>
+    <row r="85" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A85" s="170" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="125"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="206" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" s="208"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I85" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J85" s="160"/>
+      <c r="K85" s="160"/>
+      <c r="L85" s="136"/>
+      <c r="M85" s="137"/>
+      <c r="N85" s="138"/>
+      <c r="O85" s="139"/>
+      <c r="P85" s="137"/>
+      <c r="Q85" s="140"/>
+    </row>
+    <row r="86" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A86" s="170" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="206" t="s">
+        <v>303</v>
+      </c>
+      <c r="E86" s="208"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J86" s="160"/>
+      <c r="K86" s="160"/>
+      <c r="L86" s="136"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="139"/>
+      <c r="P86" s="137"/>
+      <c r="Q86" s="140"/>
+    </row>
+    <row r="87" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A87" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="50"/>
+      <c r="F87" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="34"/>
+    </row>
+    <row r="88" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A88" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="50"/>
+      <c r="F88" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="34"/>
+    </row>
+    <row r="89" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A89" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="50"/>
+      <c r="F89" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="34"/>
+    </row>
+    <row r="90" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A90" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="50"/>
+      <c r="F90" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H90" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="34"/>
+    </row>
+    <row r="91" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A91" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="50"/>
+      <c r="F91" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H91" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="34"/>
+    </row>
+    <row r="92" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A92" s="170" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="125"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="206" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="208"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I92" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J92" s="160"/>
+      <c r="K92" s="160"/>
+      <c r="L92" s="136"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="138"/>
+      <c r="O92" s="139"/>
+      <c r="P92" s="137"/>
+      <c r="Q92" s="140"/>
+    </row>
+    <row r="93" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A93" s="170" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="125"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="206" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" s="189" t="s">
-        <v>260</v>
-      </c>
-      <c r="J35" s="189"/>
-      <c r="K35" s="189"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="191"/>
-      <c r="N35" s="190"/>
-      <c r="O35" s="191"/>
-      <c r="P35" s="190"/>
-      <c r="Q35" s="190"/>
-      <c r="R35" s="191"/>
-    </row>
-    <row r="36" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A36" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="175" t="s">
-        <v>196</v>
-      </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" s="189" t="s">
-        <v>260</v>
-      </c>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="191"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="190"/>
-      <c r="R36" s="191"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="130" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="175" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="189" t="s">
-        <v>261</v>
-      </c>
-      <c r="J37" s="189"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="190"/>
-      <c r="Q37" s="190"/>
-      <c r="R37" s="191"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="123"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="175" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="I38" s="189" t="s">
-        <v>261</v>
-      </c>
-      <c r="J38" s="189"/>
-      <c r="K38" s="189"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="191"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
-      <c r="R38" s="191"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="130" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="177"/>
-      <c r="E39" s="175" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="189" t="s">
-        <v>261</v>
-      </c>
-      <c r="J39" s="189"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="191"/>
-    </row>
-    <row r="40" spans="1:18" ht="59.25" customHeight="1">
-      <c r="A40" s="178" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="179" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="175" t="s">
-        <v>355</v>
-      </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I40" s="189" t="s">
-        <v>356</v>
-      </c>
-      <c r="J40" s="189"/>
-      <c r="K40" s="189"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="191"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="191"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="191"/>
-    </row>
-    <row r="41" spans="1:18" ht="60">
-      <c r="A41" s="178" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="175" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I41" s="189" t="s">
-        <v>356</v>
-      </c>
-      <c r="J41" s="189"/>
-      <c r="K41" s="189"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="191"/>
-    </row>
-    <row r="42" spans="1:18" ht="54.75" customHeight="1">
-      <c r="A42" s="178" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I42" s="189" t="s">
-        <v>262</v>
-      </c>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="191"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="191"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="191"/>
-    </row>
-    <row r="43" spans="1:18" ht="54.75" customHeight="1">
-      <c r="A43" s="178" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="175" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="I43" s="189" t="s">
-        <v>262</v>
-      </c>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="190"/>
-      <c r="O43" s="191"/>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="191"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="178" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="192" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" s="193" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="193"/>
-      <c r="K44" s="193"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="195"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="191"/>
-    </row>
-    <row r="45" spans="1:18" ht="24">
-      <c r="A45" s="178" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="124" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="179"/>
-      <c r="E45" s="182" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="196" t="s">
-        <v>263</v>
-      </c>
-      <c r="I45" s="197" t="s">
-        <v>264</v>
-      </c>
-      <c r="J45" s="197"/>
-      <c r="K45" s="197"/>
-      <c r="L45" s="198"/>
-      <c r="M45" s="199"/>
-      <c r="N45" s="198"/>
-      <c r="O45" s="199"/>
-      <c r="P45" s="198"/>
-      <c r="Q45" s="198"/>
-      <c r="R45" s="145"/>
-    </row>
-    <row r="46" spans="1:18" ht="24">
-      <c r="A46" s="178" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="182" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="196" t="s">
-        <v>263</v>
-      </c>
-      <c r="I46" s="197" t="s">
-        <v>264</v>
-      </c>
-      <c r="J46" s="197"/>
-      <c r="K46" s="197"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="198"/>
-      <c r="O46" s="199"/>
-      <c r="P46" s="198"/>
-      <c r="Q46" s="198"/>
-      <c r="R46" s="145"/>
-    </row>
-    <row r="47" spans="1:18" ht="24">
-      <c r="A47" s="178" t="s">
-        <v>215</v>
-      </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="182" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J47" s="197"/>
-      <c r="K47" s="197"/>
-      <c r="L47" s="198"/>
-      <c r="M47" s="199"/>
-      <c r="N47" s="198"/>
-      <c r="O47" s="199"/>
-      <c r="P47" s="198"/>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="145"/>
-    </row>
-    <row r="48" spans="1:18" ht="24">
-      <c r="A48" s="178" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="181"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="182" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I48" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J48" s="197"/>
-      <c r="K48" s="197"/>
-      <c r="L48" s="198"/>
-      <c r="M48" s="199"/>
-      <c r="N48" s="198"/>
-      <c r="O48" s="199"/>
-      <c r="P48" s="198"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="145"/>
-    </row>
-    <row r="49" spans="1:18" ht="36">
-      <c r="A49" s="178" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="181"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="182" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I49" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="197"/>
-      <c r="K49" s="197"/>
-      <c r="L49" s="198"/>
-      <c r="M49" s="199"/>
-      <c r="N49" s="198"/>
-      <c r="O49" s="199"/>
-      <c r="P49" s="198"/>
-      <c r="Q49" s="198"/>
-      <c r="R49" s="145"/>
-    </row>
-    <row r="50" spans="1:18" ht="24">
-      <c r="A50" s="178" t="s">
-        <v>221</v>
-      </c>
-      <c r="B50" s="181"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J50" s="197"/>
-      <c r="K50" s="197"/>
-      <c r="L50" s="198"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="198"/>
-      <c r="O50" s="199"/>
-      <c r="P50" s="198"/>
-      <c r="Q50" s="198"/>
-      <c r="R50" s="145"/>
-    </row>
-    <row r="51" spans="1:18" ht="24">
-      <c r="A51" s="178" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="181"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I51" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="197"/>
-      <c r="K51" s="197"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="199"/>
-      <c r="N51" s="198"/>
-      <c r="O51" s="199"/>
-      <c r="P51" s="198"/>
-      <c r="Q51" s="198"/>
-      <c r="R51" s="145"/>
-    </row>
-    <row r="52" spans="1:18" ht="24">
-      <c r="A52" s="178" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="181"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="182" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I52" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J52" s="197"/>
-      <c r="K52" s="197"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="199"/>
-      <c r="N52" s="198"/>
-      <c r="O52" s="199"/>
-      <c r="P52" s="198"/>
-      <c r="Q52" s="198"/>
-      <c r="R52" s="145"/>
-    </row>
-    <row r="53" spans="1:18" ht="24">
-      <c r="A53" s="178" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="183"/>
-      <c r="C53" s="184"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="182" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="197"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="198"/>
-      <c r="M53" s="199"/>
-      <c r="N53" s="198"/>
-      <c r="O53" s="199"/>
-      <c r="P53" s="198"/>
-      <c r="Q53" s="198"/>
-      <c r="R53" s="145"/>
-    </row>
-    <row r="54" spans="1:18" s="137" customFormat="1" ht="36">
-      <c r="A54" s="178" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="128" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="128" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54" s="185" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I54" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="202"/>
-      <c r="M54" s="203"/>
-      <c r="N54" s="204"/>
-      <c r="O54" s="205"/>
-      <c r="P54" s="206"/>
-      <c r="Q54" s="204"/>
-      <c r="R54" s="145"/>
-    </row>
-    <row r="55" spans="1:18" s="137" customFormat="1" ht="24">
-      <c r="A55" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="185" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I55" s="207" t="s">
-        <v>343</v>
-      </c>
-      <c r="J55" s="168"/>
-      <c r="K55" s="168"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="141"/>
-      <c r="N55" s="142"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="144"/>
-      <c r="Q55" s="142"/>
-      <c r="R55" s="145"/>
-    </row>
-    <row r="56" spans="1:18" s="137" customFormat="1" ht="24">
-      <c r="A56" s="178" t="s">
-        <v>234</v>
-      </c>
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="185" t="s">
-        <v>235</v>
-      </c>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I56" s="207" t="s">
-        <v>343</v>
-      </c>
-      <c r="J56" s="168"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="141"/>
-      <c r="N56" s="142"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="144"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="145"/>
-    </row>
-    <row r="57" spans="1:18" s="209" customFormat="1">
-      <c r="A57" s="178" t="s">
-        <v>236</v>
-      </c>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="185" t="s">
-        <v>237</v>
-      </c>
-      <c r="F57" s="82"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I57" s="207" t="s">
-        <v>342</v>
-      </c>
-      <c r="J57" s="168"/>
-      <c r="K57" s="168"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="141"/>
-      <c r="N57" s="142"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="142"/>
-      <c r="R57" s="208"/>
-    </row>
-    <row r="58" spans="1:18" s="209" customFormat="1" ht="24">
-      <c r="A58" s="178" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" s="128"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="173"/>
-      <c r="E58" s="185" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I58" s="207" t="s">
-        <v>343</v>
-      </c>
-      <c r="J58" s="168"/>
-      <c r="K58" s="168"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="142"/>
-      <c r="O58" s="143"/>
-      <c r="P58" s="144"/>
-      <c r="Q58" s="142"/>
-      <c r="R58" s="208"/>
-    </row>
-    <row r="59" spans="1:18" s="137" customFormat="1" ht="24">
-      <c r="A59" s="178" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="128"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="125" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="186" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I59" s="207" t="s">
-        <v>343</v>
-      </c>
-      <c r="J59" s="168"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="142"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="144"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="145"/>
-    </row>
-    <row r="60" spans="1:18" s="137" customFormat="1" ht="24">
-      <c r="A60" s="178" t="s">
-        <v>242</v>
-      </c>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="168" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="80"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I60" s="207" t="s">
-        <v>343</v>
-      </c>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="141"/>
-      <c r="N60" s="142"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="142"/>
-      <c r="R60" s="145"/>
-    </row>
-    <row r="61" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A61" s="178" t="s">
-        <v>244</v>
-      </c>
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="168" t="s">
-        <v>245</v>
-      </c>
-      <c r="F61" s="80"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I61" s="207" t="s">
-        <v>342</v>
-      </c>
-      <c r="J61" s="168"/>
-      <c r="K61" s="168"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="141"/>
-      <c r="N61" s="142"/>
-      <c r="O61" s="143"/>
-      <c r="P61" s="144"/>
-      <c r="Q61" s="142"/>
-      <c r="R61" s="145"/>
-    </row>
-    <row r="62" spans="1:18" s="137" customFormat="1">
-      <c r="A62" s="178" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="128"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="125" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="168" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I62" s="207" t="s">
-        <v>342</v>
-      </c>
-      <c r="J62" s="168"/>
-      <c r="K62" s="168"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="141"/>
-      <c r="N62" s="142"/>
-      <c r="O62" s="143"/>
-      <c r="P62" s="144"/>
-      <c r="Q62" s="142"/>
-      <c r="R62" s="145"/>
-    </row>
-    <row r="63" spans="1:18" s="137" customFormat="1">
-      <c r="A63" s="178" t="s">
-        <v>249</v>
-      </c>
-      <c r="B63" s="128"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="173"/>
-      <c r="E63" s="168" t="s">
-        <v>250</v>
-      </c>
-      <c r="F63" s="80"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="I63" s="207" t="s">
-        <v>342</v>
-      </c>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="141"/>
-      <c r="N63" s="142"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="144"/>
-      <c r="Q63" s="142"/>
-      <c r="R63" s="145"/>
-    </row>
-    <row r="64" spans="1:18" s="137" customFormat="1" ht="36">
-      <c r="A64" s="178" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="128"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64" s="168" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" s="80"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J64" s="168"/>
-      <c r="K64" s="168"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="141"/>
-      <c r="N64" s="142"/>
-      <c r="O64" s="143"/>
-      <c r="P64" s="144"/>
-      <c r="Q64" s="142"/>
-      <c r="R64" s="145"/>
-    </row>
-    <row r="65" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A65" s="178" t="s">
-        <v>254</v>
-      </c>
-      <c r="B65" s="128"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="168" t="s">
-        <v>255</v>
-      </c>
-      <c r="F65" s="80"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I65" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J65" s="168"/>
-      <c r="K65" s="168"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="141"/>
-      <c r="N65" s="142"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="144"/>
-      <c r="Q65" s="142"/>
-      <c r="R65" s="145"/>
-    </row>
-    <row r="66" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A66" s="178" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="128"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="168" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66" s="80"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J66" s="168"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="141"/>
-      <c r="N66" s="142"/>
-      <c r="O66" s="143"/>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="142"/>
-      <c r="R66" s="145"/>
-    </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A67" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="35"/>
-    </row>
-    <row r="68" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A68" s="178" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" s="128"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="168" t="s">
-        <v>268</v>
-      </c>
-      <c r="F68" s="80"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I68" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J68" s="168"/>
-      <c r="K68" s="168"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="141"/>
-      <c r="N68" s="142"/>
-      <c r="O68" s="143"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="142"/>
-      <c r="R68" s="145"/>
-    </row>
-    <row r="69" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A69" s="178" t="s">
-        <v>269</v>
-      </c>
-      <c r="B69" s="128"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="168" t="s">
-        <v>270</v>
-      </c>
-      <c r="F69" s="80"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I69" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J69" s="168"/>
-      <c r="K69" s="168"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="142"/>
-      <c r="O69" s="143"/>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="142"/>
-      <c r="R69" s="145"/>
-    </row>
-    <row r="70" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A70" s="178" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" s="128"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="128"/>
-      <c r="E70" s="168" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="80"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I70" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J70" s="168"/>
-      <c r="K70" s="168"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="141"/>
-      <c r="N70" s="142"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="144"/>
-      <c r="Q70" s="142"/>
-      <c r="R70" s="145"/>
-    </row>
-    <row r="71" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A71" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="B71" s="128"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="168" t="s">
-        <v>274</v>
-      </c>
-      <c r="F71" s="80"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I71" s="207" t="s">
-        <v>266</v>
-      </c>
-      <c r="J71" s="168"/>
-      <c r="K71" s="168"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="141"/>
-      <c r="N71" s="142"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="144"/>
-      <c r="Q71" s="142"/>
-      <c r="R71" s="145"/>
-    </row>
-    <row r="72" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A72" s="178" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="128"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="E72" s="168" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="80"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I72" s="212" t="s">
-        <v>290</v>
-      </c>
-      <c r="J72" s="168"/>
-      <c r="K72" s="168"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="141"/>
-      <c r="N72" s="142"/>
-      <c r="O72" s="143"/>
-      <c r="P72" s="144"/>
-      <c r="Q72" s="142"/>
-      <c r="R72" s="145"/>
-    </row>
-    <row r="73" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A73" s="178" t="s">
-        <v>277</v>
-      </c>
-      <c r="B73" s="128"/>
-      <c r="C73" s="128"/>
-      <c r="D73" s="125" t="s">
-        <v>278</v>
-      </c>
-      <c r="E73" s="168" t="s">
-        <v>279</v>
-      </c>
-      <c r="F73" s="80"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I73" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J73" s="168"/>
-      <c r="K73" s="168"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="142"/>
-      <c r="O73" s="143"/>
-      <c r="P73" s="144"/>
-      <c r="Q73" s="142"/>
-      <c r="R73" s="145"/>
-    </row>
-    <row r="74" spans="1:18" s="137" customFormat="1">
-      <c r="A74" s="178" t="s">
-        <v>280</v>
-      </c>
-      <c r="B74" s="128"/>
-      <c r="C74" s="128"/>
-      <c r="D74" s="128"/>
-      <c r="E74" s="168" t="s">
-        <v>281</v>
-      </c>
-      <c r="F74" s="80"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I74" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J74" s="168"/>
-      <c r="K74" s="168"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="142"/>
-      <c r="O74" s="143"/>
-      <c r="P74" s="144"/>
-      <c r="Q74" s="142"/>
-      <c r="R74" s="145"/>
-    </row>
-    <row r="75" spans="1:18" s="137" customFormat="1">
-      <c r="A75" s="178" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="168" t="s">
-        <v>283</v>
-      </c>
-      <c r="F75" s="80"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I75" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J75" s="168"/>
-      <c r="K75" s="168"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="142"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="144"/>
-      <c r="Q75" s="142"/>
-      <c r="R75" s="145"/>
-    </row>
-    <row r="76" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A76" s="178" t="s">
-        <v>284</v>
-      </c>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="125" t="s">
-        <v>285</v>
-      </c>
-      <c r="E76" s="168" t="s">
-        <v>279</v>
-      </c>
-      <c r="F76" s="80"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I76" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J76" s="168"/>
-      <c r="K76" s="168"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="141"/>
-      <c r="N76" s="142"/>
-      <c r="O76" s="143"/>
-      <c r="P76" s="144"/>
-      <c r="Q76" s="142"/>
-      <c r="R76" s="145"/>
-    </row>
-    <row r="77" spans="1:18" s="137" customFormat="1">
-      <c r="A77" s="178" t="s">
-        <v>286</v>
-      </c>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="168" t="s">
-        <v>281</v>
-      </c>
-      <c r="F77" s="80"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I77" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="141"/>
-      <c r="N77" s="142"/>
-      <c r="O77" s="143"/>
-      <c r="P77" s="144"/>
-      <c r="Q77" s="142"/>
-      <c r="R77" s="145"/>
-    </row>
-    <row r="78" spans="1:18" s="137" customFormat="1">
-      <c r="A78" s="178" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" s="128"/>
-      <c r="C78" s="128"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="210" t="s">
-        <v>283</v>
-      </c>
-      <c r="F78" s="80"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I78" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J78" s="168"/>
-      <c r="K78" s="168"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="141"/>
-      <c r="N78" s="142"/>
-      <c r="O78" s="143"/>
-      <c r="P78" s="144"/>
-      <c r="Q78" s="142"/>
-      <c r="R78" s="145"/>
-    </row>
-    <row r="79" spans="1:18" s="137" customFormat="1" ht="24">
-      <c r="A79" s="178" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" s="128"/>
-      <c r="C79" s="128"/>
-      <c r="D79" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="E79" s="211"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="I79" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="J79" s="168"/>
-      <c r="K79" s="168"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="141"/>
-      <c r="N79" s="142"/>
-      <c r="O79" s="143"/>
-      <c r="P79" s="144"/>
-      <c r="Q79" s="142"/>
-      <c r="R79" s="145"/>
-    </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="22.5" hidden="1">
-      <c r="A80" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="I80" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="35"/>
-    </row>
-    <row r="81" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A81" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="B81" s="128"/>
-      <c r="C81" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="D81" s="213" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="214"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I81" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J81" s="168"/>
-      <c r="K81" s="168"/>
-      <c r="L81" s="140"/>
-      <c r="M81" s="141"/>
-      <c r="N81" s="142"/>
-      <c r="O81" s="143"/>
-      <c r="P81" s="144"/>
-      <c r="Q81" s="142"/>
-      <c r="R81" s="145"/>
-    </row>
-    <row r="82" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A82" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="B82" s="128"/>
-      <c r="C82" s="128"/>
-      <c r="D82" s="215" t="s">
-        <v>296</v>
-      </c>
-      <c r="E82" s="216" t="s">
-        <v>297</v>
-      </c>
-      <c r="F82" s="80"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I82" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J82" s="168"/>
-      <c r="K82" s="168"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="141"/>
-      <c r="N82" s="142"/>
-      <c r="O82" s="143"/>
-      <c r="P82" s="144"/>
-      <c r="Q82" s="142"/>
-      <c r="R82" s="145"/>
-    </row>
-    <row r="83" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A83" s="178" t="s">
-        <v>298</v>
-      </c>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="215"/>
-      <c r="E83" s="216" t="s">
-        <v>299</v>
-      </c>
-      <c r="F83" s="80"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I83" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168"/>
-      <c r="L83" s="140"/>
-      <c r="M83" s="141"/>
-      <c r="N83" s="142"/>
-      <c r="O83" s="143"/>
-      <c r="P83" s="144"/>
-      <c r="Q83" s="142"/>
-      <c r="R83" s="145"/>
-    </row>
-    <row r="84" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A84" s="178" t="s">
-        <v>300</v>
-      </c>
-      <c r="B84" s="128"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="215" t="s">
-        <v>301</v>
-      </c>
-      <c r="E84" s="217"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I84" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J84" s="168"/>
-      <c r="K84" s="168"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="141"/>
-      <c r="N84" s="142"/>
-      <c r="O84" s="143"/>
-      <c r="P84" s="144"/>
-      <c r="Q84" s="142"/>
-      <c r="R84" s="145"/>
-    </row>
-    <row r="85" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A85" s="178" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" s="128"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="215" t="s">
-        <v>303</v>
-      </c>
-      <c r="E85" s="217"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I85" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J85" s="168"/>
-      <c r="K85" s="168"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="141"/>
-      <c r="N85" s="142"/>
-      <c r="O85" s="143"/>
-      <c r="P85" s="144"/>
-      <c r="Q85" s="142"/>
-      <c r="R85" s="145"/>
-    </row>
-    <row r="86" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A86" s="178" t="s">
+      <c r="E93" s="208"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="128"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="215" t="s">
+      <c r="I93" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="E86" s="217"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I86" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J86" s="168"/>
-      <c r="K86" s="168"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="141"/>
-      <c r="N86" s="142"/>
-      <c r="O86" s="143"/>
-      <c r="P86" s="144"/>
-      <c r="Q86" s="142"/>
-      <c r="R86" s="145"/>
-    </row>
-    <row r="87" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A87" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="51"/>
-      <c r="F87" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="H87" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I87" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="35"/>
-    </row>
-    <row r="88" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A88" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="51"/>
-      <c r="F88" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G88" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="I88" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="35"/>
-    </row>
-    <row r="89" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A89" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E89" s="51"/>
-      <c r="F89" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="H89" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="I89" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="35"/>
-    </row>
-    <row r="90" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A90" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" s="51"/>
-      <c r="F90" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="G90" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="I90" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="35"/>
-    </row>
-    <row r="91" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A91" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E91" s="51"/>
-      <c r="F91" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="G91" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="H91" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I91" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="35"/>
-    </row>
-    <row r="92" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A92" s="178" t="s">
-        <v>308</v>
-      </c>
-      <c r="B92" s="128"/>
-      <c r="C92" s="128"/>
-      <c r="D92" s="215" t="s">
+      <c r="J93" s="160"/>
+      <c r="K93" s="160"/>
+      <c r="L93" s="136"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="138"/>
+      <c r="O93" s="139"/>
+      <c r="P93" s="137"/>
+      <c r="Q93" s="140"/>
+    </row>
+    <row r="94" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A94" s="170" t="s">
         <v>309</v>
       </c>
-      <c r="E92" s="217"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="81"/>
-      <c r="H92" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I92" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J92" s="168"/>
-      <c r="K92" s="168"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="141"/>
-      <c r="N92" s="142"/>
-      <c r="O92" s="143"/>
-      <c r="P92" s="144"/>
-      <c r="Q92" s="142"/>
-      <c r="R92" s="145"/>
-    </row>
-    <row r="93" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A93" s="178" t="s">
+      <c r="B94" s="125"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="206" t="s">
         <v>310</v>
       </c>
-      <c r="B93" s="128"/>
-      <c r="C93" s="128"/>
-      <c r="D93" s="215" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="217"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I93" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J93" s="168"/>
-      <c r="K93" s="168"/>
-      <c r="L93" s="140"/>
-      <c r="M93" s="141"/>
-      <c r="N93" s="142"/>
-      <c r="O93" s="143"/>
-      <c r="P93" s="144"/>
-      <c r="Q93" s="142"/>
-      <c r="R93" s="145"/>
-    </row>
-    <row r="94" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A94" s="178" t="s">
+      <c r="E94" s="208"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I94" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J94" s="160"/>
+      <c r="K94" s="160"/>
+      <c r="L94" s="136"/>
+      <c r="M94" s="137"/>
+      <c r="N94" s="138"/>
+      <c r="O94" s="139"/>
+      <c r="P94" s="137"/>
+      <c r="Q94" s="140"/>
+    </row>
+    <row r="95" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A95" s="170" t="s">
         <v>311</v>
       </c>
-      <c r="B94" s="128"/>
-      <c r="C94" s="128"/>
-      <c r="D94" s="215" t="s">
+      <c r="B95" s="125"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="206" t="s">
         <v>312</v>
       </c>
-      <c r="E94" s="217"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I94" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J94" s="168"/>
-      <c r="K94" s="168"/>
-      <c r="L94" s="140"/>
-      <c r="M94" s="141"/>
-      <c r="N94" s="142"/>
-      <c r="O94" s="143"/>
-      <c r="P94" s="144"/>
-      <c r="Q94" s="142"/>
-      <c r="R94" s="145"/>
-    </row>
-    <row r="95" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A95" s="178" t="s">
+      <c r="E95" s="208"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="209" t="s">
+        <v>304</v>
+      </c>
+      <c r="I95" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="J95" s="160"/>
+      <c r="K95" s="160"/>
+      <c r="L95" s="136"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="138"/>
+      <c r="O95" s="139"/>
+      <c r="P95" s="137"/>
+      <c r="Q95" s="140"/>
+    </row>
+    <row r="96" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A96" s="170" t="s">
         <v>313</v>
       </c>
-      <c r="B95" s="128"/>
-      <c r="C95" s="128"/>
-      <c r="D95" s="215" t="s">
+      <c r="B96" s="125"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="206" t="s">
         <v>314</v>
       </c>
-      <c r="E95" s="217"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="81"/>
-      <c r="H95" s="218" t="s">
-        <v>306</v>
-      </c>
-      <c r="I95" s="186" t="s">
-        <v>307</v>
-      </c>
-      <c r="J95" s="168"/>
-      <c r="K95" s="168"/>
-      <c r="L95" s="140"/>
-      <c r="M95" s="141"/>
-      <c r="N95" s="142"/>
-      <c r="O95" s="143"/>
-      <c r="P95" s="144"/>
-      <c r="Q95" s="142"/>
-      <c r="R95" s="145"/>
-    </row>
-    <row r="96" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A96" s="178" t="s">
+      <c r="E96" s="208"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I96" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J96" s="160"/>
+      <c r="K96" s="160"/>
+      <c r="L96" s="136"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="138"/>
+      <c r="O96" s="139"/>
+      <c r="P96" s="137"/>
+      <c r="Q96" s="140"/>
+    </row>
+    <row r="97" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A97" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" s="50"/>
+      <c r="F97" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="30"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="34"/>
+    </row>
+    <row r="98" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A98" s="170" t="s">
         <v>315</v>
       </c>
-      <c r="B96" s="128"/>
-      <c r="C96" s="128"/>
-      <c r="D96" s="215" t="s">
+      <c r="B98" s="125"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="210" t="s">
         <v>316</v>
       </c>
-      <c r="E96" s="217"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I96" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J96" s="168"/>
-      <c r="K96" s="168"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="141"/>
-      <c r="N96" s="142"/>
-      <c r="O96" s="143"/>
-      <c r="P96" s="144"/>
-      <c r="Q96" s="142"/>
-      <c r="R96" s="145"/>
-    </row>
-    <row r="97" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A97" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="51"/>
-      <c r="F97" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="G97" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="H97" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="I97" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="30"/>
-      <c r="O97" s="34"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="30"/>
-      <c r="R97" s="35"/>
-    </row>
-    <row r="98" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A98" s="178" t="s">
+      <c r="E98" s="211"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I98" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J98" s="160"/>
+      <c r="K98" s="160"/>
+      <c r="L98" s="136"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="138"/>
+      <c r="O98" s="139"/>
+      <c r="P98" s="137"/>
+      <c r="Q98" s="140"/>
+    </row>
+    <row r="99" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A99" s="170" t="s">
         <v>317</v>
       </c>
-      <c r="B98" s="128"/>
-      <c r="C98" s="128"/>
-      <c r="D98" s="219" t="s">
+      <c r="B99" s="125"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="210" t="s">
         <v>318</v>
       </c>
-      <c r="E98" s="220"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I98" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J98" s="168"/>
-      <c r="K98" s="168"/>
-      <c r="L98" s="140"/>
-      <c r="M98" s="141"/>
-      <c r="N98" s="142"/>
-      <c r="O98" s="143"/>
-      <c r="P98" s="144"/>
-      <c r="Q98" s="142"/>
-      <c r="R98" s="145"/>
-    </row>
-    <row r="99" spans="1:18" s="137" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A99" s="178" t="s">
+      <c r="E99" s="211"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I99" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="J99" s="160"/>
+      <c r="K99" s="160"/>
+      <c r="L99" s="136"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="138"/>
+      <c r="O99" s="139"/>
+      <c r="P99" s="137"/>
+      <c r="Q99" s="140"/>
+    </row>
+    <row r="100" spans="1:17" s="133" customFormat="1" ht="45" customHeight="1">
+      <c r="A100" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="128"/>
-      <c r="C99" s="128"/>
-      <c r="D99" s="219" t="s">
+      <c r="B100" s="125"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="213" t="s">
         <v>320</v>
       </c>
-      <c r="E99" s="220"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I99" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J99" s="168"/>
-      <c r="K99" s="168"/>
-      <c r="L99" s="140"/>
-      <c r="M99" s="141"/>
-      <c r="N99" s="142"/>
-      <c r="O99" s="143"/>
-      <c r="P99" s="144"/>
-      <c r="Q99" s="142"/>
-      <c r="R99" s="145"/>
-    </row>
-    <row r="100" spans="1:18" s="137" customFormat="1" ht="45" customHeight="1">
-      <c r="A100" s="221" t="s">
-        <v>321</v>
-      </c>
-      <c r="B100" s="128"/>
-      <c r="C100" s="128"/>
-      <c r="D100" s="222" t="s">
-        <v>322</v>
-      </c>
-      <c r="E100" s="223"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="81"/>
-      <c r="H100" s="224" t="s">
-        <v>306</v>
-      </c>
-      <c r="I100" s="225" t="s">
-        <v>307</v>
-      </c>
-      <c r="J100" s="226"/>
-      <c r="K100" s="226"/>
-      <c r="L100" s="227"/>
-      <c r="M100" s="228"/>
-      <c r="N100" s="229"/>
-      <c r="O100" s="230"/>
-      <c r="P100" s="231"/>
-      <c r="Q100" s="229"/>
-      <c r="R100" s="232"/>
-    </row>
-    <row r="101" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A101" s="63" t="s">
+      <c r="E100" s="214"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="215" t="s">
+        <v>304</v>
+      </c>
+      <c r="I100" s="216" t="s">
+        <v>305</v>
+      </c>
+      <c r="J100" s="217"/>
+      <c r="K100" s="217"/>
+      <c r="L100" s="218"/>
+      <c r="M100" s="219"/>
+      <c r="N100" s="220"/>
+      <c r="O100" s="221"/>
+      <c r="P100" s="219"/>
+      <c r="Q100" s="222"/>
+    </row>
+    <row r="101" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A101" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="59" t="s">
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E101" s="60"/>
-      <c r="F101" s="80" t="s">
+      <c r="E101" s="58"/>
+      <c r="F101" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="G101" s="81" t="s">
+      <c r="G101" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="H101" s="39" t="s">
+      <c r="H101" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="I101" s="39" t="s">
+      <c r="I101" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="J101" s="52"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="56"/>
-      <c r="O101" s="57"/>
-      <c r="P101" s="58"/>
-      <c r="Q101" s="56"/>
-      <c r="R101" s="64"/>
-    </row>
-    <row r="102" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
-      <c r="A102" s="65" t="s">
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="56"/>
+      <c r="P101" s="54"/>
+      <c r="Q101" s="62"/>
+    </row>
+    <row r="102" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
+      <c r="A102" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67" t="s">
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="E102" s="68"/>
-      <c r="F102" s="80" t="s">
+      <c r="E102" s="66"/>
+      <c r="F102" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G102" s="81" t="s">
+      <c r="G102" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="H102" s="89" t="s">
+      <c r="H102" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="I102" s="69" t="s">
+      <c r="I102" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="71"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="73"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="75"/>
+      <c r="J102" s="68"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="70"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="72"/>
+      <c r="P102" s="70"/>
       <c r="Q102" s="73"/>
-      <c r="R102" s="76"/>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="233"/>
-      <c r="B103" s="233"/>
-      <c r="C103" s="234"/>
-      <c r="D103" s="235"/>
-      <c r="E103" s="234"/>
-      <c r="H103" s="234"/>
-      <c r="I103" s="233"/>
-      <c r="J103" s="233"/>
-      <c r="K103" s="233"/>
-      <c r="L103" s="233"/>
-      <c r="M103" s="233"/>
-      <c r="N103" s="233"/>
-      <c r="O103" s="233"/>
-      <c r="P103" s="233"/>
-      <c r="Q103" s="233"/>
-      <c r="R103" s="233"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="C104" s="137"/>
-      <c r="D104" s="236"/>
-      <c r="E104" s="137"/>
-      <c r="H104" s="137"/>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="C105" s="137"/>
-      <c r="D105" s="236"/>
-      <c r="E105" s="137"/>
-      <c r="H105" s="137"/>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="C106" s="137"/>
-      <c r="D106" s="236"/>
-      <c r="E106" s="137"/>
-      <c r="H106" s="137"/>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="C107" s="137"/>
-      <c r="D107" s="236"/>
-      <c r="E107" s="137"/>
-      <c r="H107" s="137"/>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="C108" s="137"/>
-      <c r="D108" s="236"/>
-      <c r="E108" s="137"/>
-      <c r="H108" s="137"/>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="C109" s="137"/>
-      <c r="D109" s="236"/>
-      <c r="E109" s="137"/>
-      <c r="H109" s="137"/>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="C110" s="137"/>
-      <c r="D110" s="236"/>
-      <c r="E110" s="137"/>
-      <c r="H110" s="137"/>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="C111" s="137"/>
-      <c r="D111" s="236"/>
-      <c r="E111" s="137"/>
-      <c r="H111" s="137"/>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="C112" s="137"/>
-      <c r="D112" s="236"/>
-      <c r="E112" s="137"/>
-      <c r="H112" s="137"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="223"/>
+      <c r="B103" s="223"/>
+      <c r="C103" s="224"/>
+      <c r="D103" s="225"/>
+      <c r="E103" s="224"/>
+      <c r="H103" s="224"/>
+      <c r="I103" s="223"/>
+      <c r="J103" s="223"/>
+      <c r="K103" s="223"/>
+      <c r="L103" s="223"/>
+      <c r="M103" s="223"/>
+      <c r="N103" s="223"/>
+      <c r="O103" s="223"/>
+      <c r="P103" s="223"/>
+      <c r="Q103" s="223"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="C104" s="133"/>
+      <c r="D104" s="226"/>
+      <c r="E104" s="133"/>
+      <c r="H104" s="133"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="C105" s="133"/>
+      <c r="D105" s="226"/>
+      <c r="E105" s="133"/>
+      <c r="H105" s="133"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="C106" s="133"/>
+      <c r="D106" s="226"/>
+      <c r="E106" s="133"/>
+      <c r="H106" s="133"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="C107" s="133"/>
+      <c r="D107" s="226"/>
+      <c r="E107" s="133"/>
+      <c r="H107" s="133"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="C108" s="133"/>
+      <c r="D108" s="226"/>
+      <c r="E108" s="133"/>
+      <c r="H108" s="133"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="C109" s="133"/>
+      <c r="D109" s="226"/>
+      <c r="E109" s="133"/>
+      <c r="H109" s="133"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="C110" s="133"/>
+      <c r="D110" s="226"/>
+      <c r="E110" s="133"/>
+      <c r="H110" s="133"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="C111" s="133"/>
+      <c r="D111" s="226"/>
+      <c r="E111" s="133"/>
+      <c r="H111" s="133"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="C112" s="133"/>
+      <c r="D112" s="226"/>
+      <c r="E112" s="133"/>
+      <c r="H112" s="133"/>
     </row>
     <row r="113" spans="3:8">
-      <c r="C113" s="137"/>
-      <c r="D113" s="236"/>
-      <c r="E113" s="137"/>
-      <c r="H113" s="137"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="226"/>
+      <c r="E113" s="133"/>
+      <c r="H113" s="133"/>
     </row>
     <row r="114" spans="3:8">
-      <c r="C114" s="137"/>
-      <c r="D114" s="236"/>
-      <c r="E114" s="137"/>
-      <c r="H114" s="137"/>
+      <c r="C114" s="133"/>
+      <c r="D114" s="226"/>
+      <c r="E114" s="133"/>
+      <c r="H114" s="133"/>
     </row>
     <row r="115" spans="3:8">
-      <c r="C115" s="137"/>
-      <c r="D115" s="236"/>
-      <c r="E115" s="137"/>
-      <c r="H115" s="137"/>
+      <c r="C115" s="133"/>
+      <c r="D115" s="226"/>
+      <c r="E115" s="133"/>
+      <c r="H115" s="133"/>
     </row>
     <row r="116" spans="3:8">
-      <c r="C116" s="137"/>
-      <c r="D116" s="236"/>
-      <c r="E116" s="137"/>
-      <c r="H116" s="137"/>
+      <c r="C116" s="133"/>
+      <c r="D116" s="226"/>
+      <c r="E116" s="133"/>
+      <c r="H116" s="133"/>
     </row>
     <row r="117" spans="3:8">
-      <c r="C117" s="137"/>
-      <c r="D117" s="236"/>
-      <c r="E117" s="137"/>
-      <c r="H117" s="137"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="226"/>
+      <c r="E117" s="133"/>
+      <c r="H117" s="133"/>
     </row>
     <row r="118" spans="3:8">
-      <c r="C118" s="137"/>
-      <c r="D118" s="236"/>
-      <c r="E118" s="137"/>
-      <c r="H118" s="137"/>
+      <c r="C118" s="133"/>
+      <c r="D118" s="226"/>
+      <c r="E118" s="133"/>
+      <c r="H118" s="133"/>
     </row>
     <row r="119" spans="3:8">
-      <c r="C119" s="137"/>
-      <c r="D119" s="236"/>
-      <c r="E119" s="137"/>
-      <c r="H119" s="137"/>
+      <c r="C119" s="133"/>
+      <c r="D119" s="226"/>
+      <c r="E119" s="133"/>
+      <c r="H119" s="133"/>
     </row>
     <row r="120" spans="3:8">
-      <c r="C120" s="137"/>
-      <c r="D120" s="236"/>
-      <c r="E120" s="137"/>
-      <c r="H120" s="137"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="226"/>
+      <c r="E120" s="133"/>
+      <c r="H120" s="133"/>
     </row>
     <row r="121" spans="3:8">
-      <c r="C121" s="137"/>
-      <c r="D121" s="236"/>
-      <c r="E121" s="137"/>
-      <c r="H121" s="137"/>
+      <c r="C121" s="133"/>
+      <c r="D121" s="226"/>
+      <c r="E121" s="133"/>
+      <c r="H121" s="133"/>
     </row>
     <row r="122" spans="3:8">
-      <c r="C122" s="137"/>
-      <c r="D122" s="236"/>
-      <c r="E122" s="137"/>
-      <c r="H122" s="137"/>
+      <c r="C122" s="133"/>
+      <c r="D122" s="226"/>
+      <c r="E122" s="133"/>
+      <c r="H122" s="133"/>
     </row>
     <row r="123" spans="3:8">
-      <c r="C123" s="137"/>
-      <c r="D123" s="236"/>
-      <c r="E123" s="137"/>
-      <c r="H123" s="137"/>
+      <c r="C123" s="133"/>
+      <c r="D123" s="226"/>
+      <c r="E123" s="133"/>
+      <c r="H123" s="133"/>
     </row>
     <row r="124" spans="3:8">
-      <c r="C124" s="137"/>
-      <c r="D124" s="236"/>
-      <c r="E124" s="137"/>
-      <c r="H124" s="137"/>
+      <c r="C124" s="133"/>
+      <c r="D124" s="226"/>
+      <c r="E124" s="133"/>
+      <c r="H124" s="133"/>
     </row>
     <row r="125" spans="3:8">
-      <c r="C125" s="137"/>
-      <c r="D125" s="236"/>
-      <c r="E125" s="137"/>
-      <c r="H125" s="137"/>
+      <c r="C125" s="133"/>
+      <c r="D125" s="226"/>
+      <c r="E125" s="133"/>
+      <c r="H125" s="133"/>
     </row>
     <row r="126" spans="3:8">
-      <c r="C126" s="137"/>
-      <c r="D126" s="236"/>
-      <c r="E126" s="137"/>
-      <c r="H126" s="137"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="226"/>
+      <c r="E126" s="133"/>
+      <c r="H126" s="133"/>
     </row>
     <row r="127" spans="3:8">
-      <c r="C127" s="137"/>
-      <c r="D127" s="236"/>
-      <c r="E127" s="137"/>
-      <c r="H127" s="137"/>
+      <c r="C127" s="133"/>
+      <c r="D127" s="226"/>
+      <c r="E127" s="133"/>
+      <c r="H127" s="133"/>
     </row>
     <row r="128" spans="3:8">
-      <c r="C128" s="137"/>
-      <c r="D128" s="236"/>
-      <c r="E128" s="137"/>
-      <c r="H128" s="137"/>
+      <c r="C128" s="133"/>
+      <c r="D128" s="226"/>
+      <c r="E128" s="133"/>
+      <c r="H128" s="133"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:R102" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A10:Q102" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
@@ -9316,7 +9185,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;9&amp;"標準"- &amp;P -</oddFooter>
   </headerFooter>
@@ -9335,714 +9204,693 @@
   <sheetPr codeName="Sheet4" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="111" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="111" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="112" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="108" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="108" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="109" customWidth="1"/>
     <col min="6" max="6" width="6.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="60.625" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.625" style="111" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.625" style="111" customWidth="1"/>
-    <col min="10" max="11" width="30.625" style="111" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="111" customWidth="1"/>
-    <col min="13" max="16" width="8.625" style="111" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="111"/>
+    <col min="8" max="8" width="15.625" style="108" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.625" style="108" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="108" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="108" customWidth="1"/>
+    <col min="13" max="15" width="8.625" style="108" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="111" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="111" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="108" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="108" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="111" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="108" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="J6" s="111" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="108" t="s">
+        <v>338</v>
+      </c>
+      <c r="J6" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="108" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="111" t="s">
-        <v>344</v>
-      </c>
-      <c r="J7" s="111" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="111" t="s">
+      <c r="K7" s="108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12.75" thickBot="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+    <row r="8" spans="1:17" ht="12.75" thickBot="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-    </row>
-    <row r="9" spans="1:18" ht="12.75" thickTop="1">
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+    </row>
+    <row r="9" spans="1:17" ht="12.75" thickTop="1">
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:18" s="137" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="116" t="s">
+    <row r="10" spans="1:17" s="133" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="116" t="s">
+      <c r="I10" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="134" t="s">
+      <c r="J10" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="134" t="s">
+      <c r="K10" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="134" t="s">
+      <c r="L10" s="131" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="135" t="s">
+      <c r="N10" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="N10" s="134" t="s">
+      <c r="O10" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="O10" s="134" t="s">
+      <c r="P10" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="134" t="s">
+      <c r="Q10" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="137" customFormat="1" ht="60">
-      <c r="A11" s="237" t="s">
+    </row>
+    <row r="11" spans="1:17" s="133" customFormat="1" ht="60">
+      <c r="A11" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="228" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="228" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="202"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="228" t="s">
+        <v>334</v>
+      </c>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+    </row>
+    <row r="12" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A12" s="229" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="230"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="231" t="s">
         <v>348</v>
       </c>
-      <c r="C11" s="238" t="s">
+      <c r="E12" s="232"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="242"/>
+      <c r="O12" s="241"/>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="241"/>
+    </row>
+    <row r="13" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A13" s="229" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="230"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="232"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J13" s="239"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="241"/>
+      <c r="N13" s="242"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+    </row>
+    <row r="14" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A14" s="229" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="230"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="231" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="E14" s="232"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J14" s="239"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="241"/>
+      <c r="N14" s="242"/>
+      <c r="O14" s="241"/>
+      <c r="P14" s="241"/>
+      <c r="Q14" s="241"/>
+    </row>
+    <row r="15" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="229" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="230"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="233" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="234" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" s="239"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="241"/>
+      <c r="N15" s="242"/>
+      <c r="O15" s="241"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="241"/>
+    </row>
+    <row r="16" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A16" s="229" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="230"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="203" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" s="239"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="241"/>
+      <c r="N16" s="242"/>
+      <c r="O16" s="241"/>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="241"/>
+    </row>
+    <row r="17" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A17" s="229" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="230"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="234" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J17" s="239"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="241"/>
+      <c r="N17" s="242"/>
+      <c r="O17" s="241"/>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="241"/>
+    </row>
+    <row r="18" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A18" s="229" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="230"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="234" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18" s="239"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="240"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="242"/>
+      <c r="O18" s="241"/>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="241"/>
+    </row>
+    <row r="19" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A19" s="229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="230"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="234" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="203" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I19" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J19" s="239"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="241"/>
+      <c r="N19" s="242"/>
+      <c r="O19" s="241"/>
+      <c r="P19" s="241"/>
+      <c r="Q19" s="241"/>
+    </row>
+    <row r="20" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A20" s="229" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="230"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="117" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="203" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="211"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="238" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="I11" s="238" t="s">
-        <v>336</v>
-      </c>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="247"/>
-      <c r="N11" s="247"/>
-      <c r="O11" s="248"/>
-      <c r="P11" s="247"/>
-      <c r="Q11" s="247"/>
-      <c r="R11" s="247"/>
-    </row>
-    <row r="12" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A12" s="239" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="241" t="s">
+      <c r="J20" s="239"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="243"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="244"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244"/>
+    </row>
+    <row r="21" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A21" s="229" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="230"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="314" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="315"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="228" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21" s="239"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="243"/>
+      <c r="M21" s="244"/>
+      <c r="N21" s="245"/>
+      <c r="O21" s="244"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+    </row>
+    <row r="22" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A22" s="229" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="230"/>
+      <c r="C22" s="233" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="231" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="242"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="238" t="s">
+      <c r="E22" s="232"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="I12" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="251"/>
-      <c r="N12" s="251"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="251"/>
-      <c r="Q12" s="251"/>
-      <c r="R12" s="251"/>
-    </row>
-    <row r="13" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A13" s="239" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="241" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="242"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="238" t="s">
+      <c r="J22" s="239"/>
+      <c r="K22" s="239"/>
+      <c r="L22" s="240"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="242"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241"/>
+    </row>
+    <row r="23" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A23" s="229" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="231" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="232"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I23" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="I13" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="251"/>
-      <c r="Q13" s="251"/>
-      <c r="R13" s="251"/>
-    </row>
-    <row r="14" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A14" s="239" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="240"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="241" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" s="242"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I14" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J14" s="249"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="251"/>
-      <c r="N14" s="251"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="251"/>
-      <c r="Q14" s="251"/>
-      <c r="R14" s="251"/>
-    </row>
-    <row r="15" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="239" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="243" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15" s="244" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I15" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J15" s="249"/>
-      <c r="K15" s="249"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="251"/>
-      <c r="N15" s="251"/>
-      <c r="O15" s="252"/>
-      <c r="P15" s="251"/>
-      <c r="Q15" s="251"/>
-      <c r="R15" s="251"/>
-    </row>
-    <row r="16" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A16" s="239" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="212" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I16" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J16" s="249"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="251"/>
-      <c r="N16" s="251"/>
-      <c r="O16" s="252"/>
-      <c r="P16" s="251"/>
-      <c r="Q16" s="251"/>
-      <c r="R16" s="251"/>
-    </row>
-    <row r="17" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A17" s="239" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
-      <c r="E17" s="244" t="s">
-        <v>329</v>
-      </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I17" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J17" s="249"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="251"/>
-      <c r="N17" s="251"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="251"/>
-      <c r="Q17" s="251"/>
-      <c r="R17" s="251"/>
-    </row>
-    <row r="18" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A18" s="239" t="s">
-        <v>330</v>
-      </c>
-      <c r="B18" s="240"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="245"/>
-      <c r="E18" s="244" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I18" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J18" s="249"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="251"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="251"/>
-      <c r="Q18" s="251"/>
-      <c r="R18" s="251"/>
-    </row>
-    <row r="19" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A19" s="239" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="244" t="s">
-        <v>331</v>
-      </c>
-      <c r="E19" s="212" t="s">
-        <v>332</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I19" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J19" s="249"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="251"/>
-      <c r="N19" s="251"/>
-      <c r="O19" s="252"/>
-      <c r="P19" s="251"/>
-      <c r="Q19" s="251"/>
-      <c r="R19" s="251"/>
-    </row>
-    <row r="20" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A20" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="240"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="120" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="212" t="s">
-        <v>347</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I20" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J20" s="249"/>
-      <c r="K20" s="249"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="254"/>
-      <c r="N20" s="254"/>
-      <c r="O20" s="255"/>
-      <c r="P20" s="254"/>
-      <c r="Q20" s="254"/>
-      <c r="R20" s="254"/>
-    </row>
-    <row r="21" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A21" s="239" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="240"/>
-      <c r="C21" s="240"/>
-      <c r="D21" s="324" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="325"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I21" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J21" s="249"/>
-      <c r="K21" s="249"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="254"/>
-      <c r="N21" s="254"/>
-      <c r="O21" s="255"/>
-      <c r="P21" s="254"/>
-      <c r="Q21" s="254"/>
-      <c r="R21" s="254"/>
-    </row>
-    <row r="22" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A22" s="239" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="240"/>
-      <c r="C22" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="241" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="242"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I22" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J22" s="249"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="250"/>
-      <c r="M22" s="251"/>
-      <c r="N22" s="251"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="251"/>
-      <c r="Q22" s="251"/>
-      <c r="R22" s="251"/>
-    </row>
-    <row r="23" spans="1:18" s="137" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A23" s="239" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="245"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="241" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="242"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="238" t="s">
-        <v>335</v>
-      </c>
-      <c r="I23" s="238" t="s">
-        <v>337</v>
-      </c>
-      <c r="J23" s="249"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="251"/>
-      <c r="O23" s="252"/>
-      <c r="P23" s="251"/>
-      <c r="Q23" s="251"/>
-      <c r="R23" s="251"/>
-    </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" ht="38.25" hidden="1" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="J23" s="239"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+    </row>
+    <row r="24" spans="1:17" s="29" customFormat="1" ht="38.25" hidden="1" customHeight="1">
+      <c r="A24" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="90" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" ht="38.25" hidden="1" customHeight="1">
-      <c r="A25" s="105" t="s">
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+    </row>
+    <row r="25" spans="1:17" s="29" customFormat="1" ht="38.25" hidden="1" customHeight="1">
+      <c r="A25" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="106" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="90" t="s">
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="90" t="s">
+      <c r="G25" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="110" t="s">
+      <c r="H25" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="110" t="s">
+      <c r="I25" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-    </row>
-    <row r="26" spans="1:18" s="137" customFormat="1">
-      <c r="A26" s="256"/>
-      <c r="B26" s="257"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="258"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+    </row>
+    <row r="26" spans="1:17" s="133" customFormat="1">
+      <c r="A26" s="246"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="248"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="257"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="257"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="257"/>
-      <c r="N26" s="257"/>
-      <c r="O26" s="257"/>
-      <c r="P26" s="257"/>
-      <c r="Q26" s="257"/>
-      <c r="R26" s="257"/>
-    </row>
-    <row r="27" spans="1:18" s="137" customFormat="1">
-      <c r="A27" s="259"/>
-      <c r="B27" s="259"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="247"/>
+    </row>
+    <row r="27" spans="1:17" s="133" customFormat="1">
+      <c r="A27" s="249"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="259"/>
-      <c r="K27" s="259"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="259"/>
-      <c r="N27" s="259"/>
-      <c r="O27" s="259"/>
-      <c r="P27" s="259"/>
-      <c r="Q27" s="259"/>
-      <c r="R27" s="259"/>
-    </row>
-    <row r="28" spans="1:18" s="137" customFormat="1">
-      <c r="D28" s="236"/>
-      <c r="E28" s="236"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="249"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="249"/>
+      <c r="P27" s="249"/>
+      <c r="Q27" s="249"/>
+    </row>
+    <row r="28" spans="1:17" s="133" customFormat="1">
+      <c r="D28" s="226"/>
+      <c r="E28" s="226"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:18" s="137" customFormat="1">
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
+    <row r="29" spans="1:17" s="133" customFormat="1">
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:18" s="137" customFormat="1">
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
+    <row r="30" spans="1:17" s="133" customFormat="1">
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:18" s="137" customFormat="1">
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
+    <row r="31" spans="1:17" s="133" customFormat="1">
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:18" s="137" customFormat="1">
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
+    <row r="32" spans="1:17" s="133" customFormat="1">
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="4:7" s="137" customFormat="1">
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
+    <row r="33" spans="4:7" s="133" customFormat="1">
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="4:7" s="137" customFormat="1">
-      <c r="D34" s="236"/>
-      <c r="E34" s="236"/>
+    <row r="34" spans="4:7" s="133" customFormat="1">
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="4:7" s="137" customFormat="1">
-      <c r="D35" s="236"/>
-      <c r="E35" s="236"/>
+    <row r="35" spans="4:7" s="133" customFormat="1">
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="4:7" s="137" customFormat="1">
-      <c r="D36" s="236"/>
-      <c r="E36" s="236"/>
+    <row r="36" spans="4:7" s="133" customFormat="1">
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="4:7" s="137" customFormat="1">
-      <c r="D37" s="236"/>
-      <c r="E37" s="236"/>
+    <row r="37" spans="4:7" s="133" customFormat="1">
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="4:7" s="137" customFormat="1">
-      <c r="D38" s="236"/>
-      <c r="E38" s="236"/>
+    <row r="38" spans="4:7" s="133" customFormat="1">
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="4:7" s="137" customFormat="1">
-      <c r="D39" s="236"/>
-      <c r="E39" s="236"/>
+    <row r="39" spans="4:7" s="133" customFormat="1">
+      <c r="D39" s="226"/>
+      <c r="E39" s="226"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="4:7" s="137" customFormat="1">
-      <c r="D40" s="236"/>
-      <c r="E40" s="236"/>
+    <row r="40" spans="4:7" s="133" customFormat="1">
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="4:7" s="137" customFormat="1">
-      <c r="D41" s="236"/>
-      <c r="E41" s="236"/>
+    <row r="41" spans="4:7" s="133" customFormat="1">
+      <c r="D41" s="226"/>
+      <c r="E41" s="226"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:R25" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A10:Q25" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
@@ -10053,7 +9901,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;9&amp;"標準"- &amp;P -</oddFooter>
   </headerFooter>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(screen)_(Subfunction_ID)_(Subfunction_Name).xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(screen)_(Subfunction_ID)_(Subfunction_Name).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FFC16-5C9A-4159-8FD4-E5657E887B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B4D55-1D1D-48EE-8A12-7E6703106621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8505" windowWidth="38400" windowHeight="10575" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -24,12 +24,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Subfunction unit 2'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -104,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="362">
   <si>
     <t>対象外</t>
   </si>
@@ -1240,6 +1242,11 @@
   </si>
   <si>
     <t>scenario ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1) System function design document
+(2) Message design document</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2547,7 +2554,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -2846,15 +2853,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2899,15 +2897,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3260,6 +3249,27 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4337,12 +4347,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="251" t="str">
+      <c r="I25" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="251"/>
-      <c r="K25" s="251"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="252"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -4901,55 +4911,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="267" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="269"/>
-      <c r="S1" s="276" t="s">
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="277" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="277"/>
-      <c r="U1" s="277"/>
-      <c r="V1" s="277"/>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
-      <c r="Y1" s="277"/>
-      <c r="Z1" s="278"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="278"/>
+      <c r="U1" s="278"/>
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="278"/>
+      <c r="Z1" s="279"/>
+      <c r="AA1" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="285" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="286" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="286"/>
-      <c r="AE1" s="286"/>
-      <c r="AF1" s="287"/>
-      <c r="AG1" s="252" t="str">
+      <c r="AD1" s="287"/>
+      <c r="AE1" s="287"/>
+      <c r="AF1" s="288"/>
+      <c r="AG1" s="253" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -4957,51 +4967,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
-      <c r="U2" s="280"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Y2" s="280"/>
-      <c r="Z2" s="281"/>
-      <c r="AA2" s="258" t="s">
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="272"/>
+      <c r="Q2" s="272"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="280"/>
+      <c r="T2" s="281"/>
+      <c r="U2" s="281"/>
+      <c r="V2" s="281"/>
+      <c r="W2" s="281"/>
+      <c r="X2" s="281"/>
+      <c r="Y2" s="281"/>
+      <c r="Z2" s="282"/>
+      <c r="AA2" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="264" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="265" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="265"/>
-      <c r="AE2" s="265"/>
-      <c r="AF2" s="266"/>
-      <c r="AG2" s="252" t="str">
+      <c r="AD2" s="266"/>
+      <c r="AE2" s="266"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="253" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="254"/>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5009,43 +5019,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="274"/>
-      <c r="Q3" s="274"/>
-      <c r="R3" s="275"/>
-      <c r="S3" s="282"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="283"/>
-      <c r="V3" s="283"/>
-      <c r="W3" s="283"/>
-      <c r="X3" s="283"/>
-      <c r="Y3" s="283"/>
-      <c r="Z3" s="284"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="285"/>
-      <c r="AD3" s="286"/>
-      <c r="AE3" s="286"/>
-      <c r="AF3" s="287"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="274"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="275"/>
+      <c r="R3" s="276"/>
+      <c r="S3" s="283"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
+      <c r="W3" s="284"/>
+      <c r="X3" s="284"/>
+      <c r="Y3" s="284"/>
+      <c r="Z3" s="285"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="286"/>
+      <c r="AD3" s="287"/>
+      <c r="AE3" s="287"/>
+      <c r="AF3" s="288"/>
+      <c r="AG3" s="253"/>
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5082,1014 +5092,1014 @@
       <c r="A7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="256"/>
-      <c r="D7" s="255" t="s">
+      <c r="C7" s="257"/>
+      <c r="D7" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="257"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="255" t="s">
+      <c r="E7" s="258"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="257"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="255" t="s">
+      <c r="H7" s="258"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="257"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="257"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="257"/>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="255" t="s">
+      <c r="K7" s="258"/>
+      <c r="L7" s="258"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="258"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="257"/>
-      <c r="S7" s="257"/>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="257"/>
-      <c r="AB7" s="257"/>
-      <c r="AC7" s="257"/>
-      <c r="AD7" s="257"/>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="255" t="s">
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="258"/>
+      <c r="V7" s="258"/>
+      <c r="W7" s="258"/>
+      <c r="X7" s="258"/>
+      <c r="Y7" s="258"/>
+      <c r="Z7" s="258"/>
+      <c r="AA7" s="258"/>
+      <c r="AB7" s="258"/>
+      <c r="AC7" s="258"/>
+      <c r="AD7" s="258"/>
+      <c r="AE7" s="257"/>
+      <c r="AF7" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="AG7" s="257"/>
-      <c r="AH7" s="257"/>
-      <c r="AI7" s="256"/>
+      <c r="AG7" s="258"/>
+      <c r="AH7" s="258"/>
+      <c r="AI7" s="257"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="304"/>
-      <c r="G8" s="305"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="308"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="309"/>
-      <c r="Q8" s="310"/>
-      <c r="R8" s="311"/>
-      <c r="S8" s="311"/>
-      <c r="T8" s="311"/>
-      <c r="U8" s="311"/>
-      <c r="V8" s="311"/>
-      <c r="W8" s="311"/>
-      <c r="X8" s="311"/>
-      <c r="Y8" s="311"/>
-      <c r="Z8" s="311"/>
-      <c r="AA8" s="311"/>
-      <c r="AB8" s="311"/>
-      <c r="AC8" s="311"/>
-      <c r="AD8" s="311"/>
-      <c r="AE8" s="312"/>
-      <c r="AF8" s="307"/>
-      <c r="AG8" s="308"/>
-      <c r="AH8" s="308"/>
-      <c r="AI8" s="309"/>
+      <c r="B8" s="301"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="307"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="308"/>
+      <c r="K8" s="309"/>
+      <c r="L8" s="309"/>
+      <c r="M8" s="309"/>
+      <c r="N8" s="309"/>
+      <c r="O8" s="309"/>
+      <c r="P8" s="310"/>
+      <c r="Q8" s="311"/>
+      <c r="R8" s="312"/>
+      <c r="S8" s="312"/>
+      <c r="T8" s="312"/>
+      <c r="U8" s="312"/>
+      <c r="V8" s="312"/>
+      <c r="W8" s="312"/>
+      <c r="X8" s="312"/>
+      <c r="Y8" s="312"/>
+      <c r="Z8" s="312"/>
+      <c r="AA8" s="312"/>
+      <c r="AB8" s="312"/>
+      <c r="AC8" s="312"/>
+      <c r="AD8" s="312"/>
+      <c r="AE8" s="313"/>
+      <c r="AF8" s="308"/>
+      <c r="AG8" s="309"/>
+      <c r="AH8" s="309"/>
+      <c r="AI8" s="310"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="288"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="295"/>
-      <c r="N9" s="295"/>
-      <c r="O9" s="295"/>
-      <c r="P9" s="296"/>
-      <c r="Q9" s="297"/>
-      <c r="R9" s="298"/>
-      <c r="S9" s="298"/>
-      <c r="T9" s="298"/>
-      <c r="U9" s="298"/>
-      <c r="V9" s="298"/>
-      <c r="W9" s="298"/>
-      <c r="X9" s="298"/>
-      <c r="Y9" s="298"/>
-      <c r="Z9" s="298"/>
-      <c r="AA9" s="298"/>
-      <c r="AB9" s="298"/>
-      <c r="AC9" s="298"/>
-      <c r="AD9" s="298"/>
-      <c r="AE9" s="299"/>
-      <c r="AF9" s="294"/>
-      <c r="AG9" s="295"/>
-      <c r="AH9" s="295"/>
-      <c r="AI9" s="296"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="298"/>
+      <c r="R9" s="299"/>
+      <c r="S9" s="299"/>
+      <c r="T9" s="299"/>
+      <c r="U9" s="299"/>
+      <c r="V9" s="299"/>
+      <c r="W9" s="299"/>
+      <c r="X9" s="299"/>
+      <c r="Y9" s="299"/>
+      <c r="Z9" s="299"/>
+      <c r="AA9" s="299"/>
+      <c r="AB9" s="299"/>
+      <c r="AC9" s="299"/>
+      <c r="AD9" s="299"/>
+      <c r="AE9" s="300"/>
+      <c r="AF9" s="295"/>
+      <c r="AG9" s="296"/>
+      <c r="AH9" s="296"/>
+      <c r="AI9" s="297"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="288"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="296"/>
-      <c r="Q10" s="297"/>
-      <c r="R10" s="298"/>
-      <c r="S10" s="298"/>
-      <c r="T10" s="298"/>
-      <c r="U10" s="298"/>
-      <c r="V10" s="298"/>
-      <c r="W10" s="298"/>
-      <c r="X10" s="298"/>
-      <c r="Y10" s="298"/>
-      <c r="Z10" s="298"/>
-      <c r="AA10" s="298"/>
-      <c r="AB10" s="298"/>
-      <c r="AC10" s="298"/>
-      <c r="AD10" s="298"/>
-      <c r="AE10" s="299"/>
-      <c r="AF10" s="294"/>
-      <c r="AG10" s="295"/>
-      <c r="AH10" s="295"/>
-      <c r="AI10" s="296"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="295"/>
+      <c r="K10" s="296"/>
+      <c r="L10" s="296"/>
+      <c r="M10" s="296"/>
+      <c r="N10" s="296"/>
+      <c r="O10" s="296"/>
+      <c r="P10" s="297"/>
+      <c r="Q10" s="298"/>
+      <c r="R10" s="299"/>
+      <c r="S10" s="299"/>
+      <c r="T10" s="299"/>
+      <c r="U10" s="299"/>
+      <c r="V10" s="299"/>
+      <c r="W10" s="299"/>
+      <c r="X10" s="299"/>
+      <c r="Y10" s="299"/>
+      <c r="Z10" s="299"/>
+      <c r="AA10" s="299"/>
+      <c r="AB10" s="299"/>
+      <c r="AC10" s="299"/>
+      <c r="AD10" s="299"/>
+      <c r="AE10" s="300"/>
+      <c r="AF10" s="295"/>
+      <c r="AG10" s="296"/>
+      <c r="AH10" s="296"/>
+      <c r="AI10" s="297"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="288"/>
-      <c r="C11" s="289"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="291"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="294"/>
-      <c r="K11" s="295"/>
-      <c r="L11" s="295"/>
-      <c r="M11" s="295"/>
-      <c r="N11" s="295"/>
-      <c r="O11" s="295"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="297"/>
-      <c r="R11" s="298"/>
-      <c r="S11" s="298"/>
-      <c r="T11" s="298"/>
-      <c r="U11" s="298"/>
-      <c r="V11" s="298"/>
-      <c r="W11" s="298"/>
-      <c r="X11" s="298"/>
-      <c r="Y11" s="298"/>
-      <c r="Z11" s="298"/>
-      <c r="AA11" s="298"/>
-      <c r="AB11" s="298"/>
-      <c r="AC11" s="298"/>
-      <c r="AD11" s="298"/>
-      <c r="AE11" s="299"/>
-      <c r="AF11" s="294"/>
-      <c r="AG11" s="295"/>
-      <c r="AH11" s="295"/>
-      <c r="AI11" s="296"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="291"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="289"/>
+      <c r="H11" s="294"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="295"/>
+      <c r="K11" s="296"/>
+      <c r="L11" s="296"/>
+      <c r="M11" s="296"/>
+      <c r="N11" s="296"/>
+      <c r="O11" s="296"/>
+      <c r="P11" s="297"/>
+      <c r="Q11" s="298"/>
+      <c r="R11" s="299"/>
+      <c r="S11" s="299"/>
+      <c r="T11" s="299"/>
+      <c r="U11" s="299"/>
+      <c r="V11" s="299"/>
+      <c r="W11" s="299"/>
+      <c r="X11" s="299"/>
+      <c r="Y11" s="299"/>
+      <c r="Z11" s="299"/>
+      <c r="AA11" s="299"/>
+      <c r="AB11" s="299"/>
+      <c r="AC11" s="299"/>
+      <c r="AD11" s="299"/>
+      <c r="AE11" s="300"/>
+      <c r="AF11" s="295"/>
+      <c r="AG11" s="296"/>
+      <c r="AH11" s="296"/>
+      <c r="AI11" s="297"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="288"/>
-      <c r="C12" s="289"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="293"/>
-      <c r="I12" s="289"/>
-      <c r="J12" s="294"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="295"/>
-      <c r="N12" s="295"/>
-      <c r="O12" s="295"/>
-      <c r="P12" s="296"/>
-      <c r="Q12" s="297"/>
-      <c r="R12" s="298"/>
-      <c r="S12" s="298"/>
-      <c r="T12" s="298"/>
-      <c r="U12" s="298"/>
-      <c r="V12" s="298"/>
-      <c r="W12" s="298"/>
-      <c r="X12" s="298"/>
-      <c r="Y12" s="298"/>
-      <c r="Z12" s="298"/>
-      <c r="AA12" s="298"/>
-      <c r="AB12" s="298"/>
-      <c r="AC12" s="298"/>
-      <c r="AD12" s="298"/>
-      <c r="AE12" s="299"/>
-      <c r="AF12" s="294"/>
-      <c r="AG12" s="295"/>
-      <c r="AH12" s="295"/>
-      <c r="AI12" s="296"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="291"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="289"/>
+      <c r="H12" s="294"/>
+      <c r="I12" s="290"/>
+      <c r="J12" s="295"/>
+      <c r="K12" s="296"/>
+      <c r="L12" s="296"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="296"/>
+      <c r="O12" s="296"/>
+      <c r="P12" s="297"/>
+      <c r="Q12" s="298"/>
+      <c r="R12" s="299"/>
+      <c r="S12" s="299"/>
+      <c r="T12" s="299"/>
+      <c r="U12" s="299"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="299"/>
+      <c r="X12" s="299"/>
+      <c r="Y12" s="299"/>
+      <c r="Z12" s="299"/>
+      <c r="AA12" s="299"/>
+      <c r="AB12" s="299"/>
+      <c r="AC12" s="299"/>
+      <c r="AD12" s="299"/>
+      <c r="AE12" s="300"/>
+      <c r="AF12" s="295"/>
+      <c r="AG12" s="296"/>
+      <c r="AH12" s="296"/>
+      <c r="AI12" s="297"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="288"/>
-      <c r="C13" s="289"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="289"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="295"/>
-      <c r="M13" s="295"/>
-      <c r="N13" s="295"/>
-      <c r="O13" s="295"/>
-      <c r="P13" s="296"/>
-      <c r="Q13" s="297"/>
-      <c r="R13" s="298"/>
-      <c r="S13" s="298"/>
-      <c r="T13" s="298"/>
-      <c r="U13" s="298"/>
-      <c r="V13" s="298"/>
-      <c r="W13" s="298"/>
-      <c r="X13" s="298"/>
-      <c r="Y13" s="298"/>
-      <c r="Z13" s="298"/>
-      <c r="AA13" s="298"/>
-      <c r="AB13" s="298"/>
-      <c r="AC13" s="298"/>
-      <c r="AD13" s="298"/>
-      <c r="AE13" s="299"/>
-      <c r="AF13" s="294"/>
-      <c r="AG13" s="295"/>
-      <c r="AH13" s="295"/>
-      <c r="AI13" s="296"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="291"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="290"/>
+      <c r="J13" s="295"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="296"/>
+      <c r="M13" s="296"/>
+      <c r="N13" s="296"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="297"/>
+      <c r="Q13" s="298"/>
+      <c r="R13" s="299"/>
+      <c r="S13" s="299"/>
+      <c r="T13" s="299"/>
+      <c r="U13" s="299"/>
+      <c r="V13" s="299"/>
+      <c r="W13" s="299"/>
+      <c r="X13" s="299"/>
+      <c r="Y13" s="299"/>
+      <c r="Z13" s="299"/>
+      <c r="AA13" s="299"/>
+      <c r="AB13" s="299"/>
+      <c r="AC13" s="299"/>
+      <c r="AD13" s="299"/>
+      <c r="AE13" s="300"/>
+      <c r="AF13" s="295"/>
+      <c r="AG13" s="296"/>
+      <c r="AH13" s="296"/>
+      <c r="AI13" s="297"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="288"/>
-      <c r="C14" s="289"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="292"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="293"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="294"/>
-      <c r="K14" s="295"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="295"/>
-      <c r="P14" s="296"/>
-      <c r="Q14" s="297"/>
-      <c r="R14" s="298"/>
-      <c r="S14" s="298"/>
-      <c r="T14" s="298"/>
-      <c r="U14" s="298"/>
-      <c r="V14" s="298"/>
-      <c r="W14" s="298"/>
-      <c r="X14" s="298"/>
-      <c r="Y14" s="298"/>
-      <c r="Z14" s="298"/>
-      <c r="AA14" s="298"/>
-      <c r="AB14" s="298"/>
-      <c r="AC14" s="298"/>
-      <c r="AD14" s="298"/>
-      <c r="AE14" s="299"/>
-      <c r="AF14" s="294"/>
-      <c r="AG14" s="295"/>
-      <c r="AH14" s="295"/>
-      <c r="AI14" s="296"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="291"/>
+      <c r="E14" s="292"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="294"/>
+      <c r="I14" s="290"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="296"/>
+      <c r="N14" s="296"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="297"/>
+      <c r="Q14" s="298"/>
+      <c r="R14" s="299"/>
+      <c r="S14" s="299"/>
+      <c r="T14" s="299"/>
+      <c r="U14" s="299"/>
+      <c r="V14" s="299"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
+      <c r="Y14" s="299"/>
+      <c r="Z14" s="299"/>
+      <c r="AA14" s="299"/>
+      <c r="AB14" s="299"/>
+      <c r="AC14" s="299"/>
+      <c r="AD14" s="299"/>
+      <c r="AE14" s="300"/>
+      <c r="AF14" s="295"/>
+      <c r="AG14" s="296"/>
+      <c r="AH14" s="296"/>
+      <c r="AI14" s="297"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="288"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="291"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="293"/>
-      <c r="I15" s="289"/>
-      <c r="J15" s="294"/>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
-      <c r="M15" s="295"/>
-      <c r="N15" s="295"/>
-      <c r="O15" s="295"/>
-      <c r="P15" s="296"/>
-      <c r="Q15" s="297"/>
-      <c r="R15" s="298"/>
-      <c r="S15" s="298"/>
-      <c r="T15" s="298"/>
-      <c r="U15" s="298"/>
-      <c r="V15" s="298"/>
-      <c r="W15" s="298"/>
-      <c r="X15" s="298"/>
-      <c r="Y15" s="298"/>
-      <c r="Z15" s="298"/>
-      <c r="AA15" s="298"/>
-      <c r="AB15" s="298"/>
-      <c r="AC15" s="298"/>
-      <c r="AD15" s="298"/>
-      <c r="AE15" s="299"/>
-      <c r="AF15" s="294"/>
-      <c r="AG15" s="295"/>
-      <c r="AH15" s="295"/>
-      <c r="AI15" s="296"/>
+      <c r="B15" s="289"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="291"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="295"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="296"/>
+      <c r="N15" s="296"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="297"/>
+      <c r="Q15" s="298"/>
+      <c r="R15" s="299"/>
+      <c r="S15" s="299"/>
+      <c r="T15" s="299"/>
+      <c r="U15" s="299"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="299"/>
+      <c r="X15" s="299"/>
+      <c r="Y15" s="299"/>
+      <c r="Z15" s="299"/>
+      <c r="AA15" s="299"/>
+      <c r="AB15" s="299"/>
+      <c r="AC15" s="299"/>
+      <c r="AD15" s="299"/>
+      <c r="AE15" s="300"/>
+      <c r="AF15" s="295"/>
+      <c r="AG15" s="296"/>
+      <c r="AH15" s="296"/>
+      <c r="AI15" s="297"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="288"/>
-      <c r="C16" s="289"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="291"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="293"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="294"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
-      <c r="M16" s="295"/>
-      <c r="N16" s="295"/>
-      <c r="O16" s="295"/>
-      <c r="P16" s="296"/>
-      <c r="Q16" s="297"/>
-      <c r="R16" s="298"/>
-      <c r="S16" s="298"/>
-      <c r="T16" s="298"/>
-      <c r="U16" s="298"/>
-      <c r="V16" s="298"/>
-      <c r="W16" s="298"/>
-      <c r="X16" s="298"/>
-      <c r="Y16" s="298"/>
-      <c r="Z16" s="298"/>
-      <c r="AA16" s="298"/>
-      <c r="AB16" s="298"/>
-      <c r="AC16" s="298"/>
-      <c r="AD16" s="298"/>
-      <c r="AE16" s="299"/>
-      <c r="AF16" s="294"/>
-      <c r="AG16" s="295"/>
-      <c r="AH16" s="295"/>
-      <c r="AI16" s="296"/>
+      <c r="B16" s="289"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="295"/>
+      <c r="K16" s="296"/>
+      <c r="L16" s="296"/>
+      <c r="M16" s="296"/>
+      <c r="N16" s="296"/>
+      <c r="O16" s="296"/>
+      <c r="P16" s="297"/>
+      <c r="Q16" s="298"/>
+      <c r="R16" s="299"/>
+      <c r="S16" s="299"/>
+      <c r="T16" s="299"/>
+      <c r="U16" s="299"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="299"/>
+      <c r="X16" s="299"/>
+      <c r="Y16" s="299"/>
+      <c r="Z16" s="299"/>
+      <c r="AA16" s="299"/>
+      <c r="AB16" s="299"/>
+      <c r="AC16" s="299"/>
+      <c r="AD16" s="299"/>
+      <c r="AE16" s="300"/>
+      <c r="AF16" s="295"/>
+      <c r="AG16" s="296"/>
+      <c r="AH16" s="296"/>
+      <c r="AI16" s="297"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="288"/>
-      <c r="C17" s="289"/>
-      <c r="D17" s="290"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="288"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="289"/>
-      <c r="J17" s="294"/>
-      <c r="K17" s="295"/>
-      <c r="L17" s="295"/>
-      <c r="M17" s="295"/>
-      <c r="N17" s="295"/>
-      <c r="O17" s="295"/>
-      <c r="P17" s="296"/>
-      <c r="Q17" s="297"/>
-      <c r="R17" s="298"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="298"/>
-      <c r="U17" s="298"/>
-      <c r="V17" s="298"/>
-      <c r="W17" s="298"/>
-      <c r="X17" s="298"/>
-      <c r="Y17" s="298"/>
-      <c r="Z17" s="298"/>
-      <c r="AA17" s="298"/>
-      <c r="AB17" s="298"/>
-      <c r="AC17" s="298"/>
-      <c r="AD17" s="298"/>
-      <c r="AE17" s="299"/>
-      <c r="AF17" s="294"/>
-      <c r="AG17" s="295"/>
-      <c r="AH17" s="295"/>
-      <c r="AI17" s="296"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="291"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="289"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="295"/>
+      <c r="K17" s="296"/>
+      <c r="L17" s="296"/>
+      <c r="M17" s="296"/>
+      <c r="N17" s="296"/>
+      <c r="O17" s="296"/>
+      <c r="P17" s="297"/>
+      <c r="Q17" s="298"/>
+      <c r="R17" s="299"/>
+      <c r="S17" s="299"/>
+      <c r="T17" s="299"/>
+      <c r="U17" s="299"/>
+      <c r="V17" s="299"/>
+      <c r="W17" s="299"/>
+      <c r="X17" s="299"/>
+      <c r="Y17" s="299"/>
+      <c r="Z17" s="299"/>
+      <c r="AA17" s="299"/>
+      <c r="AB17" s="299"/>
+      <c r="AC17" s="299"/>
+      <c r="AD17" s="299"/>
+      <c r="AE17" s="300"/>
+      <c r="AF17" s="295"/>
+      <c r="AG17" s="296"/>
+      <c r="AH17" s="296"/>
+      <c r="AI17" s="297"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="288"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="293"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="294"/>
-      <c r="K18" s="295"/>
-      <c r="L18" s="295"/>
-      <c r="M18" s="295"/>
-      <c r="N18" s="295"/>
-      <c r="O18" s="295"/>
-      <c r="P18" s="296"/>
-      <c r="Q18" s="297"/>
-      <c r="R18" s="298"/>
-      <c r="S18" s="298"/>
-      <c r="T18" s="298"/>
-      <c r="U18" s="298"/>
-      <c r="V18" s="298"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="298"/>
-      <c r="Y18" s="298"/>
-      <c r="Z18" s="298"/>
-      <c r="AA18" s="298"/>
-      <c r="AB18" s="298"/>
-      <c r="AC18" s="298"/>
-      <c r="AD18" s="298"/>
-      <c r="AE18" s="299"/>
-      <c r="AF18" s="294"/>
-      <c r="AG18" s="295"/>
-      <c r="AH18" s="295"/>
-      <c r="AI18" s="296"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="295"/>
+      <c r="K18" s="296"/>
+      <c r="L18" s="296"/>
+      <c r="M18" s="296"/>
+      <c r="N18" s="296"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="297"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="299"/>
+      <c r="S18" s="299"/>
+      <c r="T18" s="299"/>
+      <c r="U18" s="299"/>
+      <c r="V18" s="299"/>
+      <c r="W18" s="299"/>
+      <c r="X18" s="299"/>
+      <c r="Y18" s="299"/>
+      <c r="Z18" s="299"/>
+      <c r="AA18" s="299"/>
+      <c r="AB18" s="299"/>
+      <c r="AC18" s="299"/>
+      <c r="AD18" s="299"/>
+      <c r="AE18" s="300"/>
+      <c r="AF18" s="295"/>
+      <c r="AG18" s="296"/>
+      <c r="AH18" s="296"/>
+      <c r="AI18" s="297"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="288"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="291"/>
-      <c r="F19" s="292"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="293"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="294"/>
-      <c r="K19" s="295"/>
-      <c r="L19" s="295"/>
-      <c r="M19" s="295"/>
-      <c r="N19" s="295"/>
-      <c r="O19" s="295"/>
-      <c r="P19" s="296"/>
-      <c r="Q19" s="297"/>
-      <c r="R19" s="298"/>
-      <c r="S19" s="298"/>
-      <c r="T19" s="298"/>
-      <c r="U19" s="298"/>
-      <c r="V19" s="298"/>
-      <c r="W19" s="298"/>
-      <c r="X19" s="298"/>
-      <c r="Y19" s="298"/>
-      <c r="Z19" s="298"/>
-      <c r="AA19" s="298"/>
-      <c r="AB19" s="298"/>
-      <c r="AC19" s="298"/>
-      <c r="AD19" s="298"/>
-      <c r="AE19" s="299"/>
-      <c r="AF19" s="294"/>
-      <c r="AG19" s="295"/>
-      <c r="AH19" s="295"/>
-      <c r="AI19" s="296"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="291"/>
+      <c r="E19" s="292"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="295"/>
+      <c r="K19" s="296"/>
+      <c r="L19" s="296"/>
+      <c r="M19" s="296"/>
+      <c r="N19" s="296"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="297"/>
+      <c r="Q19" s="298"/>
+      <c r="R19" s="299"/>
+      <c r="S19" s="299"/>
+      <c r="T19" s="299"/>
+      <c r="U19" s="299"/>
+      <c r="V19" s="299"/>
+      <c r="W19" s="299"/>
+      <c r="X19" s="299"/>
+      <c r="Y19" s="299"/>
+      <c r="Z19" s="299"/>
+      <c r="AA19" s="299"/>
+      <c r="AB19" s="299"/>
+      <c r="AC19" s="299"/>
+      <c r="AD19" s="299"/>
+      <c r="AE19" s="300"/>
+      <c r="AF19" s="295"/>
+      <c r="AG19" s="296"/>
+      <c r="AH19" s="296"/>
+      <c r="AI19" s="297"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="288"/>
-      <c r="C20" s="289"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="291"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="288"/>
-      <c r="H20" s="293"/>
-      <c r="I20" s="289"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="295"/>
-      <c r="L20" s="295"/>
-      <c r="M20" s="295"/>
-      <c r="N20" s="295"/>
-      <c r="O20" s="295"/>
-      <c r="P20" s="296"/>
-      <c r="Q20" s="297"/>
-      <c r="R20" s="298"/>
-      <c r="S20" s="298"/>
-      <c r="T20" s="298"/>
-      <c r="U20" s="298"/>
-      <c r="V20" s="298"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="298"/>
-      <c r="Y20" s="298"/>
-      <c r="Z20" s="298"/>
-      <c r="AA20" s="298"/>
-      <c r="AB20" s="298"/>
-      <c r="AC20" s="298"/>
-      <c r="AD20" s="298"/>
-      <c r="AE20" s="299"/>
-      <c r="AF20" s="294"/>
-      <c r="AG20" s="295"/>
-      <c r="AH20" s="295"/>
-      <c r="AI20" s="296"/>
+      <c r="B20" s="289"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="291"/>
+      <c r="E20" s="292"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="295"/>
+      <c r="K20" s="296"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="296"/>
+      <c r="N20" s="296"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="297"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="299"/>
+      <c r="S20" s="299"/>
+      <c r="T20" s="299"/>
+      <c r="U20" s="299"/>
+      <c r="V20" s="299"/>
+      <c r="W20" s="299"/>
+      <c r="X20" s="299"/>
+      <c r="Y20" s="299"/>
+      <c r="Z20" s="299"/>
+      <c r="AA20" s="299"/>
+      <c r="AB20" s="299"/>
+      <c r="AC20" s="299"/>
+      <c r="AD20" s="299"/>
+      <c r="AE20" s="300"/>
+      <c r="AF20" s="295"/>
+      <c r="AG20" s="296"/>
+      <c r="AH20" s="296"/>
+      <c r="AI20" s="297"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="288"/>
-      <c r="C21" s="289"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="292"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="289"/>
-      <c r="J21" s="294"/>
-      <c r="K21" s="295"/>
-      <c r="L21" s="295"/>
-      <c r="M21" s="295"/>
-      <c r="N21" s="295"/>
-      <c r="O21" s="295"/>
-      <c r="P21" s="296"/>
-      <c r="Q21" s="297"/>
-      <c r="R21" s="298"/>
-      <c r="S21" s="298"/>
-      <c r="T21" s="298"/>
-      <c r="U21" s="298"/>
-      <c r="V21" s="298"/>
-      <c r="W21" s="298"/>
-      <c r="X21" s="298"/>
-      <c r="Y21" s="298"/>
-      <c r="Z21" s="298"/>
-      <c r="AA21" s="298"/>
-      <c r="AB21" s="298"/>
-      <c r="AC21" s="298"/>
-      <c r="AD21" s="298"/>
-      <c r="AE21" s="299"/>
-      <c r="AF21" s="294"/>
-      <c r="AG21" s="295"/>
-      <c r="AH21" s="295"/>
-      <c r="AI21" s="296"/>
+      <c r="B21" s="289"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="289"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="295"/>
+      <c r="K21" s="296"/>
+      <c r="L21" s="296"/>
+      <c r="M21" s="296"/>
+      <c r="N21" s="296"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="297"/>
+      <c r="Q21" s="298"/>
+      <c r="R21" s="299"/>
+      <c r="S21" s="299"/>
+      <c r="T21" s="299"/>
+      <c r="U21" s="299"/>
+      <c r="V21" s="299"/>
+      <c r="W21" s="299"/>
+      <c r="X21" s="299"/>
+      <c r="Y21" s="299"/>
+      <c r="Z21" s="299"/>
+      <c r="AA21" s="299"/>
+      <c r="AB21" s="299"/>
+      <c r="AC21" s="299"/>
+      <c r="AD21" s="299"/>
+      <c r="AE21" s="300"/>
+      <c r="AF21" s="295"/>
+      <c r="AG21" s="296"/>
+      <c r="AH21" s="296"/>
+      <c r="AI21" s="297"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="288"/>
-      <c r="C22" s="289"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="288"/>
-      <c r="H22" s="293"/>
-      <c r="I22" s="289"/>
-      <c r="J22" s="294"/>
-      <c r="K22" s="295"/>
-      <c r="L22" s="295"/>
-      <c r="M22" s="295"/>
-      <c r="N22" s="295"/>
-      <c r="O22" s="295"/>
-      <c r="P22" s="296"/>
-      <c r="Q22" s="297"/>
-      <c r="R22" s="298"/>
-      <c r="S22" s="298"/>
-      <c r="T22" s="298"/>
-      <c r="U22" s="298"/>
-      <c r="V22" s="298"/>
-      <c r="W22" s="298"/>
-      <c r="X22" s="298"/>
-      <c r="Y22" s="298"/>
-      <c r="Z22" s="298"/>
-      <c r="AA22" s="298"/>
-      <c r="AB22" s="298"/>
-      <c r="AC22" s="298"/>
-      <c r="AD22" s="298"/>
-      <c r="AE22" s="299"/>
-      <c r="AF22" s="294"/>
-      <c r="AG22" s="295"/>
-      <c r="AH22" s="295"/>
-      <c r="AI22" s="296"/>
+      <c r="B22" s="289"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="289"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="295"/>
+      <c r="K22" s="296"/>
+      <c r="L22" s="296"/>
+      <c r="M22" s="296"/>
+      <c r="N22" s="296"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="297"/>
+      <c r="Q22" s="298"/>
+      <c r="R22" s="299"/>
+      <c r="S22" s="299"/>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="299"/>
+      <c r="X22" s="299"/>
+      <c r="Y22" s="299"/>
+      <c r="Z22" s="299"/>
+      <c r="AA22" s="299"/>
+      <c r="AB22" s="299"/>
+      <c r="AC22" s="299"/>
+      <c r="AD22" s="299"/>
+      <c r="AE22" s="300"/>
+      <c r="AF22" s="295"/>
+      <c r="AG22" s="296"/>
+      <c r="AH22" s="296"/>
+      <c r="AI22" s="297"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="289"/>
-      <c r="D23" s="290"/>
-      <c r="E23" s="291"/>
-      <c r="F23" s="292"/>
-      <c r="G23" s="288"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="289"/>
-      <c r="J23" s="294"/>
-      <c r="K23" s="295"/>
-      <c r="L23" s="295"/>
-      <c r="M23" s="295"/>
-      <c r="N23" s="295"/>
-      <c r="O23" s="295"/>
-      <c r="P23" s="296"/>
-      <c r="Q23" s="297"/>
-      <c r="R23" s="298"/>
-      <c r="S23" s="298"/>
-      <c r="T23" s="298"/>
-      <c r="U23" s="298"/>
-      <c r="V23" s="298"/>
-      <c r="W23" s="298"/>
-      <c r="X23" s="298"/>
-      <c r="Y23" s="298"/>
-      <c r="Z23" s="298"/>
-      <c r="AA23" s="298"/>
-      <c r="AB23" s="298"/>
-      <c r="AC23" s="298"/>
-      <c r="AD23" s="298"/>
-      <c r="AE23" s="299"/>
-      <c r="AF23" s="294"/>
-      <c r="AG23" s="295"/>
-      <c r="AH23" s="295"/>
-      <c r="AI23" s="296"/>
+      <c r="B23" s="289"/>
+      <c r="C23" s="290"/>
+      <c r="D23" s="291"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="295"/>
+      <c r="K23" s="296"/>
+      <c r="L23" s="296"/>
+      <c r="M23" s="296"/>
+      <c r="N23" s="296"/>
+      <c r="O23" s="296"/>
+      <c r="P23" s="297"/>
+      <c r="Q23" s="298"/>
+      <c r="R23" s="299"/>
+      <c r="S23" s="299"/>
+      <c r="T23" s="299"/>
+      <c r="U23" s="299"/>
+      <c r="V23" s="299"/>
+      <c r="W23" s="299"/>
+      <c r="X23" s="299"/>
+      <c r="Y23" s="299"/>
+      <c r="Z23" s="299"/>
+      <c r="AA23" s="299"/>
+      <c r="AB23" s="299"/>
+      <c r="AC23" s="299"/>
+      <c r="AD23" s="299"/>
+      <c r="AE23" s="300"/>
+      <c r="AF23" s="295"/>
+      <c r="AG23" s="296"/>
+      <c r="AH23" s="296"/>
+      <c r="AI23" s="297"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="288"/>
-      <c r="C24" s="289"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="291"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="289"/>
-      <c r="J24" s="294"/>
-      <c r="K24" s="295"/>
-      <c r="L24" s="295"/>
-      <c r="M24" s="295"/>
-      <c r="N24" s="295"/>
-      <c r="O24" s="295"/>
-      <c r="P24" s="296"/>
-      <c r="Q24" s="297"/>
-      <c r="R24" s="298"/>
-      <c r="S24" s="298"/>
-      <c r="T24" s="298"/>
-      <c r="U24" s="298"/>
-      <c r="V24" s="298"/>
-      <c r="W24" s="298"/>
-      <c r="X24" s="298"/>
-      <c r="Y24" s="298"/>
-      <c r="Z24" s="298"/>
-      <c r="AA24" s="298"/>
-      <c r="AB24" s="298"/>
-      <c r="AC24" s="298"/>
-      <c r="AD24" s="298"/>
-      <c r="AE24" s="299"/>
-      <c r="AF24" s="294"/>
-      <c r="AG24" s="295"/>
-      <c r="AH24" s="295"/>
-      <c r="AI24" s="296"/>
+      <c r="B24" s="289"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="291"/>
+      <c r="E24" s="292"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="289"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="295"/>
+      <c r="K24" s="296"/>
+      <c r="L24" s="296"/>
+      <c r="M24" s="296"/>
+      <c r="N24" s="296"/>
+      <c r="O24" s="296"/>
+      <c r="P24" s="297"/>
+      <c r="Q24" s="298"/>
+      <c r="R24" s="299"/>
+      <c r="S24" s="299"/>
+      <c r="T24" s="299"/>
+      <c r="U24" s="299"/>
+      <c r="V24" s="299"/>
+      <c r="W24" s="299"/>
+      <c r="X24" s="299"/>
+      <c r="Y24" s="299"/>
+      <c r="Z24" s="299"/>
+      <c r="AA24" s="299"/>
+      <c r="AB24" s="299"/>
+      <c r="AC24" s="299"/>
+      <c r="AD24" s="299"/>
+      <c r="AE24" s="300"/>
+      <c r="AF24" s="295"/>
+      <c r="AG24" s="296"/>
+      <c r="AH24" s="296"/>
+      <c r="AI24" s="297"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="288"/>
-      <c r="C25" s="289"/>
-      <c r="D25" s="290"/>
-      <c r="E25" s="291"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="288"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="289"/>
-      <c r="J25" s="294"/>
-      <c r="K25" s="295"/>
-      <c r="L25" s="295"/>
-      <c r="M25" s="295"/>
-      <c r="N25" s="295"/>
-      <c r="O25" s="295"/>
-      <c r="P25" s="296"/>
-      <c r="Q25" s="297"/>
-      <c r="R25" s="298"/>
-      <c r="S25" s="298"/>
-      <c r="T25" s="298"/>
-      <c r="U25" s="298"/>
-      <c r="V25" s="298"/>
-      <c r="W25" s="298"/>
-      <c r="X25" s="298"/>
-      <c r="Y25" s="298"/>
-      <c r="Z25" s="298"/>
-      <c r="AA25" s="298"/>
-      <c r="AB25" s="298"/>
-      <c r="AC25" s="298"/>
-      <c r="AD25" s="298"/>
-      <c r="AE25" s="299"/>
-      <c r="AF25" s="294"/>
-      <c r="AG25" s="295"/>
-      <c r="AH25" s="295"/>
-      <c r="AI25" s="296"/>
+      <c r="B25" s="289"/>
+      <c r="C25" s="290"/>
+      <c r="D25" s="291"/>
+      <c r="E25" s="292"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="289"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="295"/>
+      <c r="K25" s="296"/>
+      <c r="L25" s="296"/>
+      <c r="M25" s="296"/>
+      <c r="N25" s="296"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="297"/>
+      <c r="Q25" s="298"/>
+      <c r="R25" s="299"/>
+      <c r="S25" s="299"/>
+      <c r="T25" s="299"/>
+      <c r="U25" s="299"/>
+      <c r="V25" s="299"/>
+      <c r="W25" s="299"/>
+      <c r="X25" s="299"/>
+      <c r="Y25" s="299"/>
+      <c r="Z25" s="299"/>
+      <c r="AA25" s="299"/>
+      <c r="AB25" s="299"/>
+      <c r="AC25" s="299"/>
+      <c r="AD25" s="299"/>
+      <c r="AE25" s="300"/>
+      <c r="AF25" s="295"/>
+      <c r="AG25" s="296"/>
+      <c r="AH25" s="296"/>
+      <c r="AI25" s="297"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="288"/>
-      <c r="C26" s="289"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="291"/>
-      <c r="F26" s="292"/>
-      <c r="G26" s="288"/>
-      <c r="H26" s="293"/>
-      <c r="I26" s="289"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="295"/>
-      <c r="L26" s="295"/>
-      <c r="M26" s="295"/>
-      <c r="N26" s="295"/>
-      <c r="O26" s="295"/>
-      <c r="P26" s="296"/>
-      <c r="Q26" s="297"/>
-      <c r="R26" s="298"/>
-      <c r="S26" s="298"/>
-      <c r="T26" s="298"/>
-      <c r="U26" s="298"/>
-      <c r="V26" s="298"/>
-      <c r="W26" s="298"/>
-      <c r="X26" s="298"/>
-      <c r="Y26" s="298"/>
-      <c r="Z26" s="298"/>
-      <c r="AA26" s="298"/>
-      <c r="AB26" s="298"/>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="298"/>
-      <c r="AE26" s="299"/>
-      <c r="AF26" s="294"/>
-      <c r="AG26" s="295"/>
-      <c r="AH26" s="295"/>
-      <c r="AI26" s="296"/>
+      <c r="B26" s="289"/>
+      <c r="C26" s="290"/>
+      <c r="D26" s="291"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="289"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="295"/>
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="296"/>
+      <c r="O26" s="296"/>
+      <c r="P26" s="297"/>
+      <c r="Q26" s="298"/>
+      <c r="R26" s="299"/>
+      <c r="S26" s="299"/>
+      <c r="T26" s="299"/>
+      <c r="U26" s="299"/>
+      <c r="V26" s="299"/>
+      <c r="W26" s="299"/>
+      <c r="X26" s="299"/>
+      <c r="Y26" s="299"/>
+      <c r="Z26" s="299"/>
+      <c r="AA26" s="299"/>
+      <c r="AB26" s="299"/>
+      <c r="AC26" s="299"/>
+      <c r="AD26" s="299"/>
+      <c r="AE26" s="300"/>
+      <c r="AF26" s="295"/>
+      <c r="AG26" s="296"/>
+      <c r="AH26" s="296"/>
+      <c r="AI26" s="297"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="288"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="291"/>
-      <c r="F27" s="292"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="293"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="295"/>
-      <c r="L27" s="295"/>
-      <c r="M27" s="295"/>
-      <c r="N27" s="295"/>
-      <c r="O27" s="295"/>
-      <c r="P27" s="296"/>
-      <c r="Q27" s="297"/>
-      <c r="R27" s="298"/>
-      <c r="S27" s="298"/>
-      <c r="T27" s="298"/>
-      <c r="U27" s="298"/>
-      <c r="V27" s="298"/>
-      <c r="W27" s="298"/>
-      <c r="X27" s="298"/>
-      <c r="Y27" s="298"/>
-      <c r="Z27" s="298"/>
-      <c r="AA27" s="298"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="298"/>
-      <c r="AD27" s="298"/>
-      <c r="AE27" s="299"/>
-      <c r="AF27" s="294"/>
-      <c r="AG27" s="295"/>
-      <c r="AH27" s="295"/>
-      <c r="AI27" s="296"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="291"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="293"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="295"/>
+      <c r="K27" s="296"/>
+      <c r="L27" s="296"/>
+      <c r="M27" s="296"/>
+      <c r="N27" s="296"/>
+      <c r="O27" s="296"/>
+      <c r="P27" s="297"/>
+      <c r="Q27" s="298"/>
+      <c r="R27" s="299"/>
+      <c r="S27" s="299"/>
+      <c r="T27" s="299"/>
+      <c r="U27" s="299"/>
+      <c r="V27" s="299"/>
+      <c r="W27" s="299"/>
+      <c r="X27" s="299"/>
+      <c r="Y27" s="299"/>
+      <c r="Z27" s="299"/>
+      <c r="AA27" s="299"/>
+      <c r="AB27" s="299"/>
+      <c r="AC27" s="299"/>
+      <c r="AD27" s="299"/>
+      <c r="AE27" s="300"/>
+      <c r="AF27" s="295"/>
+      <c r="AG27" s="296"/>
+      <c r="AH27" s="296"/>
+      <c r="AI27" s="297"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="288"/>
-      <c r="C28" s="289"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="288"/>
-      <c r="H28" s="293"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="294"/>
-      <c r="K28" s="295"/>
-      <c r="L28" s="295"/>
-      <c r="M28" s="295"/>
-      <c r="N28" s="295"/>
-      <c r="O28" s="295"/>
-      <c r="P28" s="296"/>
-      <c r="Q28" s="297"/>
-      <c r="R28" s="298"/>
-      <c r="S28" s="298"/>
-      <c r="T28" s="298"/>
-      <c r="U28" s="298"/>
-      <c r="V28" s="298"/>
-      <c r="W28" s="298"/>
-      <c r="X28" s="298"/>
-      <c r="Y28" s="298"/>
-      <c r="Z28" s="298"/>
-      <c r="AA28" s="298"/>
-      <c r="AB28" s="298"/>
-      <c r="AC28" s="298"/>
-      <c r="AD28" s="298"/>
-      <c r="AE28" s="299"/>
-      <c r="AF28" s="294"/>
-      <c r="AG28" s="295"/>
-      <c r="AH28" s="295"/>
-      <c r="AI28" s="296"/>
+      <c r="B28" s="289"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="291"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="289"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="296"/>
+      <c r="L28" s="296"/>
+      <c r="M28" s="296"/>
+      <c r="N28" s="296"/>
+      <c r="O28" s="296"/>
+      <c r="P28" s="297"/>
+      <c r="Q28" s="298"/>
+      <c r="R28" s="299"/>
+      <c r="S28" s="299"/>
+      <c r="T28" s="299"/>
+      <c r="U28" s="299"/>
+      <c r="V28" s="299"/>
+      <c r="W28" s="299"/>
+      <c r="X28" s="299"/>
+      <c r="Y28" s="299"/>
+      <c r="Z28" s="299"/>
+      <c r="AA28" s="299"/>
+      <c r="AB28" s="299"/>
+      <c r="AC28" s="299"/>
+      <c r="AD28" s="299"/>
+      <c r="AE28" s="300"/>
+      <c r="AF28" s="295"/>
+      <c r="AG28" s="296"/>
+      <c r="AH28" s="296"/>
+      <c r="AI28" s="297"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="288"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="291"/>
-      <c r="F29" s="292"/>
-      <c r="G29" s="288"/>
-      <c r="H29" s="293"/>
-      <c r="I29" s="289"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="295"/>
-      <c r="L29" s="295"/>
-      <c r="M29" s="295"/>
-      <c r="N29" s="295"/>
-      <c r="O29" s="295"/>
-      <c r="P29" s="296"/>
-      <c r="Q29" s="297"/>
-      <c r="R29" s="298"/>
-      <c r="S29" s="298"/>
-      <c r="T29" s="298"/>
-      <c r="U29" s="298"/>
-      <c r="V29" s="298"/>
-      <c r="W29" s="298"/>
-      <c r="X29" s="298"/>
-      <c r="Y29" s="298"/>
-      <c r="Z29" s="298"/>
-      <c r="AA29" s="298"/>
-      <c r="AB29" s="298"/>
-      <c r="AC29" s="298"/>
-      <c r="AD29" s="298"/>
-      <c r="AE29" s="299"/>
-      <c r="AF29" s="294"/>
-      <c r="AG29" s="295"/>
-      <c r="AH29" s="295"/>
-      <c r="AI29" s="296"/>
+      <c r="B29" s="289"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="291"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="289"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="295"/>
+      <c r="K29" s="296"/>
+      <c r="L29" s="296"/>
+      <c r="M29" s="296"/>
+      <c r="N29" s="296"/>
+      <c r="O29" s="296"/>
+      <c r="P29" s="297"/>
+      <c r="Q29" s="298"/>
+      <c r="R29" s="299"/>
+      <c r="S29" s="299"/>
+      <c r="T29" s="299"/>
+      <c r="U29" s="299"/>
+      <c r="V29" s="299"/>
+      <c r="W29" s="299"/>
+      <c r="X29" s="299"/>
+      <c r="Y29" s="299"/>
+      <c r="Z29" s="299"/>
+      <c r="AA29" s="299"/>
+      <c r="AB29" s="299"/>
+      <c r="AC29" s="299"/>
+      <c r="AD29" s="299"/>
+      <c r="AE29" s="300"/>
+      <c r="AF29" s="295"/>
+      <c r="AG29" s="296"/>
+      <c r="AH29" s="296"/>
+      <c r="AI29" s="297"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="288"/>
-      <c r="C30" s="289"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="291"/>
-      <c r="F30" s="292"/>
-      <c r="G30" s="288"/>
-      <c r="H30" s="293"/>
-      <c r="I30" s="289"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="295"/>
-      <c r="L30" s="295"/>
-      <c r="M30" s="295"/>
-      <c r="N30" s="295"/>
-      <c r="O30" s="295"/>
-      <c r="P30" s="296"/>
-      <c r="Q30" s="297"/>
-      <c r="R30" s="298"/>
-      <c r="S30" s="298"/>
-      <c r="T30" s="298"/>
-      <c r="U30" s="298"/>
-      <c r="V30" s="298"/>
-      <c r="W30" s="298"/>
-      <c r="X30" s="298"/>
-      <c r="Y30" s="298"/>
-      <c r="Z30" s="298"/>
-      <c r="AA30" s="298"/>
-      <c r="AB30" s="298"/>
-      <c r="AC30" s="298"/>
-      <c r="AD30" s="298"/>
-      <c r="AE30" s="299"/>
-      <c r="AF30" s="294"/>
-      <c r="AG30" s="295"/>
-      <c r="AH30" s="295"/>
-      <c r="AI30" s="296"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="291"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="293"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="295"/>
+      <c r="K30" s="296"/>
+      <c r="L30" s="296"/>
+      <c r="M30" s="296"/>
+      <c r="N30" s="296"/>
+      <c r="O30" s="296"/>
+      <c r="P30" s="297"/>
+      <c r="Q30" s="298"/>
+      <c r="R30" s="299"/>
+      <c r="S30" s="299"/>
+      <c r="T30" s="299"/>
+      <c r="U30" s="299"/>
+      <c r="V30" s="299"/>
+      <c r="W30" s="299"/>
+      <c r="X30" s="299"/>
+      <c r="Y30" s="299"/>
+      <c r="Z30" s="299"/>
+      <c r="AA30" s="299"/>
+      <c r="AB30" s="299"/>
+      <c r="AC30" s="299"/>
+      <c r="AD30" s="299"/>
+      <c r="AE30" s="300"/>
+      <c r="AF30" s="295"/>
+      <c r="AG30" s="296"/>
+      <c r="AH30" s="296"/>
+      <c r="AI30" s="297"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="288"/>
-      <c r="C31" s="289"/>
-      <c r="D31" s="290"/>
-      <c r="E31" s="291"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="288"/>
-      <c r="H31" s="293"/>
-      <c r="I31" s="289"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="295"/>
-      <c r="L31" s="295"/>
-      <c r="M31" s="295"/>
-      <c r="N31" s="295"/>
-      <c r="O31" s="295"/>
-      <c r="P31" s="296"/>
-      <c r="Q31" s="297"/>
-      <c r="R31" s="298"/>
-      <c r="S31" s="298"/>
-      <c r="T31" s="298"/>
-      <c r="U31" s="298"/>
-      <c r="V31" s="298"/>
-      <c r="W31" s="298"/>
-      <c r="X31" s="298"/>
-      <c r="Y31" s="298"/>
-      <c r="Z31" s="298"/>
-      <c r="AA31" s="298"/>
-      <c r="AB31" s="298"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="298"/>
-      <c r="AE31" s="299"/>
-      <c r="AF31" s="294"/>
-      <c r="AG31" s="295"/>
-      <c r="AH31" s="295"/>
-      <c r="AI31" s="296"/>
+      <c r="B31" s="289"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="291"/>
+      <c r="E31" s="292"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="289"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="295"/>
+      <c r="K31" s="296"/>
+      <c r="L31" s="296"/>
+      <c r="M31" s="296"/>
+      <c r="N31" s="296"/>
+      <c r="O31" s="296"/>
+      <c r="P31" s="297"/>
+      <c r="Q31" s="298"/>
+      <c r="R31" s="299"/>
+      <c r="S31" s="299"/>
+      <c r="T31" s="299"/>
+      <c r="U31" s="299"/>
+      <c r="V31" s="299"/>
+      <c r="W31" s="299"/>
+      <c r="X31" s="299"/>
+      <c r="Y31" s="299"/>
+      <c r="Z31" s="299"/>
+      <c r="AA31" s="299"/>
+      <c r="AB31" s="299"/>
+      <c r="AC31" s="299"/>
+      <c r="AD31" s="299"/>
+      <c r="AE31" s="300"/>
+      <c r="AF31" s="295"/>
+      <c r="AG31" s="296"/>
+      <c r="AH31" s="296"/>
+      <c r="AI31" s="297"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="288"/>
-      <c r="C32" s="289"/>
-      <c r="D32" s="290"/>
-      <c r="E32" s="291"/>
-      <c r="F32" s="292"/>
-      <c r="G32" s="288"/>
-      <c r="H32" s="293"/>
-      <c r="I32" s="289"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="313"/>
-      <c r="L32" s="295"/>
-      <c r="M32" s="295"/>
-      <c r="N32" s="295"/>
-      <c r="O32" s="295"/>
-      <c r="P32" s="296"/>
-      <c r="Q32" s="297"/>
-      <c r="R32" s="298"/>
-      <c r="S32" s="298"/>
-      <c r="T32" s="298"/>
-      <c r="U32" s="298"/>
-      <c r="V32" s="298"/>
-      <c r="W32" s="298"/>
-      <c r="X32" s="298"/>
-      <c r="Y32" s="298"/>
-      <c r="Z32" s="298"/>
-      <c r="AA32" s="298"/>
-      <c r="AB32" s="298"/>
-      <c r="AC32" s="298"/>
-      <c r="AD32" s="298"/>
-      <c r="AE32" s="299"/>
-      <c r="AF32" s="294"/>
-      <c r="AG32" s="295"/>
-      <c r="AH32" s="295"/>
-      <c r="AI32" s="296"/>
+      <c r="B32" s="289"/>
+      <c r="C32" s="290"/>
+      <c r="D32" s="291"/>
+      <c r="E32" s="292"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="289"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="295"/>
+      <c r="K32" s="314"/>
+      <c r="L32" s="296"/>
+      <c r="M32" s="296"/>
+      <c r="N32" s="296"/>
+      <c r="O32" s="296"/>
+      <c r="P32" s="297"/>
+      <c r="Q32" s="298"/>
+      <c r="R32" s="299"/>
+      <c r="S32" s="299"/>
+      <c r="T32" s="299"/>
+      <c r="U32" s="299"/>
+      <c r="V32" s="299"/>
+      <c r="W32" s="299"/>
+      <c r="X32" s="299"/>
+      <c r="Y32" s="299"/>
+      <c r="Z32" s="299"/>
+      <c r="AA32" s="299"/>
+      <c r="AB32" s="299"/>
+      <c r="AC32" s="299"/>
+      <c r="AD32" s="299"/>
+      <c r="AE32" s="300"/>
+      <c r="AF32" s="295"/>
+      <c r="AG32" s="296"/>
+      <c r="AH32" s="296"/>
+      <c r="AI32" s="297"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="288"/>
-      <c r="C33" s="289"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="291"/>
-      <c r="F33" s="292"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="293"/>
-      <c r="I33" s="289"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="295"/>
-      <c r="L33" s="295"/>
-      <c r="M33" s="295"/>
-      <c r="N33" s="295"/>
-      <c r="O33" s="295"/>
-      <c r="P33" s="296"/>
-      <c r="Q33" s="297"/>
-      <c r="R33" s="298"/>
-      <c r="S33" s="298"/>
-      <c r="T33" s="298"/>
-      <c r="U33" s="298"/>
-      <c r="V33" s="298"/>
-      <c r="W33" s="298"/>
-      <c r="X33" s="298"/>
-      <c r="Y33" s="298"/>
-      <c r="Z33" s="298"/>
-      <c r="AA33" s="298"/>
-      <c r="AB33" s="298"/>
-      <c r="AC33" s="298"/>
-      <c r="AD33" s="298"/>
-      <c r="AE33" s="299"/>
-      <c r="AF33" s="294"/>
-      <c r="AG33" s="295"/>
-      <c r="AH33" s="295"/>
-      <c r="AI33" s="296"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="289"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="295"/>
+      <c r="K33" s="296"/>
+      <c r="L33" s="296"/>
+      <c r="M33" s="296"/>
+      <c r="N33" s="296"/>
+      <c r="O33" s="296"/>
+      <c r="P33" s="297"/>
+      <c r="Q33" s="298"/>
+      <c r="R33" s="299"/>
+      <c r="S33" s="299"/>
+      <c r="T33" s="299"/>
+      <c r="U33" s="299"/>
+      <c r="V33" s="299"/>
+      <c r="W33" s="299"/>
+      <c r="X33" s="299"/>
+      <c r="Y33" s="299"/>
+      <c r="Z33" s="299"/>
+      <c r="AA33" s="299"/>
+      <c r="AB33" s="299"/>
+      <c r="AC33" s="299"/>
+      <c r="AD33" s="299"/>
+      <c r="AE33" s="300"/>
+      <c r="AF33" s="295"/>
+      <c r="AG33" s="296"/>
+      <c r="AH33" s="296"/>
+      <c r="AI33" s="297"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
@@ -6376,20 +6386,20 @@
       <c r="F9" s="25"/>
       <c r="G9" s="81"/>
     </row>
-    <row r="10" spans="1:17" s="133" customFormat="1">
-      <c r="A10" s="112" t="s">
+    <row r="10" spans="1:17" s="251" customFormat="1" ht="24">
+      <c r="A10" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="245" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="246" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="246" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="247" t="s">
         <v>129</v>
       </c>
       <c r="F10" s="76" t="s">
@@ -6398,258 +6408,258 @@
       <c r="G10" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="131" t="s">
+      <c r="J10" s="249" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="249" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="L10" s="249" t="s">
         <v>360</v>
       </c>
-      <c r="M10" s="131" t="s">
+      <c r="M10" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="131" t="s">
+      <c r="N10" s="249" t="s">
         <v>156</v>
       </c>
-      <c r="O10" s="131" t="s">
+      <c r="O10" s="249" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="P10" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="132" t="s">
+      <c r="Q10" s="250" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="23.1" customHeight="1">
-      <c r="A11" s="115" t="s">
+    <row r="11" spans="1:17" ht="48.75" customHeight="1">
+      <c r="A11" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="135" t="s">
+      <c r="I11" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="140"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="134"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117" t="s">
+      <c r="B12" s="113"/>
+      <c r="C12" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="77"/>
       <c r="G12" s="78"/>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="140"/>
-    </row>
-    <row r="13" spans="1:17" s="133" customFormat="1" ht="36">
-      <c r="A13" s="115" t="s">
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="134"/>
+    </row>
+    <row r="13" spans="1:17" s="127" customFormat="1" ht="36">
+      <c r="A13" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121" t="s">
+      <c r="B13" s="117"/>
+      <c r="C13" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="119" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="120" t="s">
         <v>137</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="143" t="s">
+      <c r="I13" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="148"/>
-    </row>
-    <row r="14" spans="1:17" s="133" customFormat="1">
-      <c r="A14" s="115" t="s">
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="142"/>
+    </row>
+    <row r="14" spans="1:17" s="127" customFormat="1">
+      <c r="A14" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126" t="s">
+      <c r="B14" s="117"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123" t="s">
         <v>139</v>
       </c>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
-      <c r="H14" s="142" t="s">
+      <c r="H14" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="143" t="s">
+      <c r="I14" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="148"/>
-    </row>
-    <row r="15" spans="1:17" s="133" customFormat="1" ht="48">
-      <c r="A15" s="115" t="s">
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="142"/>
+    </row>
+    <row r="15" spans="1:17" s="127" customFormat="1" ht="48">
+      <c r="A15" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126" t="s">
+      <c r="B15" s="117"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123" t="s">
         <v>141</v>
       </c>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="I15" s="155" t="s">
+      <c r="I15" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="148"/>
-    </row>
-    <row r="16" spans="1:17" s="133" customFormat="1" ht="60">
-      <c r="A16" s="115" t="s">
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="142"/>
+    </row>
+    <row r="16" spans="1:17" s="127" customFormat="1" ht="60">
+      <c r="A16" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126" t="s">
+      <c r="B16" s="117"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123" t="s">
         <v>143</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="78"/>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="155" t="s">
+      <c r="I16" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="148"/>
-    </row>
-    <row r="17" spans="1:17" s="133" customFormat="1">
-      <c r="A17" s="127" t="s">
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="142"/>
+    </row>
+    <row r="17" spans="1:17" s="127" customFormat="1">
+      <c r="A17" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="117" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="119"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="77"/>
       <c r="G17" s="78"/>
-      <c r="H17" s="159" t="s">
+      <c r="H17" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="141" t="s">
+      <c r="I17" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="140"/>
-    </row>
-    <row r="18" spans="1:17" s="133" customFormat="1" ht="36">
-      <c r="A18" s="127" t="s">
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="134"/>
+    </row>
+    <row r="18" spans="1:17" s="127" customFormat="1" ht="36">
+      <c r="A18" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="117" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="114" t="s">
         <v>351</v>
       </c>
-      <c r="E18" s="129"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="77"/>
       <c r="G18" s="78"/>
-      <c r="H18" s="159" t="s">
+      <c r="H18" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="160" t="s">
+      <c r="I18" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="140"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="134"/>
     </row>
     <row r="19" spans="1:17" s="29" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="42" t="s">
@@ -6778,1214 +6788,1214 @@
       <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="162" t="s">
+      <c r="B23" s="113"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="156" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="163" t="s">
+      <c r="E23" s="157" t="s">
         <v>168</v>
       </c>
       <c r="F23" s="77"/>
       <c r="G23" s="78"/>
-      <c r="H23" s="159" t="s">
+      <c r="H23" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="141" t="s">
+      <c r="I23" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="140"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="134"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="163" t="s">
+      <c r="B24" s="113"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="157" t="s">
         <v>352</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="78"/>
-      <c r="H24" s="159" t="s">
+      <c r="H24" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="141" t="s">
+      <c r="I24" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="140"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="134"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="163" t="s">
+      <c r="B25" s="113"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="157" t="s">
         <v>171</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="78"/>
-      <c r="H25" s="159" t="s">
+      <c r="H25" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="141" t="s">
+      <c r="I25" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="140"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="134"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="163" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="157" t="s">
         <v>173</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="78"/>
-      <c r="H26" s="159" t="s">
+      <c r="H26" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="141" t="s">
+      <c r="I26" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="140"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="134"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="163" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="157" t="s">
         <v>175</v>
       </c>
       <c r="F27" s="77"/>
       <c r="G27" s="78"/>
-      <c r="H27" s="159" t="s">
+      <c r="H27" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="141" t="s">
+      <c r="I27" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="140"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="134"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126" t="s">
+      <c r="B28" s="113"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123" t="s">
         <v>177</v>
       </c>
       <c r="F28" s="77"/>
       <c r="G28" s="78"/>
-      <c r="H28" s="159" t="s">
+      <c r="H28" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="141" t="s">
+      <c r="I28" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="140"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="134"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165" t="s">
+      <c r="B29" s="113"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159" t="s">
         <v>179</v>
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="78"/>
-      <c r="H29" s="159" t="s">
+      <c r="H29" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="160" t="s">
+      <c r="I29" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="140"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="134"/>
     </row>
     <row r="30" spans="1:17" ht="24">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="165" t="s">
+      <c r="E30" s="159" t="s">
         <v>182</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="78"/>
-      <c r="H30" s="159" t="s">
+      <c r="H30" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="179" t="s">
+      <c r="I30" s="173" t="s">
         <v>165</v>
       </c>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="140"/>
-    </row>
-    <row r="31" spans="1:17" s="133" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A31" s="127" t="s">
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="134"/>
+    </row>
+    <row r="31" spans="1:17" s="127" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A31" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="166" t="s">
+      <c r="B31" s="117"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="161" t="s">
         <v>185</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="78"/>
-      <c r="H31" s="180" t="s">
+      <c r="H31" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I31" s="181" t="s">
+      <c r="I31" s="175" t="s">
         <v>257</v>
       </c>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="148"/>
-    </row>
-    <row r="32" spans="1:17" s="133" customFormat="1" ht="57" customHeight="1">
-      <c r="A32" s="127" t="s">
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="142"/>
+    </row>
+    <row r="32" spans="1:17" s="127" customFormat="1" ht="57" customHeight="1">
+      <c r="A32" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="120"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="167" t="s">
+      <c r="B32" s="117"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="161" t="s">
         <v>339</v>
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="78"/>
-      <c r="H32" s="180" t="s">
+      <c r="H32" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I32" s="181" t="s">
+      <c r="I32" s="175" t="s">
         <v>354</v>
       </c>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="148"/>
-    </row>
-    <row r="33" spans="1:17" s="133" customFormat="1" ht="60">
-      <c r="A33" s="127" t="s">
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="142"/>
+    </row>
+    <row r="33" spans="1:17" s="127" customFormat="1" ht="60">
+      <c r="A33" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="167" t="s">
+      <c r="B33" s="117"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="161" t="s">
         <v>188</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="78"/>
-      <c r="H33" s="180" t="s">
+      <c r="H33" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I33" s="181" t="s">
+      <c r="I33" s="175" t="s">
         <v>354</v>
       </c>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="148"/>
-    </row>
-    <row r="34" spans="1:17" s="133" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A34" s="127" t="s">
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="142"/>
+    </row>
+    <row r="34" spans="1:17" s="127" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A34" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="167" t="s">
+      <c r="B34" s="117"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="161" t="s">
         <v>190</v>
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="180" t="s">
+      <c r="H34" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I34" s="181" t="s">
+      <c r="I34" s="175" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="148"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="142"/>
     </row>
     <row r="35" spans="1:17" ht="50.25" customHeight="1">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="167" t="s">
+      <c r="B35" s="117"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="161" t="s">
         <v>192</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="78"/>
-      <c r="H35" s="180" t="s">
+      <c r="H35" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I35" s="181" t="s">
+      <c r="I35" s="175" t="s">
         <v>258</v>
       </c>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="183"/>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="183"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="176"/>
+      <c r="P35" s="176"/>
+      <c r="Q35" s="177"/>
     </row>
     <row r="36" spans="1:17" ht="50.25" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="167" t="s">
+      <c r="B36" s="117"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="161" t="s">
         <v>194</v>
       </c>
       <c r="F36" s="77"/>
       <c r="G36" s="78"/>
-      <c r="H36" s="180" t="s">
+      <c r="H36" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="181" t="s">
+      <c r="I36" s="175" t="s">
         <v>258</v>
       </c>
-      <c r="J36" s="181"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="182"/>
-      <c r="P36" s="182"/>
-      <c r="Q36" s="183"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="176"/>
+      <c r="P36" s="176"/>
+      <c r="Q36" s="177"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="167" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="161" t="s">
         <v>196</v>
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="78"/>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="J37" s="181"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="182"/>
-      <c r="P37" s="182"/>
-      <c r="Q37" s="183"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="177"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="120"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="167" t="s">
+      <c r="B38" s="117"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="161" t="s">
         <v>198</v>
       </c>
       <c r="F38" s="77"/>
       <c r="G38" s="78"/>
-      <c r="H38" s="180" t="s">
+      <c r="H38" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="I38" s="181" t="s">
+      <c r="I38" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="J38" s="181"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="183"/>
-      <c r="O38" s="182"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="183"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="177"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="167" t="s">
+      <c r="B39" s="117"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="161" t="s">
         <v>200</v>
       </c>
       <c r="F39" s="77"/>
       <c r="G39" s="78"/>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="181" t="s">
+      <c r="I39" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="182"/>
-      <c r="M39" s="182"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="182"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="183"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="177"/>
     </row>
     <row r="40" spans="1:17" ht="59.25" customHeight="1">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="164" t="s">
         <v>201</v>
       </c>
-      <c r="B40" s="120"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="171" t="s">
+      <c r="B40" s="117"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="165" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="167" t="s">
+      <c r="E40" s="161" t="s">
         <v>353</v>
       </c>
       <c r="F40" s="77"/>
       <c r="G40" s="78"/>
-      <c r="H40" s="180" t="s">
+      <c r="H40" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I40" s="181" t="s">
+      <c r="I40" s="175" t="s">
         <v>354</v>
       </c>
-      <c r="J40" s="181"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="182"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="183"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="177"/>
     </row>
     <row r="41" spans="1:17" ht="60">
-      <c r="A41" s="170" t="s">
+      <c r="A41" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="167" t="s">
+      <c r="B41" s="117"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="162"/>
+      <c r="E41" s="161" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="77"/>
       <c r="G41" s="78"/>
-      <c r="H41" s="180" t="s">
+      <c r="H41" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I41" s="181" t="s">
+      <c r="I41" s="175" t="s">
         <v>354</v>
       </c>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="182"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="183"/>
-    </row>
-    <row r="42" spans="1:17" ht="54.75" customHeight="1">
-      <c r="A42" s="170" t="s">
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="177"/>
+    </row>
+    <row r="42" spans="1:17" ht="59.25" customHeight="1">
+      <c r="A42" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="167" t="s">
+      <c r="B42" s="117"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="161" t="s">
         <v>173</v>
       </c>
       <c r="F42" s="77"/>
       <c r="G42" s="78"/>
-      <c r="H42" s="180" t="s">
+      <c r="H42" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I42" s="181" t="s">
+      <c r="I42" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="182"/>
-      <c r="M42" s="182"/>
-      <c r="N42" s="183"/>
-      <c r="O42" s="182"/>
-      <c r="P42" s="182"/>
-      <c r="Q42" s="183"/>
-    </row>
-    <row r="43" spans="1:17" ht="54.75" customHeight="1">
-      <c r="A43" s="170" t="s">
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="176"/>
+      <c r="P42" s="176"/>
+      <c r="Q42" s="177"/>
+    </row>
+    <row r="43" spans="1:17" ht="60" customHeight="1">
+      <c r="A43" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="167" t="s">
+      <c r="B43" s="117"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="161" t="s">
         <v>175</v>
       </c>
       <c r="F43" s="77"/>
       <c r="G43" s="78"/>
-      <c r="H43" s="180" t="s">
+      <c r="H43" s="174" t="s">
         <v>256</v>
       </c>
-      <c r="I43" s="181" t="s">
+      <c r="I43" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="182"/>
-      <c r="P43" s="182"/>
-      <c r="Q43" s="183"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="176"/>
+      <c r="P43" s="176"/>
+      <c r="Q43" s="177"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="170" t="s">
+      <c r="A44" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="120"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="172" t="s">
+      <c r="B44" s="117"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="166" t="s">
         <v>207</v>
       </c>
       <c r="F44" s="77"/>
       <c r="G44" s="78"/>
-      <c r="H44" s="184" t="s">
+      <c r="H44" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="I44" s="185" t="s">
+      <c r="I44" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="186"/>
-      <c r="N44" s="187"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="186"/>
-      <c r="Q44" s="183"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="181"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="177"/>
     </row>
     <row r="45" spans="1:17" ht="24">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="173"/>
-      <c r="C45" s="121" t="s">
+      <c r="B45" s="167"/>
+      <c r="C45" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="171"/>
-      <c r="E45" s="174" t="s">
+      <c r="D45" s="165"/>
+      <c r="E45" s="168" t="s">
         <v>210</v>
       </c>
       <c r="F45" s="77"/>
       <c r="G45" s="78"/>
-      <c r="H45" s="188" t="s">
+      <c r="H45" s="182" t="s">
         <v>261</v>
       </c>
-      <c r="I45" s="189" t="s">
+      <c r="I45" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="189"/>
-      <c r="K45" s="189"/>
-      <c r="L45" s="190"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="190"/>
-      <c r="P45" s="190"/>
-      <c r="Q45" s="140"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="184"/>
+      <c r="M45" s="184"/>
+      <c r="N45" s="185"/>
+      <c r="O45" s="184"/>
+      <c r="P45" s="184"/>
+      <c r="Q45" s="134"/>
     </row>
     <row r="46" spans="1:17" ht="24">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="164" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="173"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="174" t="s">
+      <c r="B46" s="167"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="168" t="s">
         <v>212</v>
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="78"/>
-      <c r="H46" s="188" t="s">
-        <v>261</v>
-      </c>
-      <c r="I46" s="189" t="s">
+      <c r="H46" s="182" t="s">
+        <v>361</v>
+      </c>
+      <c r="I46" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="J46" s="189"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="191"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="140"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="184"/>
+      <c r="M46" s="184"/>
+      <c r="N46" s="185"/>
+      <c r="O46" s="184"/>
+      <c r="P46" s="184"/>
+      <c r="Q46" s="134"/>
     </row>
     <row r="47" spans="1:17" ht="24">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="173"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="174" t="s">
+      <c r="B47" s="167"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="168" t="s">
         <v>214</v>
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="78"/>
-      <c r="H47" s="188" t="s">
+      <c r="H47" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I47" s="189" t="s">
+      <c r="I47" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J47" s="189"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="190"/>
-      <c r="P47" s="190"/>
-      <c r="Q47" s="140"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="184"/>
+      <c r="N47" s="185"/>
+      <c r="O47" s="184"/>
+      <c r="P47" s="184"/>
+      <c r="Q47" s="134"/>
     </row>
     <row r="48" spans="1:17" ht="24">
-      <c r="A48" s="170" t="s">
+      <c r="A48" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="173"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="174" t="s">
+      <c r="B48" s="167"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="168" t="s">
         <v>216</v>
       </c>
       <c r="F48" s="77"/>
       <c r="G48" s="78"/>
-      <c r="H48" s="188" t="s">
+      <c r="H48" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I48" s="189" t="s">
+      <c r="I48" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J48" s="189"/>
-      <c r="K48" s="189"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="191"/>
-      <c r="O48" s="190"/>
-      <c r="P48" s="190"/>
-      <c r="Q48" s="140"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="184"/>
+      <c r="M48" s="184"/>
+      <c r="N48" s="185"/>
+      <c r="O48" s="184"/>
+      <c r="P48" s="184"/>
+      <c r="Q48" s="134"/>
     </row>
     <row r="49" spans="1:17" ht="36">
-      <c r="A49" s="170" t="s">
+      <c r="A49" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="173"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="174" t="s">
+      <c r="B49" s="167"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="168" t="s">
         <v>218</v>
       </c>
       <c r="F49" s="77"/>
       <c r="G49" s="78"/>
-      <c r="H49" s="188" t="s">
+      <c r="H49" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I49" s="189" t="s">
+      <c r="I49" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J49" s="189"/>
-      <c r="K49" s="189"/>
-      <c r="L49" s="190"/>
-      <c r="M49" s="190"/>
-      <c r="N49" s="191"/>
-      <c r="O49" s="190"/>
-      <c r="P49" s="190"/>
-      <c r="Q49" s="140"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="184"/>
+      <c r="M49" s="184"/>
+      <c r="N49" s="185"/>
+      <c r="O49" s="184"/>
+      <c r="P49" s="184"/>
+      <c r="Q49" s="134"/>
     </row>
     <row r="50" spans="1:17" ht="24">
-      <c r="A50" s="170" t="s">
+      <c r="A50" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="173"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="174" t="s">
+      <c r="B50" s="167"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="168" t="s">
         <v>220</v>
       </c>
       <c r="F50" s="77"/>
       <c r="G50" s="78"/>
-      <c r="H50" s="188" t="s">
+      <c r="H50" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="189" t="s">
+      <c r="I50" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J50" s="189"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="191"/>
-      <c r="O50" s="190"/>
-      <c r="P50" s="190"/>
-      <c r="Q50" s="140"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="184"/>
+      <c r="M50" s="184"/>
+      <c r="N50" s="185"/>
+      <c r="O50" s="184"/>
+      <c r="P50" s="184"/>
+      <c r="Q50" s="134"/>
     </row>
     <row r="51" spans="1:17" ht="24">
-      <c r="A51" s="170" t="s">
+      <c r="A51" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="173"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="174" t="s">
+      <c r="B51" s="167"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="168" t="s">
         <v>222</v>
       </c>
       <c r="F51" s="77"/>
       <c r="G51" s="78"/>
-      <c r="H51" s="188" t="s">
+      <c r="H51" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="189" t="s">
+      <c r="I51" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J51" s="189"/>
-      <c r="K51" s="189"/>
-      <c r="L51" s="190"/>
-      <c r="M51" s="190"/>
-      <c r="N51" s="191"/>
-      <c r="O51" s="190"/>
-      <c r="P51" s="190"/>
-      <c r="Q51" s="140"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="184"/>
+      <c r="M51" s="184"/>
+      <c r="N51" s="185"/>
+      <c r="O51" s="184"/>
+      <c r="P51" s="184"/>
+      <c r="Q51" s="134"/>
     </row>
     <row r="52" spans="1:17" ht="24">
-      <c r="A52" s="170" t="s">
+      <c r="A52" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="174" t="s">
+      <c r="B52" s="167"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="168" t="s">
         <v>224</v>
       </c>
       <c r="F52" s="77"/>
       <c r="G52" s="78"/>
-      <c r="H52" s="188" t="s">
+      <c r="H52" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I52" s="189" t="s">
+      <c r="I52" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="189"/>
-      <c r="K52" s="189"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="190"/>
-      <c r="N52" s="191"/>
-      <c r="O52" s="190"/>
-      <c r="P52" s="190"/>
-      <c r="Q52" s="140"/>
+      <c r="J52" s="183"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="185"/>
+      <c r="O52" s="184"/>
+      <c r="P52" s="184"/>
+      <c r="Q52" s="134"/>
     </row>
     <row r="53" spans="1:17" ht="24">
-      <c r="A53" s="170" t="s">
+      <c r="A53" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="175"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="174" t="s">
+      <c r="B53" s="169"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="168" t="s">
         <v>226</v>
       </c>
       <c r="F53" s="77"/>
       <c r="G53" s="78"/>
-      <c r="H53" s="188" t="s">
+      <c r="H53" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="I53" s="189" t="s">
+      <c r="I53" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="J53" s="189"/>
-      <c r="K53" s="189"/>
-      <c r="L53" s="190"/>
-      <c r="M53" s="190"/>
-      <c r="N53" s="191"/>
-      <c r="O53" s="190"/>
-      <c r="P53" s="190"/>
-      <c r="Q53" s="140"/>
-    </row>
-    <row r="54" spans="1:17" s="133" customFormat="1" ht="36">
-      <c r="A54" s="170" t="s">
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="184"/>
+      <c r="M53" s="184"/>
+      <c r="N53" s="185"/>
+      <c r="O53" s="184"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="134"/>
+    </row>
+    <row r="54" spans="1:17" s="127" customFormat="1" ht="36">
+      <c r="A54" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="125" t="s">
+      <c r="B54" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="122" t="s">
+      <c r="D54" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="E54" s="177" t="s">
+      <c r="E54" s="171" t="s">
         <v>229</v>
       </c>
       <c r="F54" s="77"/>
       <c r="G54" s="78"/>
-      <c r="H54" s="192" t="s">
+      <c r="H54" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I54" s="125" t="s">
+      <c r="I54" s="122" t="s">
         <v>340</v>
       </c>
-      <c r="J54" s="193"/>
-      <c r="K54" s="193"/>
-      <c r="L54" s="194"/>
-      <c r="M54" s="195"/>
-      <c r="N54" s="196"/>
-      <c r="O54" s="197"/>
-      <c r="P54" s="195"/>
-      <c r="Q54" s="140"/>
-    </row>
-    <row r="55" spans="1:17" s="133" customFormat="1" ht="24">
-      <c r="A55" s="170" t="s">
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="188"/>
+      <c r="M54" s="189"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="191"/>
+      <c r="P54" s="189"/>
+      <c r="Q54" s="134"/>
+    </row>
+    <row r="55" spans="1:17" s="127" customFormat="1" ht="24">
+      <c r="A55" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="177" t="s">
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="171" t="s">
         <v>231</v>
       </c>
       <c r="F55" s="77"/>
       <c r="G55" s="78"/>
-      <c r="H55" s="192" t="s">
+      <c r="H55" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I55" s="198" t="s">
+      <c r="I55" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="J55" s="160"/>
-      <c r="K55" s="160"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="137"/>
-      <c r="N55" s="138"/>
-      <c r="O55" s="139"/>
-      <c r="P55" s="137"/>
-      <c r="Q55" s="140"/>
-    </row>
-    <row r="56" spans="1:17" s="133" customFormat="1" ht="24">
-      <c r="A56" s="170" t="s">
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="133"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="134"/>
+    </row>
+    <row r="56" spans="1:17" s="127" customFormat="1" ht="24">
+      <c r="A56" s="164" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="177" t="s">
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="171" t="s">
         <v>233</v>
       </c>
       <c r="F56" s="77"/>
       <c r="G56" s="78"/>
-      <c r="H56" s="192" t="s">
+      <c r="H56" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I56" s="198" t="s">
+      <c r="I56" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="137"/>
-      <c r="N56" s="138"/>
-      <c r="O56" s="139"/>
-      <c r="P56" s="137"/>
-      <c r="Q56" s="140"/>
-    </row>
-    <row r="57" spans="1:17" s="200" customFormat="1">
-      <c r="A57" s="170" t="s">
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="134"/>
+    </row>
+    <row r="57" spans="1:17" s="194" customFormat="1">
+      <c r="A57" s="164" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="177" t="s">
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="171" t="s">
         <v>235</v>
       </c>
       <c r="F57" s="79"/>
       <c r="G57" s="83"/>
-      <c r="H57" s="192" t="s">
+      <c r="H57" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I57" s="198" t="s">
+      <c r="I57" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="J57" s="160"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="137"/>
-      <c r="N57" s="138"/>
-      <c r="O57" s="139"/>
-      <c r="P57" s="137"/>
-      <c r="Q57" s="199"/>
-    </row>
-    <row r="58" spans="1:17" s="200" customFormat="1" ht="24">
-      <c r="A58" s="170" t="s">
+      <c r="J57" s="154"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="133"/>
+      <c r="P57" s="131"/>
+      <c r="Q57" s="193"/>
+    </row>
+    <row r="58" spans="1:17" s="194" customFormat="1" ht="24">
+      <c r="A58" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="177" t="s">
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="171" t="s">
         <v>237</v>
       </c>
       <c r="F58" s="77"/>
       <c r="G58" s="78"/>
-      <c r="H58" s="192" t="s">
+      <c r="H58" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I58" s="198" t="s">
+      <c r="I58" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="137"/>
-      <c r="N58" s="138"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="137"/>
-      <c r="Q58" s="199"/>
-    </row>
-    <row r="59" spans="1:17" s="133" customFormat="1" ht="24">
-      <c r="A59" s="170" t="s">
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="133"/>
+      <c r="P58" s="131"/>
+      <c r="Q58" s="193"/>
+    </row>
+    <row r="59" spans="1:17" s="127" customFormat="1" ht="24">
+      <c r="A59" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="122" t="s">
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="178" t="s">
+      <c r="E59" s="172" t="s">
         <v>239</v>
       </c>
       <c r="F59" s="77"/>
       <c r="G59" s="78"/>
-      <c r="H59" s="192" t="s">
+      <c r="H59" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I59" s="198" t="s">
+      <c r="I59" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="137"/>
-      <c r="N59" s="138"/>
-      <c r="O59" s="139"/>
-      <c r="P59" s="137"/>
-      <c r="Q59" s="140"/>
-    </row>
-    <row r="60" spans="1:17" s="133" customFormat="1" ht="24">
-      <c r="A60" s="170" t="s">
+      <c r="J59" s="154"/>
+      <c r="K59" s="154"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="133"/>
+      <c r="P59" s="131"/>
+      <c r="Q59" s="134"/>
+    </row>
+    <row r="60" spans="1:17" s="127" customFormat="1" ht="24">
+      <c r="A60" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="125"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="160" t="s">
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="154" t="s">
         <v>241</v>
       </c>
       <c r="F60" s="77"/>
       <c r="G60" s="78"/>
-      <c r="H60" s="192" t="s">
+      <c r="H60" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I60" s="198" t="s">
+      <c r="I60" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="137"/>
-      <c r="N60" s="138"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="137"/>
-      <c r="Q60" s="140"/>
-    </row>
-    <row r="61" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A61" s="170" t="s">
+      <c r="J60" s="154"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="132"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="131"/>
+      <c r="Q60" s="134"/>
+    </row>
+    <row r="61" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A61" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="160" t="s">
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="154" t="s">
         <v>243</v>
       </c>
       <c r="F61" s="77"/>
       <c r="G61" s="78"/>
-      <c r="H61" s="192" t="s">
+      <c r="H61" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I61" s="198" t="s">
+      <c r="I61" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="J61" s="160"/>
-      <c r="K61" s="160"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="137"/>
-      <c r="N61" s="138"/>
-      <c r="O61" s="139"/>
-      <c r="P61" s="137"/>
-      <c r="Q61" s="140"/>
-    </row>
-    <row r="62" spans="1:17" s="133" customFormat="1">
-      <c r="A62" s="170" t="s">
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="132"/>
+      <c r="O61" s="133"/>
+      <c r="P61" s="131"/>
+      <c r="Q61" s="134"/>
+    </row>
+    <row r="62" spans="1:17" s="127" customFormat="1">
+      <c r="A62" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="122" t="s">
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="160" t="s">
+      <c r="E62" s="154" t="s">
         <v>246</v>
       </c>
       <c r="F62" s="77"/>
       <c r="G62" s="78"/>
-      <c r="H62" s="192" t="s">
+      <c r="H62" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I62" s="198" t="s">
+      <c r="I62" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="137"/>
-      <c r="N62" s="138"/>
-      <c r="O62" s="139"/>
-      <c r="P62" s="137"/>
-      <c r="Q62" s="140"/>
-    </row>
-    <row r="63" spans="1:17" s="133" customFormat="1">
-      <c r="A63" s="170" t="s">
+      <c r="J62" s="154"/>
+      <c r="K62" s="154"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="131"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="133"/>
+      <c r="P62" s="131"/>
+      <c r="Q62" s="134"/>
+    </row>
+    <row r="63" spans="1:17" s="127" customFormat="1">
+      <c r="A63" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="160" t="s">
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="154" t="s">
         <v>248</v>
       </c>
       <c r="F63" s="77"/>
       <c r="G63" s="78"/>
-      <c r="H63" s="192" t="s">
+      <c r="H63" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="I63" s="198" t="s">
+      <c r="I63" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="J63" s="160"/>
-      <c r="K63" s="160"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="137"/>
-      <c r="N63" s="138"/>
-      <c r="O63" s="139"/>
-      <c r="P63" s="137"/>
-      <c r="Q63" s="140"/>
-    </row>
-    <row r="64" spans="1:17" s="133" customFormat="1" ht="36">
-      <c r="A64" s="170" t="s">
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="133"/>
+      <c r="P63" s="131"/>
+      <c r="Q63" s="134"/>
+    </row>
+    <row r="64" spans="1:17" s="127" customFormat="1" ht="36">
+      <c r="A64" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="122" t="s">
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="E64" s="160" t="s">
+      <c r="E64" s="154" t="s">
         <v>251</v>
       </c>
       <c r="F64" s="77"/>
       <c r="G64" s="78"/>
-      <c r="H64" s="192" t="s">
+      <c r="H64" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I64" s="198" t="s">
+      <c r="I64" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J64" s="160"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="137"/>
-      <c r="N64" s="138"/>
-      <c r="O64" s="139"/>
-      <c r="P64" s="137"/>
-      <c r="Q64" s="140"/>
-    </row>
-    <row r="65" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A65" s="170" t="s">
+      <c r="J64" s="154"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="132"/>
+      <c r="O64" s="133"/>
+      <c r="P64" s="131"/>
+      <c r="Q64" s="134"/>
+    </row>
+    <row r="65" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A65" s="164" t="s">
         <v>252</v>
       </c>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="160" t="s">
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="154" t="s">
         <v>253</v>
       </c>
       <c r="F65" s="77"/>
       <c r="G65" s="78"/>
-      <c r="H65" s="192" t="s">
+      <c r="H65" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I65" s="198" t="s">
+      <c r="I65" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J65" s="160"/>
-      <c r="K65" s="160"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="137"/>
-      <c r="N65" s="138"/>
-      <c r="O65" s="139"/>
-      <c r="P65" s="137"/>
-      <c r="Q65" s="140"/>
-    </row>
-    <row r="66" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A66" s="170" t="s">
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="132"/>
+      <c r="O65" s="133"/>
+      <c r="P65" s="131"/>
+      <c r="Q65" s="134"/>
+    </row>
+    <row r="66" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A66" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="160" t="s">
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="154" t="s">
         <v>255</v>
       </c>
       <c r="F66" s="77"/>
       <c r="G66" s="78"/>
-      <c r="H66" s="192" t="s">
+      <c r="H66" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I66" s="198" t="s">
+      <c r="I66" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J66" s="160"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="137"/>
-      <c r="N66" s="138"/>
-      <c r="O66" s="139"/>
-      <c r="P66" s="137"/>
-      <c r="Q66" s="140"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="154"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="132"/>
+      <c r="O66" s="133"/>
+      <c r="P66" s="131"/>
+      <c r="Q66" s="134"/>
     </row>
     <row r="67" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="45" t="s">
@@ -8018,335 +8028,335 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="34"/>
     </row>
-    <row r="68" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A68" s="170" t="s">
+    <row r="68" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A68" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="160" t="s">
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="154" t="s">
         <v>266</v>
       </c>
       <c r="F68" s="77"/>
       <c r="G68" s="78"/>
-      <c r="H68" s="192" t="s">
+      <c r="H68" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I68" s="198" t="s">
+      <c r="I68" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J68" s="160"/>
-      <c r="K68" s="160"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="137"/>
-      <c r="N68" s="138"/>
-      <c r="O68" s="139"/>
-      <c r="P68" s="137"/>
-      <c r="Q68" s="140"/>
-    </row>
-    <row r="69" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A69" s="170" t="s">
+      <c r="J68" s="154"/>
+      <c r="K68" s="154"/>
+      <c r="L68" s="130"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="133"/>
+      <c r="P68" s="131"/>
+      <c r="Q68" s="134"/>
+    </row>
+    <row r="69" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A69" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="160" t="s">
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="154" t="s">
         <v>268</v>
       </c>
       <c r="F69" s="77"/>
       <c r="G69" s="78"/>
-      <c r="H69" s="192" t="s">
+      <c r="H69" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I69" s="198" t="s">
+      <c r="I69" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="136"/>
-      <c r="M69" s="137"/>
-      <c r="N69" s="138"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="137"/>
-      <c r="Q69" s="140"/>
-    </row>
-    <row r="70" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A70" s="170" t="s">
+      <c r="J69" s="154"/>
+      <c r="K69" s="154"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="132"/>
+      <c r="O69" s="133"/>
+      <c r="P69" s="131"/>
+      <c r="Q69" s="134"/>
+    </row>
+    <row r="70" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A70" s="164" t="s">
         <v>269</v>
       </c>
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="160" t="s">
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="154" t="s">
         <v>270</v>
       </c>
       <c r="F70" s="77"/>
       <c r="G70" s="78"/>
-      <c r="H70" s="192" t="s">
+      <c r="H70" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I70" s="198" t="s">
+      <c r="I70" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="136"/>
-      <c r="M70" s="137"/>
-      <c r="N70" s="138"/>
-      <c r="O70" s="139"/>
-      <c r="P70" s="137"/>
-      <c r="Q70" s="140"/>
-    </row>
-    <row r="71" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A71" s="170" t="s">
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="132"/>
+      <c r="O70" s="133"/>
+      <c r="P70" s="131"/>
+      <c r="Q70" s="134"/>
+    </row>
+    <row r="71" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A71" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="125"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="160" t="s">
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="154" t="s">
         <v>272</v>
       </c>
       <c r="F71" s="77"/>
       <c r="G71" s="78"/>
-      <c r="H71" s="192" t="s">
+      <c r="H71" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I71" s="198" t="s">
+      <c r="I71" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="J71" s="160"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="136"/>
-      <c r="M71" s="137"/>
-      <c r="N71" s="138"/>
-      <c r="O71" s="139"/>
-      <c r="P71" s="137"/>
-      <c r="Q71" s="140"/>
-    </row>
-    <row r="72" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A72" s="170" t="s">
+      <c r="J71" s="154"/>
+      <c r="K71" s="154"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="133"/>
+      <c r="P71" s="131"/>
+      <c r="Q71" s="134"/>
+    </row>
+    <row r="72" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A72" s="164" t="s">
         <v>273</v>
       </c>
-      <c r="B72" s="125"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125" t="s">
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="160" t="s">
+      <c r="E72" s="154" t="s">
         <v>190</v>
       </c>
       <c r="F72" s="77"/>
       <c r="G72" s="78"/>
-      <c r="H72" s="192" t="s">
+      <c r="H72" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I72" s="203" t="s">
+      <c r="I72" s="197" t="s">
         <v>288</v>
       </c>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="136"/>
-      <c r="M72" s="137"/>
-      <c r="N72" s="138"/>
-      <c r="O72" s="139"/>
-      <c r="P72" s="137"/>
-      <c r="Q72" s="140"/>
-    </row>
-    <row r="73" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A73" s="170" t="s">
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="132"/>
+      <c r="O72" s="133"/>
+      <c r="P72" s="131"/>
+      <c r="Q72" s="134"/>
+    </row>
+    <row r="73" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A73" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="122" t="s">
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="E73" s="160" t="s">
+      <c r="E73" s="154" t="s">
         <v>277</v>
       </c>
       <c r="F73" s="77"/>
       <c r="G73" s="78"/>
-      <c r="H73" s="192" t="s">
+      <c r="H73" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I73" s="122" t="s">
+      <c r="I73" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J73" s="160"/>
-      <c r="K73" s="160"/>
-      <c r="L73" s="136"/>
-      <c r="M73" s="137"/>
-      <c r="N73" s="138"/>
-      <c r="O73" s="139"/>
-      <c r="P73" s="137"/>
-      <c r="Q73" s="140"/>
-    </row>
-    <row r="74" spans="1:17" s="133" customFormat="1">
-      <c r="A74" s="170" t="s">
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="132"/>
+      <c r="O73" s="133"/>
+      <c r="P73" s="131"/>
+      <c r="Q73" s="134"/>
+    </row>
+    <row r="74" spans="1:17" s="127" customFormat="1">
+      <c r="A74" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="160" t="s">
+      <c r="B74" s="122"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="154" t="s">
         <v>279</v>
       </c>
       <c r="F74" s="77"/>
       <c r="G74" s="78"/>
-      <c r="H74" s="192" t="s">
+      <c r="H74" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I74" s="122" t="s">
+      <c r="I74" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J74" s="160"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="136"/>
-      <c r="M74" s="137"/>
-      <c r="N74" s="138"/>
-      <c r="O74" s="139"/>
-      <c r="P74" s="137"/>
-      <c r="Q74" s="140"/>
-    </row>
-    <row r="75" spans="1:17" s="133" customFormat="1">
-      <c r="A75" s="170" t="s">
+      <c r="J74" s="154"/>
+      <c r="K74" s="154"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="132"/>
+      <c r="O74" s="133"/>
+      <c r="P74" s="131"/>
+      <c r="Q74" s="134"/>
+    </row>
+    <row r="75" spans="1:17" s="127" customFormat="1">
+      <c r="A75" s="164" t="s">
         <v>280</v>
       </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="160" t="s">
+      <c r="B75" s="122"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="159"/>
+      <c r="E75" s="154" t="s">
         <v>281</v>
       </c>
       <c r="F75" s="77"/>
       <c r="G75" s="78"/>
-      <c r="H75" s="192" t="s">
+      <c r="H75" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I75" s="122" t="s">
+      <c r="I75" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J75" s="160"/>
-      <c r="K75" s="160"/>
-      <c r="L75" s="136"/>
-      <c r="M75" s="137"/>
-      <c r="N75" s="138"/>
-      <c r="O75" s="139"/>
-      <c r="P75" s="137"/>
-      <c r="Q75" s="140"/>
-    </row>
-    <row r="76" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A76" s="170" t="s">
+      <c r="J75" s="154"/>
+      <c r="K75" s="154"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="132"/>
+      <c r="O75" s="133"/>
+      <c r="P75" s="131"/>
+      <c r="Q75" s="134"/>
+    </row>
+    <row r="76" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A76" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="122" t="s">
+      <c r="B76" s="122"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="E76" s="160" t="s">
+      <c r="E76" s="154" t="s">
         <v>277</v>
       </c>
       <c r="F76" s="77"/>
       <c r="G76" s="78"/>
-      <c r="H76" s="192" t="s">
+      <c r="H76" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I76" s="122" t="s">
+      <c r="I76" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J76" s="160"/>
-      <c r="K76" s="160"/>
-      <c r="L76" s="136"/>
-      <c r="M76" s="137"/>
-      <c r="N76" s="138"/>
-      <c r="O76" s="139"/>
-      <c r="P76" s="137"/>
-      <c r="Q76" s="140"/>
-    </row>
-    <row r="77" spans="1:17" s="133" customFormat="1">
-      <c r="A77" s="170" t="s">
+      <c r="J76" s="154"/>
+      <c r="K76" s="154"/>
+      <c r="L76" s="130"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="132"/>
+      <c r="O76" s="133"/>
+      <c r="P76" s="131"/>
+      <c r="Q76" s="134"/>
+    </row>
+    <row r="77" spans="1:17" s="127" customFormat="1">
+      <c r="A77" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="160" t="s">
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="154" t="s">
         <v>279</v>
       </c>
       <c r="F77" s="77"/>
       <c r="G77" s="78"/>
-      <c r="H77" s="192" t="s">
+      <c r="H77" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I77" s="122" t="s">
+      <c r="I77" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J77" s="160"/>
-      <c r="K77" s="160"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="137"/>
-      <c r="N77" s="138"/>
-      <c r="O77" s="139"/>
-      <c r="P77" s="137"/>
-      <c r="Q77" s="140"/>
-    </row>
-    <row r="78" spans="1:17" s="133" customFormat="1">
-      <c r="A78" s="170" t="s">
+      <c r="J77" s="154"/>
+      <c r="K77" s="154"/>
+      <c r="L77" s="130"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="132"/>
+      <c r="O77" s="133"/>
+      <c r="P77" s="131"/>
+      <c r="Q77" s="134"/>
+    </row>
+    <row r="78" spans="1:17" s="127" customFormat="1">
+      <c r="A78" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="201" t="s">
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="159"/>
+      <c r="E78" s="195" t="s">
         <v>281</v>
       </c>
       <c r="F78" s="77"/>
       <c r="G78" s="78"/>
-      <c r="H78" s="192" t="s">
+      <c r="H78" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I78" s="122" t="s">
+      <c r="I78" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="137"/>
-      <c r="N78" s="138"/>
-      <c r="O78" s="139"/>
-      <c r="P78" s="137"/>
-      <c r="Q78" s="140"/>
-    </row>
-    <row r="79" spans="1:17" s="133" customFormat="1" ht="24">
-      <c r="A79" s="170" t="s">
+      <c r="J78" s="154"/>
+      <c r="K78" s="154"/>
+      <c r="L78" s="130"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="132"/>
+      <c r="O78" s="133"/>
+      <c r="P78" s="131"/>
+      <c r="Q78" s="134"/>
+    </row>
+    <row r="79" spans="1:17" s="127" customFormat="1" ht="24">
+      <c r="A79" s="164" t="s">
         <v>286</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="117" t="s">
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="114" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="202"/>
+      <c r="E79" s="196"/>
       <c r="F79" s="77"/>
       <c r="G79" s="78"/>
-      <c r="H79" s="192" t="s">
+      <c r="H79" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="I79" s="122" t="s">
+      <c r="I79" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J79" s="160"/>
-      <c r="K79" s="160"/>
-      <c r="L79" s="136"/>
-      <c r="M79" s="137"/>
-      <c r="N79" s="138"/>
-      <c r="O79" s="139"/>
-      <c r="P79" s="137"/>
-      <c r="Q79" s="140"/>
+      <c r="J79" s="154"/>
+      <c r="K79" s="154"/>
+      <c r="L79" s="130"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="132"/>
+      <c r="O79" s="133"/>
+      <c r="P79" s="131"/>
+      <c r="Q79" s="134"/>
     </row>
     <row r="80" spans="1:17" s="29" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="45" t="s">
@@ -8379,171 +8389,171 @@
       <c r="P80" s="30"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A81" s="170" t="s">
+    <row r="81" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A81" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="122" t="s">
+      <c r="B81" s="122"/>
+      <c r="C81" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="204" t="s">
+      <c r="D81" s="198" t="s">
         <v>292</v>
       </c>
-      <c r="E81" s="205"/>
+      <c r="E81" s="199"/>
       <c r="F81" s="77"/>
       <c r="G81" s="78"/>
-      <c r="H81" s="122" t="s">
+      <c r="H81" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I81" s="122" t="s">
+      <c r="I81" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J81" s="160"/>
-      <c r="K81" s="160"/>
-      <c r="L81" s="136"/>
-      <c r="M81" s="137"/>
-      <c r="N81" s="138"/>
-      <c r="O81" s="139"/>
-      <c r="P81" s="137"/>
-      <c r="Q81" s="140"/>
-    </row>
-    <row r="82" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A82" s="170" t="s">
+      <c r="J81" s="154"/>
+      <c r="K81" s="154"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="132"/>
+      <c r="O81" s="133"/>
+      <c r="P81" s="131"/>
+      <c r="Q81" s="134"/>
+    </row>
+    <row r="82" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A82" s="164" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="206" t="s">
+      <c r="B82" s="122"/>
+      <c r="C82" s="122"/>
+      <c r="D82" s="200" t="s">
         <v>294</v>
       </c>
-      <c r="E82" s="207" t="s">
+      <c r="E82" s="201" t="s">
         <v>295</v>
       </c>
       <c r="F82" s="77"/>
       <c r="G82" s="78"/>
-      <c r="H82" s="122" t="s">
+      <c r="H82" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I82" s="122" t="s">
+      <c r="I82" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J82" s="160"/>
-      <c r="K82" s="160"/>
-      <c r="L82" s="136"/>
-      <c r="M82" s="137"/>
-      <c r="N82" s="138"/>
-      <c r="O82" s="139"/>
-      <c r="P82" s="137"/>
-      <c r="Q82" s="140"/>
-    </row>
-    <row r="83" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A83" s="170" t="s">
+      <c r="J82" s="154"/>
+      <c r="K82" s="154"/>
+      <c r="L82" s="130"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="132"/>
+      <c r="O82" s="133"/>
+      <c r="P82" s="131"/>
+      <c r="Q82" s="134"/>
+    </row>
+    <row r="83" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A83" s="164" t="s">
         <v>296</v>
       </c>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="206"/>
-      <c r="E83" s="207" t="s">
+      <c r="B83" s="122"/>
+      <c r="C83" s="122"/>
+      <c r="D83" s="200"/>
+      <c r="E83" s="201" t="s">
         <v>297</v>
       </c>
       <c r="F83" s="77"/>
       <c r="G83" s="78"/>
-      <c r="H83" s="122" t="s">
+      <c r="H83" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I83" s="122" t="s">
+      <c r="I83" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J83" s="160"/>
-      <c r="K83" s="160"/>
-      <c r="L83" s="136"/>
-      <c r="M83" s="137"/>
-      <c r="N83" s="138"/>
-      <c r="O83" s="139"/>
-      <c r="P83" s="137"/>
-      <c r="Q83" s="140"/>
-    </row>
-    <row r="84" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A84" s="170" t="s">
+      <c r="J83" s="154"/>
+      <c r="K83" s="154"/>
+      <c r="L83" s="130"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="132"/>
+      <c r="O83" s="133"/>
+      <c r="P83" s="131"/>
+      <c r="Q83" s="134"/>
+    </row>
+    <row r="84" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A84" s="164" t="s">
         <v>298</v>
       </c>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="206" t="s">
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="200" t="s">
         <v>299</v>
       </c>
-      <c r="E84" s="208"/>
+      <c r="E84" s="202"/>
       <c r="F84" s="77"/>
       <c r="G84" s="78"/>
-      <c r="H84" s="122" t="s">
+      <c r="H84" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I84" s="122" t="s">
+      <c r="I84" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J84" s="160"/>
-      <c r="K84" s="160"/>
-      <c r="L84" s="136"/>
-      <c r="M84" s="137"/>
-      <c r="N84" s="138"/>
-      <c r="O84" s="139"/>
-      <c r="P84" s="137"/>
-      <c r="Q84" s="140"/>
-    </row>
-    <row r="85" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A85" s="170" t="s">
+      <c r="J84" s="154"/>
+      <c r="K84" s="154"/>
+      <c r="L84" s="130"/>
+      <c r="M84" s="131"/>
+      <c r="N84" s="132"/>
+      <c r="O84" s="133"/>
+      <c r="P84" s="131"/>
+      <c r="Q84" s="134"/>
+    </row>
+    <row r="85" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A85" s="164" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="206" t="s">
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="200" t="s">
         <v>301</v>
       </c>
-      <c r="E85" s="208"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="77"/>
       <c r="G85" s="78"/>
-      <c r="H85" s="122" t="s">
+      <c r="H85" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I85" s="122" t="s">
+      <c r="I85" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J85" s="160"/>
-      <c r="K85" s="160"/>
-      <c r="L85" s="136"/>
-      <c r="M85" s="137"/>
-      <c r="N85" s="138"/>
-      <c r="O85" s="139"/>
-      <c r="P85" s="137"/>
-      <c r="Q85" s="140"/>
-    </row>
-    <row r="86" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A86" s="170" t="s">
+      <c r="J85" s="154"/>
+      <c r="K85" s="154"/>
+      <c r="L85" s="130"/>
+      <c r="M85" s="131"/>
+      <c r="N85" s="132"/>
+      <c r="O85" s="133"/>
+      <c r="P85" s="131"/>
+      <c r="Q85" s="134"/>
+    </row>
+    <row r="86" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A86" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="206" t="s">
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="200" t="s">
         <v>303</v>
       </c>
-      <c r="E86" s="208"/>
+      <c r="E86" s="202"/>
       <c r="F86" s="77"/>
       <c r="G86" s="78"/>
-      <c r="H86" s="122" t="s">
+      <c r="H86" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I86" s="122" t="s">
+      <c r="I86" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J86" s="160"/>
-      <c r="K86" s="160"/>
-      <c r="L86" s="136"/>
-      <c r="M86" s="137"/>
-      <c r="N86" s="138"/>
-      <c r="O86" s="139"/>
-      <c r="P86" s="137"/>
-      <c r="Q86" s="140"/>
+      <c r="J86" s="154"/>
+      <c r="K86" s="154"/>
+      <c r="L86" s="130"/>
+      <c r="M86" s="131"/>
+      <c r="N86" s="132"/>
+      <c r="O86" s="133"/>
+      <c r="P86" s="131"/>
+      <c r="Q86" s="134"/>
     </row>
     <row r="87" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="45" t="s">
@@ -8700,140 +8710,140 @@
       <c r="P91" s="30"/>
       <c r="Q91" s="34"/>
     </row>
-    <row r="92" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A92" s="170" t="s">
+    <row r="92" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A92" s="164" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="206" t="s">
+      <c r="B92" s="122"/>
+      <c r="C92" s="122"/>
+      <c r="D92" s="200" t="s">
         <v>307</v>
       </c>
-      <c r="E92" s="208"/>
+      <c r="E92" s="202"/>
       <c r="F92" s="77"/>
       <c r="G92" s="78"/>
-      <c r="H92" s="122" t="s">
+      <c r="H92" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I92" s="122" t="s">
+      <c r="I92" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J92" s="160"/>
-      <c r="K92" s="160"/>
-      <c r="L92" s="136"/>
-      <c r="M92" s="137"/>
-      <c r="N92" s="138"/>
-      <c r="O92" s="139"/>
-      <c r="P92" s="137"/>
-      <c r="Q92" s="140"/>
-    </row>
-    <row r="93" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A93" s="170" t="s">
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="131"/>
+      <c r="N92" s="132"/>
+      <c r="O92" s="133"/>
+      <c r="P92" s="131"/>
+      <c r="Q92" s="134"/>
+    </row>
+    <row r="93" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A93" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="206" t="s">
+      <c r="B93" s="122"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="E93" s="208"/>
+      <c r="E93" s="202"/>
       <c r="F93" s="77"/>
       <c r="G93" s="78"/>
-      <c r="H93" s="122" t="s">
+      <c r="H93" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I93" s="122" t="s">
+      <c r="I93" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J93" s="160"/>
-      <c r="K93" s="160"/>
-      <c r="L93" s="136"/>
-      <c r="M93" s="137"/>
-      <c r="N93" s="138"/>
-      <c r="O93" s="139"/>
-      <c r="P93" s="137"/>
-      <c r="Q93" s="140"/>
-    </row>
-    <row r="94" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A94" s="170" t="s">
+      <c r="J93" s="154"/>
+      <c r="K93" s="154"/>
+      <c r="L93" s="130"/>
+      <c r="M93" s="131"/>
+      <c r="N93" s="132"/>
+      <c r="O93" s="133"/>
+      <c r="P93" s="131"/>
+      <c r="Q93" s="134"/>
+    </row>
+    <row r="94" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A94" s="164" t="s">
         <v>309</v>
       </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="125"/>
-      <c r="D94" s="206" t="s">
+      <c r="B94" s="122"/>
+      <c r="C94" s="122"/>
+      <c r="D94" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="E94" s="208"/>
+      <c r="E94" s="202"/>
       <c r="F94" s="77"/>
       <c r="G94" s="78"/>
-      <c r="H94" s="122" t="s">
+      <c r="H94" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I94" s="122" t="s">
+      <c r="I94" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J94" s="160"/>
-      <c r="K94" s="160"/>
-      <c r="L94" s="136"/>
-      <c r="M94" s="137"/>
-      <c r="N94" s="138"/>
-      <c r="O94" s="139"/>
-      <c r="P94" s="137"/>
-      <c r="Q94" s="140"/>
-    </row>
-    <row r="95" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A95" s="170" t="s">
+      <c r="J94" s="154"/>
+      <c r="K94" s="154"/>
+      <c r="L94" s="130"/>
+      <c r="M94" s="131"/>
+      <c r="N94" s="132"/>
+      <c r="O94" s="133"/>
+      <c r="P94" s="131"/>
+      <c r="Q94" s="134"/>
+    </row>
+    <row r="95" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A95" s="164" t="s">
         <v>311</v>
       </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="125"/>
-      <c r="D95" s="206" t="s">
+      <c r="B95" s="122"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="E95" s="208"/>
+      <c r="E95" s="202"/>
       <c r="F95" s="77"/>
       <c r="G95" s="78"/>
-      <c r="H95" s="209" t="s">
+      <c r="H95" s="203" t="s">
         <v>304</v>
       </c>
-      <c r="I95" s="178" t="s">
+      <c r="I95" s="172" t="s">
         <v>305</v>
       </c>
-      <c r="J95" s="160"/>
-      <c r="K95" s="160"/>
-      <c r="L95" s="136"/>
-      <c r="M95" s="137"/>
-      <c r="N95" s="138"/>
-      <c r="O95" s="139"/>
-      <c r="P95" s="137"/>
-      <c r="Q95" s="140"/>
-    </row>
-    <row r="96" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A96" s="170" t="s">
+      <c r="J95" s="154"/>
+      <c r="K95" s="154"/>
+      <c r="L95" s="130"/>
+      <c r="M95" s="131"/>
+      <c r="N95" s="132"/>
+      <c r="O95" s="133"/>
+      <c r="P95" s="131"/>
+      <c r="Q95" s="134"/>
+    </row>
+    <row r="96" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A96" s="164" t="s">
         <v>313</v>
       </c>
-      <c r="B96" s="125"/>
-      <c r="C96" s="125"/>
-      <c r="D96" s="206" t="s">
+      <c r="B96" s="122"/>
+      <c r="C96" s="122"/>
+      <c r="D96" s="200" t="s">
         <v>314</v>
       </c>
-      <c r="E96" s="208"/>
+      <c r="E96" s="202"/>
       <c r="F96" s="77"/>
       <c r="G96" s="78"/>
-      <c r="H96" s="122" t="s">
+      <c r="H96" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I96" s="122" t="s">
+      <c r="I96" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J96" s="160"/>
-      <c r="K96" s="160"/>
-      <c r="L96" s="136"/>
-      <c r="M96" s="137"/>
-      <c r="N96" s="138"/>
-      <c r="O96" s="139"/>
-      <c r="P96" s="137"/>
-      <c r="Q96" s="140"/>
+      <c r="J96" s="154"/>
+      <c r="K96" s="154"/>
+      <c r="L96" s="130"/>
+      <c r="M96" s="131"/>
+      <c r="N96" s="132"/>
+      <c r="O96" s="133"/>
+      <c r="P96" s="131"/>
+      <c r="Q96" s="134"/>
     </row>
     <row r="97" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="45" t="s">
@@ -8866,86 +8876,86 @@
       <c r="P97" s="30"/>
       <c r="Q97" s="34"/>
     </row>
-    <row r="98" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A98" s="170" t="s">
+    <row r="98" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A98" s="164" t="s">
         <v>315</v>
       </c>
-      <c r="B98" s="125"/>
-      <c r="C98" s="125"/>
-      <c r="D98" s="210" t="s">
+      <c r="B98" s="122"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="204" t="s">
         <v>316</v>
       </c>
-      <c r="E98" s="211"/>
+      <c r="E98" s="205"/>
       <c r="F98" s="77"/>
       <c r="G98" s="78"/>
-      <c r="H98" s="122" t="s">
+      <c r="H98" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I98" s="122" t="s">
+      <c r="I98" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J98" s="160"/>
-      <c r="K98" s="160"/>
-      <c r="L98" s="136"/>
-      <c r="M98" s="137"/>
-      <c r="N98" s="138"/>
-      <c r="O98" s="139"/>
-      <c r="P98" s="137"/>
-      <c r="Q98" s="140"/>
-    </row>
-    <row r="99" spans="1:17" s="133" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A99" s="170" t="s">
+      <c r="J98" s="154"/>
+      <c r="K98" s="154"/>
+      <c r="L98" s="130"/>
+      <c r="M98" s="131"/>
+      <c r="N98" s="132"/>
+      <c r="O98" s="133"/>
+      <c r="P98" s="131"/>
+      <c r="Q98" s="134"/>
+    </row>
+    <row r="99" spans="1:17" s="127" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A99" s="164" t="s">
         <v>317</v>
       </c>
-      <c r="B99" s="125"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="210" t="s">
+      <c r="B99" s="122"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="204" t="s">
         <v>318</v>
       </c>
-      <c r="E99" s="211"/>
+      <c r="E99" s="205"/>
       <c r="F99" s="77"/>
       <c r="G99" s="78"/>
-      <c r="H99" s="122" t="s">
+      <c r="H99" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="I99" s="122" t="s">
+      <c r="I99" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="J99" s="160"/>
-      <c r="K99" s="160"/>
-      <c r="L99" s="136"/>
-      <c r="M99" s="137"/>
-      <c r="N99" s="138"/>
-      <c r="O99" s="139"/>
-      <c r="P99" s="137"/>
-      <c r="Q99" s="140"/>
-    </row>
-    <row r="100" spans="1:17" s="133" customFormat="1" ht="45" customHeight="1">
-      <c r="A100" s="212" t="s">
+      <c r="J99" s="154"/>
+      <c r="K99" s="154"/>
+      <c r="L99" s="130"/>
+      <c r="M99" s="131"/>
+      <c r="N99" s="132"/>
+      <c r="O99" s="133"/>
+      <c r="P99" s="131"/>
+      <c r="Q99" s="134"/>
+    </row>
+    <row r="100" spans="1:17" s="127" customFormat="1" ht="45" customHeight="1">
+      <c r="A100" s="206" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="125"/>
-      <c r="C100" s="125"/>
-      <c r="D100" s="213" t="s">
+      <c r="B100" s="122"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="207" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="214"/>
+      <c r="E100" s="208"/>
       <c r="F100" s="77"/>
       <c r="G100" s="78"/>
-      <c r="H100" s="215" t="s">
+      <c r="H100" s="209" t="s">
         <v>304</v>
       </c>
-      <c r="I100" s="216" t="s">
+      <c r="I100" s="210" t="s">
         <v>305</v>
       </c>
-      <c r="J100" s="217"/>
-      <c r="K100" s="217"/>
-      <c r="L100" s="218"/>
-      <c r="M100" s="219"/>
-      <c r="N100" s="220"/>
-      <c r="O100" s="221"/>
-      <c r="P100" s="219"/>
-      <c r="Q100" s="222"/>
+      <c r="J100" s="211"/>
+      <c r="K100" s="211"/>
+      <c r="L100" s="212"/>
+      <c r="M100" s="213"/>
+      <c r="N100" s="214"/>
+      <c r="O100" s="215"/>
+      <c r="P100" s="213"/>
+      <c r="Q100" s="216"/>
     </row>
     <row r="101" spans="1:17" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="61" t="s">
@@ -9010,171 +9020,171 @@
       <c r="Q102" s="73"/>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="223"/>
-      <c r="B103" s="223"/>
-      <c r="C103" s="224"/>
-      <c r="D103" s="225"/>
-      <c r="E103" s="224"/>
-      <c r="H103" s="224"/>
-      <c r="I103" s="223"/>
-      <c r="J103" s="223"/>
-      <c r="K103" s="223"/>
-      <c r="L103" s="223"/>
-      <c r="M103" s="223"/>
-      <c r="N103" s="223"/>
-      <c r="O103" s="223"/>
-      <c r="P103" s="223"/>
-      <c r="Q103" s="223"/>
+      <c r="A103" s="217"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="218"/>
+      <c r="D103" s="219"/>
+      <c r="E103" s="218"/>
+      <c r="H103" s="218"/>
+      <c r="I103" s="217"/>
+      <c r="J103" s="217"/>
+      <c r="K103" s="217"/>
+      <c r="L103" s="217"/>
+      <c r="M103" s="217"/>
+      <c r="N103" s="217"/>
+      <c r="O103" s="217"/>
+      <c r="P103" s="217"/>
+      <c r="Q103" s="217"/>
     </row>
     <row r="104" spans="1:17">
-      <c r="C104" s="133"/>
-      <c r="D104" s="226"/>
-      <c r="E104" s="133"/>
-      <c r="H104" s="133"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="220"/>
+      <c r="E104" s="127"/>
+      <c r="H104" s="127"/>
     </row>
     <row r="105" spans="1:17">
-      <c r="C105" s="133"/>
-      <c r="D105" s="226"/>
-      <c r="E105" s="133"/>
-      <c r="H105" s="133"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="220"/>
+      <c r="E105" s="127"/>
+      <c r="H105" s="127"/>
     </row>
     <row r="106" spans="1:17">
-      <c r="C106" s="133"/>
-      <c r="D106" s="226"/>
-      <c r="E106" s="133"/>
-      <c r="H106" s="133"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="220"/>
+      <c r="E106" s="127"/>
+      <c r="H106" s="127"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="C107" s="133"/>
-      <c r="D107" s="226"/>
-      <c r="E107" s="133"/>
-      <c r="H107" s="133"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="220"/>
+      <c r="E107" s="127"/>
+      <c r="H107" s="127"/>
     </row>
     <row r="108" spans="1:17">
-      <c r="C108" s="133"/>
-      <c r="D108" s="226"/>
-      <c r="E108" s="133"/>
-      <c r="H108" s="133"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="220"/>
+      <c r="E108" s="127"/>
+      <c r="H108" s="127"/>
     </row>
     <row r="109" spans="1:17">
-      <c r="C109" s="133"/>
-      <c r="D109" s="226"/>
-      <c r="E109" s="133"/>
-      <c r="H109" s="133"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="220"/>
+      <c r="E109" s="127"/>
+      <c r="H109" s="127"/>
     </row>
     <row r="110" spans="1:17">
-      <c r="C110" s="133"/>
-      <c r="D110" s="226"/>
-      <c r="E110" s="133"/>
-      <c r="H110" s="133"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="220"/>
+      <c r="E110" s="127"/>
+      <c r="H110" s="127"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="C111" s="133"/>
-      <c r="D111" s="226"/>
-      <c r="E111" s="133"/>
-      <c r="H111" s="133"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="220"/>
+      <c r="E111" s="127"/>
+      <c r="H111" s="127"/>
     </row>
     <row r="112" spans="1:17">
-      <c r="C112" s="133"/>
-      <c r="D112" s="226"/>
-      <c r="E112" s="133"/>
-      <c r="H112" s="133"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="220"/>
+      <c r="E112" s="127"/>
+      <c r="H112" s="127"/>
     </row>
     <row r="113" spans="3:8">
-      <c r="C113" s="133"/>
-      <c r="D113" s="226"/>
-      <c r="E113" s="133"/>
-      <c r="H113" s="133"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="220"/>
+      <c r="E113" s="127"/>
+      <c r="H113" s="127"/>
     </row>
     <row r="114" spans="3:8">
-      <c r="C114" s="133"/>
-      <c r="D114" s="226"/>
-      <c r="E114" s="133"/>
-      <c r="H114" s="133"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="220"/>
+      <c r="E114" s="127"/>
+      <c r="H114" s="127"/>
     </row>
     <row r="115" spans="3:8">
-      <c r="C115" s="133"/>
-      <c r="D115" s="226"/>
-      <c r="E115" s="133"/>
-      <c r="H115" s="133"/>
+      <c r="C115" s="127"/>
+      <c r="D115" s="220"/>
+      <c r="E115" s="127"/>
+      <c r="H115" s="127"/>
     </row>
     <row r="116" spans="3:8">
-      <c r="C116" s="133"/>
-      <c r="D116" s="226"/>
-      <c r="E116" s="133"/>
-      <c r="H116" s="133"/>
+      <c r="C116" s="127"/>
+      <c r="D116" s="220"/>
+      <c r="E116" s="127"/>
+      <c r="H116" s="127"/>
     </row>
     <row r="117" spans="3:8">
-      <c r="C117" s="133"/>
-      <c r="D117" s="226"/>
-      <c r="E117" s="133"/>
-      <c r="H117" s="133"/>
+      <c r="C117" s="127"/>
+      <c r="D117" s="220"/>
+      <c r="E117" s="127"/>
+      <c r="H117" s="127"/>
     </row>
     <row r="118" spans="3:8">
-      <c r="C118" s="133"/>
-      <c r="D118" s="226"/>
-      <c r="E118" s="133"/>
-      <c r="H118" s="133"/>
+      <c r="C118" s="127"/>
+      <c r="D118" s="220"/>
+      <c r="E118" s="127"/>
+      <c r="H118" s="127"/>
     </row>
     <row r="119" spans="3:8">
-      <c r="C119" s="133"/>
-      <c r="D119" s="226"/>
-      <c r="E119" s="133"/>
-      <c r="H119" s="133"/>
+      <c r="C119" s="127"/>
+      <c r="D119" s="220"/>
+      <c r="E119" s="127"/>
+      <c r="H119" s="127"/>
     </row>
     <row r="120" spans="3:8">
-      <c r="C120" s="133"/>
-      <c r="D120" s="226"/>
-      <c r="E120" s="133"/>
-      <c r="H120" s="133"/>
+      <c r="C120" s="127"/>
+      <c r="D120" s="220"/>
+      <c r="E120" s="127"/>
+      <c r="H120" s="127"/>
     </row>
     <row r="121" spans="3:8">
-      <c r="C121" s="133"/>
-      <c r="D121" s="226"/>
-      <c r="E121" s="133"/>
-      <c r="H121" s="133"/>
+      <c r="C121" s="127"/>
+      <c r="D121" s="220"/>
+      <c r="E121" s="127"/>
+      <c r="H121" s="127"/>
     </row>
     <row r="122" spans="3:8">
-      <c r="C122" s="133"/>
-      <c r="D122" s="226"/>
-      <c r="E122" s="133"/>
-      <c r="H122" s="133"/>
+      <c r="C122" s="127"/>
+      <c r="D122" s="220"/>
+      <c r="E122" s="127"/>
+      <c r="H122" s="127"/>
     </row>
     <row r="123" spans="3:8">
-      <c r="C123" s="133"/>
-      <c r="D123" s="226"/>
-      <c r="E123" s="133"/>
-      <c r="H123" s="133"/>
+      <c r="C123" s="127"/>
+      <c r="D123" s="220"/>
+      <c r="E123" s="127"/>
+      <c r="H123" s="127"/>
     </row>
     <row r="124" spans="3:8">
-      <c r="C124" s="133"/>
-      <c r="D124" s="226"/>
-      <c r="E124" s="133"/>
-      <c r="H124" s="133"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="220"/>
+      <c r="E124" s="127"/>
+      <c r="H124" s="127"/>
     </row>
     <row r="125" spans="3:8">
-      <c r="C125" s="133"/>
-      <c r="D125" s="226"/>
-      <c r="E125" s="133"/>
-      <c r="H125" s="133"/>
+      <c r="C125" s="127"/>
+      <c r="D125" s="220"/>
+      <c r="E125" s="127"/>
+      <c r="H125" s="127"/>
     </row>
     <row r="126" spans="3:8">
-      <c r="C126" s="133"/>
-      <c r="D126" s="226"/>
-      <c r="E126" s="133"/>
-      <c r="H126" s="133"/>
+      <c r="C126" s="127"/>
+      <c r="D126" s="220"/>
+      <c r="E126" s="127"/>
+      <c r="H126" s="127"/>
     </row>
     <row r="127" spans="3:8">
-      <c r="C127" s="133"/>
-      <c r="D127" s="226"/>
-      <c r="E127" s="133"/>
-      <c r="H127" s="133"/>
+      <c r="C127" s="127"/>
+      <c r="D127" s="220"/>
+      <c r="E127" s="127"/>
+      <c r="H127" s="127"/>
     </row>
     <row r="128" spans="3:8">
-      <c r="C128" s="133"/>
-      <c r="D128" s="226"/>
-      <c r="E128" s="133"/>
-      <c r="H128" s="133"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="220"/>
+      <c r="E128" s="127"/>
+      <c r="H128" s="127"/>
     </row>
   </sheetData>
   <autoFilter ref="A10:Q102" xr:uid="{00000000-0009-0000-0000-000002000000}">
@@ -9287,20 +9297,20 @@
     <row r="9" spans="1:17" ht="12.75" thickTop="1">
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:17" s="133" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="113" t="s">
+    <row r="10" spans="1:17" s="251" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A10" s="246" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="246" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="246" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="246" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="246" t="s">
         <v>129</v>
       </c>
       <c r="F10" s="91" t="s">
@@ -9309,399 +9319,399 @@
       <c r="G10" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="113" t="s">
+      <c r="H10" s="246" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="131" t="s">
+      <c r="J10" s="249" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="249" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="L10" s="249" t="s">
         <v>360</v>
       </c>
-      <c r="M10" s="131" t="s">
+      <c r="M10" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="131" t="s">
+      <c r="N10" s="249" t="s">
         <v>156</v>
       </c>
-      <c r="O10" s="131" t="s">
+      <c r="O10" s="249" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="P10" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="131" t="s">
+      <c r="Q10" s="249" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="133" customFormat="1" ht="60">
-      <c r="A11" s="227" t="s">
+    <row r="11" spans="1:17" s="127" customFormat="1" ht="60">
+      <c r="A11" s="221" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="222" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="222" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="114" t="s">
         <v>343</v>
       </c>
-      <c r="E11" s="202"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
-      <c r="H11" s="228" t="s">
+      <c r="H11" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I11" s="228" t="s">
+      <c r="I11" s="222" t="s">
         <v>334</v>
       </c>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-    </row>
-    <row r="12" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A12" s="229" t="s">
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="231"/>
+      <c r="N11" s="232"/>
+      <c r="O11" s="231"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="231"/>
+    </row>
+    <row r="12" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A12" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="231" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="225" t="s">
         <v>348</v>
       </c>
-      <c r="E12" s="232"/>
+      <c r="E12" s="226"/>
       <c r="F12" s="87"/>
       <c r="G12" s="87"/>
-      <c r="H12" s="228" t="s">
+      <c r="H12" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="228" t="s">
+      <c r="I12" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="241"/>
-      <c r="N12" s="242"/>
-      <c r="O12" s="241"/>
-      <c r="P12" s="241"/>
-      <c r="Q12" s="241"/>
-    </row>
-    <row r="13" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A13" s="229" t="s">
+      <c r="J12" s="233"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="236"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="235"/>
+    </row>
+    <row r="13" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A13" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="230"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231" t="s">
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="225" t="s">
         <v>322</v>
       </c>
-      <c r="E13" s="232"/>
+      <c r="E13" s="226"/>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
-      <c r="H13" s="228" t="s">
+      <c r="H13" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I13" s="228" t="s">
+      <c r="I13" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="241"/>
-      <c r="N13" s="242"/>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-    </row>
-    <row r="14" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A14" s="229" t="s">
+      <c r="J13" s="233"/>
+      <c r="K13" s="233"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="236"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+    </row>
+    <row r="14" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A14" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="230"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="231" t="s">
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="225" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="232"/>
+      <c r="E14" s="226"/>
       <c r="F14" s="87"/>
       <c r="G14" s="87"/>
-      <c r="H14" s="228" t="s">
+      <c r="H14" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I14" s="228" t="s">
+      <c r="I14" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="241"/>
-      <c r="N14" s="242"/>
-      <c r="O14" s="241"/>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="241"/>
-    </row>
-    <row r="15" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="229" t="s">
+      <c r="J14" s="233"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="235"/>
+      <c r="N14" s="236"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+    </row>
+    <row r="15" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="230"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="233" t="s">
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="227" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="234" t="s">
+      <c r="E15" s="228" t="s">
         <v>349</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87"/>
-      <c r="H15" s="228" t="s">
+      <c r="H15" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="228" t="s">
+      <c r="I15" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="241"/>
-      <c r="N15" s="242"/>
-      <c r="O15" s="241"/>
-      <c r="P15" s="241"/>
-      <c r="Q15" s="241"/>
-    </row>
-    <row r="16" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A16" s="229" t="s">
+      <c r="J15" s="233"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="235"/>
+      <c r="N15" s="236"/>
+      <c r="O15" s="235"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="235"/>
+    </row>
+    <row r="16" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A16" s="223" t="s">
         <v>324</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="203" t="s">
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="197" t="s">
         <v>325</v>
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87"/>
-      <c r="H16" s="228" t="s">
+      <c r="H16" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I16" s="228" t="s">
+      <c r="I16" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="240"/>
-      <c r="M16" s="241"/>
-      <c r="N16" s="242"/>
-      <c r="O16" s="241"/>
-      <c r="P16" s="241"/>
-      <c r="Q16" s="241"/>
-    </row>
-    <row r="17" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A17" s="229" t="s">
+      <c r="J16" s="233"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="235"/>
+      <c r="N16" s="236"/>
+      <c r="O16" s="235"/>
+      <c r="P16" s="235"/>
+      <c r="Q16" s="235"/>
+    </row>
+    <row r="17" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A17" s="223" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="230"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="234" t="s">
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="228" t="s">
         <v>327</v>
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="87"/>
-      <c r="H17" s="228" t="s">
+      <c r="H17" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="228" t="s">
+      <c r="I17" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="240"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="242"/>
-      <c r="O17" s="241"/>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="241"/>
-    </row>
-    <row r="18" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A18" s="229" t="s">
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="235"/>
+      <c r="N17" s="236"/>
+      <c r="O17" s="235"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+    </row>
+    <row r="18" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A18" s="223" t="s">
         <v>328</v>
       </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="234" t="s">
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="228" t="s">
         <v>200</v>
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="87"/>
-      <c r="H18" s="228" t="s">
+      <c r="H18" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I18" s="228" t="s">
+      <c r="I18" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J18" s="239"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="240"/>
-      <c r="M18" s="241"/>
-      <c r="N18" s="242"/>
-      <c r="O18" s="241"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="241"/>
-    </row>
-    <row r="19" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A19" s="229" t="s">
+      <c r="J18" s="233"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="236"/>
+      <c r="O18" s="235"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+    </row>
+    <row r="19" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A19" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="230"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="234" t="s">
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="228" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="203" t="s">
+      <c r="E19" s="197" t="s">
         <v>330</v>
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87"/>
-      <c r="H19" s="228" t="s">
+      <c r="H19" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I19" s="228" t="s">
+      <c r="I19" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J19" s="239"/>
-      <c r="K19" s="239"/>
-      <c r="L19" s="240"/>
-      <c r="M19" s="241"/>
-      <c r="N19" s="242"/>
-      <c r="O19" s="241"/>
-      <c r="P19" s="241"/>
-      <c r="Q19" s="241"/>
-    </row>
-    <row r="20" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A20" s="229" t="s">
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="235"/>
+      <c r="N19" s="236"/>
+      <c r="O19" s="235"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+    </row>
+    <row r="20" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A20" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="230"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="117" t="s">
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="114" t="s">
         <v>344</v>
       </c>
-      <c r="E20" s="203" t="s">
+      <c r="E20" s="197" t="s">
         <v>345</v>
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87"/>
-      <c r="H20" s="228" t="s">
+      <c r="H20" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I20" s="228" t="s">
+      <c r="I20" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J20" s="239"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="243"/>
-      <c r="M20" s="244"/>
-      <c r="N20" s="245"/>
-      <c r="O20" s="244"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-    </row>
-    <row r="21" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A21" s="229" t="s">
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="238"/>
+      <c r="Q20" s="238"/>
+    </row>
+    <row r="21" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A21" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="230"/>
-      <c r="C21" s="230"/>
-      <c r="D21" s="314" t="s">
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="315" t="s">
         <v>331</v>
       </c>
-      <c r="E21" s="315"/>
+      <c r="E21" s="316"/>
       <c r="F21" s="87"/>
       <c r="G21" s="87"/>
-      <c r="H21" s="228" t="s">
+      <c r="H21" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I21" s="228" t="s">
+      <c r="I21" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J21" s="239"/>
-      <c r="K21" s="239"/>
-      <c r="L21" s="243"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="245"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-    </row>
-    <row r="22" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A22" s="229" t="s">
+      <c r="J21" s="233"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="239"/>
+      <c r="O21" s="238"/>
+      <c r="P21" s="238"/>
+      <c r="Q21" s="238"/>
+    </row>
+    <row r="22" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A22" s="223" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="230"/>
-      <c r="C22" s="233" t="s">
+      <c r="B22" s="224"/>
+      <c r="C22" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="231" t="s">
+      <c r="D22" s="225" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="232"/>
+      <c r="E22" s="226"/>
       <c r="F22" s="87"/>
       <c r="G22" s="87"/>
-      <c r="H22" s="228" t="s">
+      <c r="H22" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I22" s="228" t="s">
+      <c r="I22" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J22" s="239"/>
-      <c r="K22" s="239"/>
-      <c r="L22" s="240"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="242"/>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-    </row>
-    <row r="23" spans="1:17" s="133" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A23" s="229" t="s">
+      <c r="J22" s="233"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="235"/>
+      <c r="N22" s="236"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+    </row>
+    <row r="23" spans="1:17" s="127" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A23" s="223" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="231" t="s">
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="225" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="232"/>
+      <c r="E23" s="226"/>
       <c r="F23" s="87"/>
       <c r="G23" s="87"/>
-      <c r="H23" s="228" t="s">
+      <c r="H23" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="I23" s="228" t="s">
+      <c r="I23" s="222" t="s">
         <v>335</v>
       </c>
-      <c r="J23" s="239"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="233"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="236"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
     </row>
     <row r="24" spans="1:17" s="29" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="99" t="s">
@@ -9767,125 +9777,125 @@
       <c r="P25" s="97"/>
       <c r="Q25" s="97"/>
     </row>
-    <row r="26" spans="1:17" s="133" customFormat="1">
-      <c r="A26" s="246"/>
-      <c r="B26" s="247"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="248"/>
+    <row r="26" spans="1:17" s="127" customFormat="1">
+      <c r="A26" s="240"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="242"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="247"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="247"/>
-    </row>
-    <row r="27" spans="1:17" s="133" customFormat="1">
-      <c r="A27" s="249"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="241"/>
+    </row>
+    <row r="27" spans="1:17" s="127" customFormat="1">
+      <c r="A27" s="243"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="244"/>
+      <c r="E27" s="244"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="249"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="249"/>
-      <c r="M27" s="249"/>
-      <c r="N27" s="249"/>
-      <c r="O27" s="249"/>
-      <c r="P27" s="249"/>
-      <c r="Q27" s="249"/>
-    </row>
-    <row r="28" spans="1:17" s="133" customFormat="1">
-      <c r="D28" s="226"/>
-      <c r="E28" s="226"/>
+      <c r="H27" s="243"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="243"/>
+      <c r="L27" s="243"/>
+      <c r="M27" s="243"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="243"/>
+      <c r="P27" s="243"/>
+      <c r="Q27" s="243"/>
+    </row>
+    <row r="28" spans="1:17" s="127" customFormat="1">
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:17" s="133" customFormat="1">
-      <c r="D29" s="226"/>
-      <c r="E29" s="226"/>
+    <row r="29" spans="1:17" s="127" customFormat="1">
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:17" s="133" customFormat="1">
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
+    <row r="30" spans="1:17" s="127" customFormat="1">
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:17" s="133" customFormat="1">
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
+    <row r="31" spans="1:17" s="127" customFormat="1">
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:17" s="133" customFormat="1">
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
+    <row r="32" spans="1:17" s="127" customFormat="1">
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="4:7" s="133" customFormat="1">
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
+    <row r="33" spans="4:7" s="127" customFormat="1">
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="4:7" s="133" customFormat="1">
-      <c r="D34" s="226"/>
-      <c r="E34" s="226"/>
+    <row r="34" spans="4:7" s="127" customFormat="1">
+      <c r="D34" s="220"/>
+      <c r="E34" s="220"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="4:7" s="133" customFormat="1">
-      <c r="D35" s="226"/>
-      <c r="E35" s="226"/>
+    <row r="35" spans="4:7" s="127" customFormat="1">
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="4:7" s="133" customFormat="1">
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
+    <row r="36" spans="4:7" s="127" customFormat="1">
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="4:7" s="133" customFormat="1">
-      <c r="D37" s="226"/>
-      <c r="E37" s="226"/>
+    <row r="37" spans="4:7" s="127" customFormat="1">
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="4:7" s="133" customFormat="1">
-      <c r="D38" s="226"/>
-      <c r="E38" s="226"/>
+    <row r="38" spans="4:7" s="127" customFormat="1">
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="4:7" s="133" customFormat="1">
-      <c r="D39" s="226"/>
-      <c r="E39" s="226"/>
+    <row r="39" spans="4:7" s="127" customFormat="1">
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="4:7" s="133" customFormat="1">
-      <c r="D40" s="226"/>
-      <c r="E40" s="226"/>
+    <row r="40" spans="4:7" s="127" customFormat="1">
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="4:7" s="133" customFormat="1">
-      <c r="D41" s="226"/>
-      <c r="E41" s="226"/>
+    <row r="41" spans="4:7" s="127" customFormat="1">
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>
